--- a/dots.xlsx
+++ b/dots.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="38">
   <si>
     <t>x</t>
   </si>
@@ -95,6 +95,45 @@
   </si>
   <si>
     <t>scaled</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>ordinal offset</t>
+  </si>
+  <si>
+    <t>x max</t>
+  </si>
+  <si>
+    <t>y max</t>
+  </si>
+  <si>
+    <t>xmin</t>
+  </si>
+  <si>
+    <t>ymin</t>
+  </si>
+  <si>
+    <t>center both clusters to be on range</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>center offset</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -247,34 +286,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>70.704187860247458</c:v>
+                  <c:v>22.507909835843524</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.57692986082564</c:v>
+                  <c:v>19.863260185540526</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5158658588574325</c:v>
+                  <c:v>75.912066857629043</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.387251166843914</c:v>
+                  <c:v>11.158368838035065</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.360550130584718</c:v>
+                  <c:v>50.066356605766636</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.87491183509648</c:v>
+                  <c:v>50.94922864097731</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.5263954165820595</c:v>
+                  <c:v>3.5300134694286918</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84.464169756184532</c:v>
+                  <c:v>56.488754440070977</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45.347636239878923</c:v>
+                  <c:v>80.07543193298568</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.3427706844336242</c:v>
+                  <c:v>29.873759053697437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -286,34 +325,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>66.764920200533737</c:v>
+                  <c:v>51.813169348197107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.034970470442282</c:v>
+                  <c:v>53.356974152320703</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.152706725296284</c:v>
+                  <c:v>12.761359790182011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.840024985605812</c:v>
+                  <c:v>32.447014129658029</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.948939925070302</c:v>
+                  <c:v>43.807572151912233</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.197360062158634</c:v>
+                  <c:v>35.306054573694652</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4723921483138689</c:v>
+                  <c:v>30.513887140696763</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.550504831731267</c:v>
+                  <c:v>51.20225447841495</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.464544251375514</c:v>
+                  <c:v>36.915884692035164</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.784927771510009</c:v>
+                  <c:v>62.401886797161133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -360,34 +399,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.9364508560941278</c:v>
+                  <c:v>43.798659542590798</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.907281396743606</c:v>
+                  <c:v>62.812040763641839</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.540197708336308</c:v>
+                  <c:v>82.615757160127586</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95189058363969736</c:v>
+                  <c:v>16.762300809572594</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.111981242064161</c:v>
+                  <c:v>6.6212783008893243</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.985571391887405</c:v>
+                  <c:v>75.982541219785404</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.011891547431706</c:v>
+                  <c:v>80.997402354952953</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.70913932511867</c:v>
+                  <c:v>51.179144890274401</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.309373301816322</c:v>
+                  <c:v>25.658003812064301</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77.823561928951776</c:v>
+                  <c:v>54.433630550210488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -399,34 +438,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>18.271989148483662</c:v>
+                  <c:v>46.791902497065735</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.783578158503673</c:v>
+                  <c:v>42.401015943745051</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.64430679874377</c:v>
+                  <c:v>79.988621807677077</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.90318145946334</c:v>
+                  <c:v>64.408619155224017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.034459439991693</c:v>
+                  <c:v>16.866598604953477</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.592229420817681</c:v>
+                  <c:v>1.6271067212760655</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.908323572400008</c:v>
+                  <c:v>64.632355980568846</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.876765052934903</c:v>
+                  <c:v>81.408013403223023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75.524695360821411</c:v>
+                  <c:v>31.307606551948101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.725057358507172</c:v>
+                  <c:v>75.950453378961683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -435,6 +474,451 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6C7D-43AC-A525-6D0B86B617B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1402429440"/>
+        <c:axId val="1402430688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1402429440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1402430688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1402430688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1402429440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11122472754822721"/>
+          <c:y val="8.1481481481481488E-2"/>
+          <c:w val="0.81922359418077828"/>
+          <c:h val="0.74667949839603387"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$119</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ordinal offset</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$121:$A$130</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.465394849846035</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.820745199543033</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.869551871631558</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.115853852037574</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.023841619769144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.906713654979818</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.4874984834312</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.446239454073492</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.032916946988195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$121:$B$130</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.760563622769837</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.304368426893433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.708754064754743</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.394408404230759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.754966426484962</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.253448848267382</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.461281415269497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.14964875298768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.863278966607893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9CF8-40C0-8162-138BC4F34F5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>base</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$121:$D$130</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32.465394849846035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.820745199543033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.869551871631558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.115853852037574</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.023841619769144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.906713654979818</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.4874984834312</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.446239454073492</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.032916946988195</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.831244067699942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$E$121:$E$130</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>60.760563622769837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.304368426893433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.708754064754743</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.394408404230759</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.754966426484962</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.253448848267382</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.461281415269497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.14964875298768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.863278966607893</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.349281071733856</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9CF8-40C0-8162-138BC4F34F5C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -687,78 +1171,78 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$29:$A$38</c:f>
+              <c:f>Hoja1!$I$29:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>70.704187860247458</c:v>
+                  <c:v>27.965394849846032</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.57692986082564</c:v>
+                  <c:v>25.320745199543033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5158658588574325</c:v>
+                  <c:v>81.369551871631558</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.387251166843914</c:v>
+                  <c:v>16.615853852037574</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.360550130584718</c:v>
+                  <c:v>55.523841619769144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.87491183509648</c:v>
+                  <c:v>56.406713654979818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.5263954165820595</c:v>
+                  <c:v>8.9874984834311995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84.464169756184532</c:v>
+                  <c:v>61.946239454073485</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45.347636239878923</c:v>
+                  <c:v>85.532916946988195</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.3427706844336242</c:v>
+                  <c:v>35.331244067699942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$B$29:$B$38</c:f>
+              <c:f>Hoja1!$J$29:$J$38</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>66.764920200533737</c:v>
+                  <c:v>55.26056362276983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.034970470442282</c:v>
+                  <c:v>56.804368426893426</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.152706725296284</c:v>
+                  <c:v>16.208754064754736</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.840024985605812</c:v>
+                  <c:v>35.894408404230752</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.948939925070302</c:v>
+                  <c:v>47.254966426484955</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.197360062158634</c:v>
+                  <c:v>38.753448848267375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4723921483138689</c:v>
+                  <c:v>33.961281415269482</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.550504831731267</c:v>
+                  <c:v>54.649648752987673</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.464544251375514</c:v>
+                  <c:v>40.363278966607886</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.784927771510009</c:v>
+                  <c:v>65.849281071733856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -800,78 +1284,78 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$D$29:$D$38</c:f>
+              <c:f>Hoja1!$K$29:$K$38</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>77.704187860247458</c:v>
+                  <c:v>36.965394849846035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.576929860825643</c:v>
+                  <c:v>34.320745199543033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.515865858857433</c:v>
+                  <c:v>90.369551871631558</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.387251166843914</c:v>
+                  <c:v>25.615853852037574</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.36055013058472</c:v>
+                  <c:v>64.523841619769144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.87491183509648</c:v>
+                  <c:v>65.406713654979825</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.526395416582059</c:v>
+                  <c:v>17.9874984834312</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91.464169756184532</c:v>
+                  <c:v>70.946239454073492</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52.347636239878923</c:v>
+                  <c:v>94.532916946988195</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.342770684433624</c:v>
+                  <c:v>44.331244067699949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$E$29:$E$38</c:f>
+              <c:f>Hoja1!$L$29:$L$38</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>86.764920200533737</c:v>
+                  <c:v>66.260563622769837</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.034970470442282</c:v>
+                  <c:v>67.804368426893433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.152706725296284</c:v>
+                  <c:v>27.208754064754736</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.840024985605808</c:v>
+                  <c:v>46.894408404230752</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.948939925070306</c:v>
+                  <c:v>58.254966426484955</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.197360062158637</c:v>
+                  <c:v>49.753448848267375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.472392148313869</c:v>
+                  <c:v>44.96128141526949</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81.550504831731274</c:v>
+                  <c:v>65.649648752987673</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.464544251375514</c:v>
+                  <c:v>51.363278966607886</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.784927771510013</c:v>
+                  <c:v>76.849281071733856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -893,6 +1377,264 @@
         </c:dLbls>
         <c:axId val="1402429440"/>
         <c:axId val="1402430688"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>base b</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$D$29:$D$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>31.507909835843524</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>28.863260185540526</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>84.912066857629043</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20.158368838035067</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>59.066356605766636</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>59.94922864097731</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12.530013469428692</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>65.488754440070977</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>89.07543193298568</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>38.873759053697441</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$E$29:$E$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>62.813169348197107</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>64.356974152320703</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>23.761359790182013</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>43.447014129658029</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>54.807572151912233</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>46.306054573694652</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>41.513887140696767</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>62.20225447841495</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>47.915884692035164</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>73.401886797161126</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-C2DF-4ADD-B4FA-FC340F098F40}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>offst b</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$A$29:$A$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>22.507909835843524</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>19.863260185540526</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>75.912066857629043</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>11.158368838035065</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50.066356605766636</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50.94922864097731</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3.5300134694286918</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>56.488754440070977</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>80.07543193298568</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>29.873759053697437</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$B$29:$B$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>51.813169348197107</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>53.356974152320703</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>12.761359790182011</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>32.447014129658029</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>43.807572151912233</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>35.306054573694652</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>30.513887140696763</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>51.20225447841495</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>36.915884692035164</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>62.401886797161133</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-C2DF-4ADD-B4FA-FC340F098F40}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1402429440"/>
@@ -1137,34 +1879,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>91.094120979293976</c:v>
+                  <c:v>32.465394849846035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.966862979872161</c:v>
+                  <c:v>29.820745199543033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.905798977903952</c:v>
+                  <c:v>85.869551871631558</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.777184285890435</c:v>
+                  <c:v>21.115853852037574</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.750483249631237</c:v>
+                  <c:v>60.023841619769144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.264844954143001</c:v>
+                  <c:v>60.906713654979818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.91632853562858</c:v>
+                  <c:v>13.4874984834312</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>104.85410287523105</c:v>
+                  <c:v>66.446239454073492</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65.737569358925441</c:v>
+                  <c:v>90.032916946988195</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.732703803480145</c:v>
+                  <c:v>39.831244067699942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1176,34 +1918,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>83.143791063329957</c:v>
+                  <c:v>60.760563622769837</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.413841333238508</c:v>
+                  <c:v>62.304368426893433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.531577588092517</c:v>
+                  <c:v>21.708754064754743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.218895848402042</c:v>
+                  <c:v>41.394408404230759</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.327810787866525</c:v>
+                  <c:v>52.754966426484962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.576230924954857</c:v>
+                  <c:v>44.253448848267382</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.851263011110095</c:v>
+                  <c:v>39.461281415269497</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77.929375694527494</c:v>
+                  <c:v>60.14964875298768</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.843415114171741</c:v>
+                  <c:v>45.863278966607893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.163798634306232</c:v>
+                  <c:v>71.349281071733856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1250,34 +1992,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>17.907716927885744</c:v>
+                  <c:v>43.712583602179834</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.878547468535224</c:v>
+                  <c:v>62.725964823230875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.511463780127926</c:v>
+                  <c:v>82.529681219716622</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.923156655431315</c:v>
+                  <c:v>16.676224869161629</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70.083247313855779</c:v>
+                  <c:v>6.53520236047836</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65.956837463679022</c:v>
+                  <c:v>75.896465279374439</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.98315761922332</c:v>
+                  <c:v>80.911326414541989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64.680405396910288</c:v>
+                  <c:v>51.093068949863437</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50.28063937360794</c:v>
+                  <c:v>25.571927871653337</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89.794828000743394</c:v>
+                  <c:v>54.347554609799523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1289,34 +2031,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>22.845530571416937</c:v>
+                  <c:v>46.253673092601424</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.357119581436947</c:v>
+                  <c:v>41.862786539280741</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.217848221677045</c:v>
+                  <c:v>79.45039240321276</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.476722882396615</c:v>
+                  <c:v>63.870389750759706</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.608000862924968</c:v>
+                  <c:v>16.328369200489167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54.165770843750956</c:v>
+                  <c:v>1.0888773168117551</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.481864995333282</c:v>
+                  <c:v>64.094126576104543</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.450306475868178</c:v>
+                  <c:v>80.86978399875872</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.098236783754686</c:v>
+                  <c:v>30.769377147483791</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.298598781440447</c:v>
+                  <c:v>75.41222397449738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1582,34 +2324,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>91.094120979293976</c:v>
+                  <c:v>32.465394849846035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.966862979872161</c:v>
+                  <c:v>29.820745199543033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.905798977903952</c:v>
+                  <c:v>85.869551871631558</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.777184285890435</c:v>
+                  <c:v>21.115853852037574</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.750483249631237</c:v>
+                  <c:v>60.023841619769144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.264844954143001</c:v>
+                  <c:v>60.906713654979818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.91632853562858</c:v>
+                  <c:v>13.4874984834312</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>104.85410287523105</c:v>
+                  <c:v>66.446239454073492</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65.737569358925441</c:v>
+                  <c:v>90.032916946988195</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.732703803480145</c:v>
+                  <c:v>39.831244067699942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1621,34 +2363,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>83.143791063329957</c:v>
+                  <c:v>60.760563622769837</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.413841333238508</c:v>
+                  <c:v>62.304368426893433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.531577588092517</c:v>
+                  <c:v>21.708754064754743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.218895848402042</c:v>
+                  <c:v>41.394408404230759</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.327810787866525</c:v>
+                  <c:v>52.754966426484962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.576230924954857</c:v>
+                  <c:v>44.253448848267382</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.851263011110095</c:v>
+                  <c:v>39.461281415269497</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77.929375694527494</c:v>
+                  <c:v>60.14964875298768</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.843415114171741</c:v>
+                  <c:v>45.863278966607893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.163798634306232</c:v>
+                  <c:v>71.349281071733856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1695,34 +2437,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.67517376463960943</c:v>
+                  <c:v>69.914510629192861</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.424710612682127</c:v>
+                  <c:v>72.894966509974367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.958158691123273</c:v>
+                  <c:v>7.4262171480780808</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67.80930248223423</c:v>
+                  <c:v>75.106014848225144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71.866272102739472</c:v>
+                  <c:v>41.219626816559867</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.02488940500966</c:v>
+                  <c:v>37.889728903307343</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80.010274744044395</c:v>
+                  <c:v>81.835855734191441</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-10.800003716904826</c:v>
+                  <c:v>37.239853100610617</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.716324416954421</c:v>
+                  <c:v>10.50687094802673</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72.314897497477631</c:v>
+                  <c:v>65.966355361833564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1734,34 +2476,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>31.177163285996869</c:v>
+                  <c:v>44.836244230092973</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.513642725684967</c:v>
+                  <c:v>44.133117080284478</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.0336326052723166</c:v>
+                  <c:v>66.567811011645375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.549330598336113</c:v>
+                  <c:v>66.674475219650105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.476856886781185</c:v>
+                  <c:v>44.434724841591304</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.660547732608521</c:v>
+                  <c:v>52.306639732557556</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.897866474373458</c:v>
+                  <c:v>70.753449016424554</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.388435249302226</c:v>
+                  <c:v>35.485427560697786</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>69.277945202510011</c:v>
+                  <c:v>42.251473825510502</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53.091844449678973</c:v>
+                  <c:v>32.556637481545323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,34 +2569,34 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>-112.32850176886545</c:v>
+                        <c:v>-13.282141932822057</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>-61.578964920822933</c:v>
+                        <c:v>-10.301686052040552</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>-50.045516842381787</c:v>
+                        <c:v>-75.770435413936838</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>-45.19437305127083</c:v>
+                        <c:v>-8.0906377137897731</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>-41.137403430765588</c:v>
+                        <c:v>-41.977025745455052</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>-48.9787861284954</c:v>
+                        <c:v>-45.306923658707575</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>-32.993400789460665</c:v>
+                        <c:v>-1.3607968278234797</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>-123.80367925040989</c:v>
+                        <c:v>-45.956799461404302</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>-73.287351116550639</c:v>
+                        <c:v>-72.689781613988188</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>-40.688778036027429</c:v>
+                        <c:v>-17.230297200181351</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1872,34 +2614,34 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>-50.924812810013421</c:v>
+                        <c:v>-67.597578804195649</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>-24.588333370325323</c:v>
+                        <c:v>-68.300705954004144</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>-83.135608701282607</c:v>
+                        <c:v>-45.866012022643254</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>-26.552645497674181</c:v>
+                        <c:v>-45.759347814638517</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>-20.625119209229105</c:v>
+                        <c:v>-67.999098192697318</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>-20.441428363401769</c:v>
+                        <c:v>-60.127183301731066</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>-11.20410962163683</c:v>
+                        <c:v>-41.680374017864075</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>-41.713540846708064</c:v>
+                        <c:v>-76.948395473590836</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>-12.824030893500279</c:v>
+                        <c:v>-70.18234920877812</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>-29.01013164633132</c:v>
+                        <c:v>-79.877185552743299</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2158,34 +2900,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>91.094120979293976</c:v>
+                  <c:v>32.465394849846035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.966862979872161</c:v>
+                  <c:v>29.820745199543033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.905798977903952</c:v>
+                  <c:v>85.869551871631558</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.777184285890435</c:v>
+                  <c:v>21.115853852037574</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.750483249631237</c:v>
+                  <c:v>60.023841619769144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.264844954143001</c:v>
+                  <c:v>60.906713654979818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.91632853562858</c:v>
+                  <c:v>13.4874984834312</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>104.85410287523105</c:v>
+                  <c:v>66.446239454073492</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65.737569358925441</c:v>
+                  <c:v>90.032916946988195</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.732703803480145</c:v>
+                  <c:v>39.831244067699942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2197,34 +2939,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>83.143791063329957</c:v>
+                  <c:v>60.760563622769837</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.413841333238508</c:v>
+                  <c:v>62.304368426893433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.531577588092517</c:v>
+                  <c:v>21.708754064754743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.218895848402042</c:v>
+                  <c:v>41.394408404230759</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.327810787866525</c:v>
+                  <c:v>52.754966426484962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.576230924954857</c:v>
+                  <c:v>44.253448848267382</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.851263011110095</c:v>
+                  <c:v>39.461281415269497</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77.929375694527494</c:v>
+                  <c:v>60.14964875298768</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.843415114171741</c:v>
+                  <c:v>45.863278966607893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.163798634306232</c:v>
+                  <c:v>71.349281071733856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2271,34 +3013,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>91.094120979293976</c:v>
+                  <c:v>32.465394849846035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.966862979872161</c:v>
+                  <c:v>29.820745199543033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.905798977903952</c:v>
+                  <c:v>85.869551871631558</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.777184285890435</c:v>
+                  <c:v>21.115853852037574</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.750483249631237</c:v>
+                  <c:v>60.023841619769144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.264844954143001</c:v>
+                  <c:v>60.906713654979818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.011891547431706</c:v>
+                  <c:v>13.4874984834312</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.70913932511867</c:v>
+                  <c:v>66.446239454073492</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.309373301816322</c:v>
+                  <c:v>25.658003812064301</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77.823561928951776</c:v>
+                  <c:v>54.433630550210488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2310,34 +3052,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>83.143791063329957</c:v>
+                  <c:v>60.760563622769837</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.413841333238508</c:v>
+                  <c:v>62.304368426893433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.531577588092517</c:v>
+                  <c:v>21.708754064754743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.218895848402042</c:v>
+                  <c:v>41.394408404230759</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.327810787866525</c:v>
+                  <c:v>52.754966426484962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.576230924954857</c:v>
+                  <c:v>44.253448848267382</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.908323572400008</c:v>
+                  <c:v>39.461281415269497</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.876765052934903</c:v>
+                  <c:v>60.14964875298768</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75.524695360821411</c:v>
+                  <c:v>31.307606551948101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.725057358507172</c:v>
+                  <c:v>75.950453378961683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2595,34 +3337,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>91.094120979293976</c:v>
+                  <c:v>32.465394849846035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.966862979872161</c:v>
+                  <c:v>29.820745199543033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.905798977903952</c:v>
+                  <c:v>85.869551871631558</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.777184285890435</c:v>
+                  <c:v>21.115853852037574</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.750483249631237</c:v>
+                  <c:v>60.023841619769144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.264844954143001</c:v>
+                  <c:v>60.906713654979818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.91632853562858</c:v>
+                  <c:v>13.4874984834312</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>104.85410287523105</c:v>
+                  <c:v>66.446239454073492</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65.737569358925441</c:v>
+                  <c:v>90.032916946988195</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.732703803480145</c:v>
+                  <c:v>39.831244067699942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2634,34 +3376,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>83.143791063329957</c:v>
+                  <c:v>60.760563622769837</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.413841333238508</c:v>
+                  <c:v>62.304368426893433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.531577588092517</c:v>
+                  <c:v>21.708754064754743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.218895848402042</c:v>
+                  <c:v>41.394408404230759</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.327810787866525</c:v>
+                  <c:v>52.754966426484962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.576230924954857</c:v>
+                  <c:v>44.253448848267382</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.851263011110095</c:v>
+                  <c:v>39.461281415269497</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77.929375694527494</c:v>
+                  <c:v>60.14964875298768</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.843415114171741</c:v>
+                  <c:v>45.863278966607893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.163798634306232</c:v>
+                  <c:v>71.349281071733856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2708,34 +3450,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>29.732703803480145</c:v>
+                  <c:v>39.831244067699942</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.737569358925441</c:v>
+                  <c:v>90.032916946988195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>104.85410287523105</c:v>
+                  <c:v>66.446239454073492</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.91632853562858</c:v>
+                  <c:v>13.4874984834312</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.264844954143001</c:v>
+                  <c:v>60.906713654979818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.750483249631237</c:v>
+                  <c:v>60.023841619769144</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.777184285890435</c:v>
+                  <c:v>21.115853852037574</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.905798977903952</c:v>
+                  <c:v>85.869551871631558</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50.966862979872161</c:v>
+                  <c:v>29.820745199543033</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>91.094120979293976</c:v>
+                  <c:v>32.465394849846035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2747,34 +3489,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>40.163798634306232</c:v>
+                  <c:v>71.349281071733856</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.843415114171741</c:v>
+                  <c:v>45.863278966607893</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.929375694527494</c:v>
+                  <c:v>60.14964875298768</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.851263011110095</c:v>
+                  <c:v>39.461281415269497</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.576230924954857</c:v>
+                  <c:v>44.253448848267382</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.327810787866525</c:v>
+                  <c:v>52.754966426484962</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.218895848402042</c:v>
+                  <c:v>41.394408404230759</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94.531577588092517</c:v>
+                  <c:v>21.708754064754743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42.413841333238508</c:v>
+                  <c:v>62.304368426893433</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>83.143791063329957</c:v>
+                  <c:v>60.760563622769837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3027,78 +3769,78 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$G$81:$G$90</c:f>
+              <c:f>Hoja1!$L$81:$L$90</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>91.094120979293976</c:v>
+                  <c:v>37.4441373568473</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.966862979872161</c:v>
+                  <c:v>34.799487706544298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.905798977903952</c:v>
+                  <c:v>90.848294378632829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.777184285890435</c:v>
+                  <c:v>26.094596359038839</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.750483249631237</c:v>
+                  <c:v>65.002584126770415</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.264844954143001</c:v>
+                  <c:v>65.885456161981082</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.91632853562858</c:v>
+                  <c:v>18.466240990432464</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>104.85410287523105</c:v>
+                  <c:v>71.424981961074764</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65.737569358925441</c:v>
+                  <c:v>95.011659453989466</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.732703803480145</c:v>
+                  <c:v>44.809986574701206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$H$81:$H$90</c:f>
+              <c:f>Hoja1!$M$81:$M$90</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>83.143791063329957</c:v>
+                  <c:v>66.534260760056199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.413841333238508</c:v>
+                  <c:v>68.078065564179795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.531577588092517</c:v>
+                  <c:v>27.482451202041105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.218895848402042</c:v>
+                  <c:v>47.168105541517122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.327810787866525</c:v>
+                  <c:v>58.528663563771325</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.576230924954857</c:v>
+                  <c:v>50.027145985553744</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.851263011110095</c:v>
+                  <c:v>45.234978552555859</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77.929375694527494</c:v>
+                  <c:v>65.923345890274049</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.843415114171741</c:v>
+                  <c:v>51.636976103894256</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.163798634306232</c:v>
+                  <c:v>77.122978209020218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3148,78 +3890,78 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$81:$A$90</c:f>
+              <c:f>Hoja1!$J$81:$J$90</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>70.704187860247458</c:v>
+                  <c:v>27.486652342844788</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.57692986082564</c:v>
+                  <c:v>24.84200269254179</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5158658588574325</c:v>
+                  <c:v>80.890809364630314</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.387251166843914</c:v>
+                  <c:v>16.137111345036331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.360550130584718</c:v>
+                  <c:v>55.0450991127679</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.87491183509648</c:v>
+                  <c:v>55.927971147978575</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.5263954165820595</c:v>
+                  <c:v>8.5087559764299563</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84.464169756184532</c:v>
+                  <c:v>61.467496947072242</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45.347636239878923</c:v>
+                  <c:v>85.054174439986951</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.3427706844336242</c:v>
+                  <c:v>34.852501560698698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$B$81:$B$90</c:f>
+              <c:f>Hoja1!$K$81:$K$90</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>66.764920200533737</c:v>
+                  <c:v>53.586866485483469</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.034970470442282</c:v>
+                  <c:v>55.130671289607065</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.152706725296284</c:v>
+                  <c:v>18.535056927468375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.840024985605812</c:v>
+                  <c:v>36.220711266944392</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.948939925070302</c:v>
+                  <c:v>47.581269289198595</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.197360062158634</c:v>
+                  <c:v>39.079751710981014</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4723921483138689</c:v>
+                  <c:v>34.287584277983129</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.550504831731267</c:v>
+                  <c:v>52.975951615701312</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.464544251375514</c:v>
+                  <c:v>40.689581829321526</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.784927771510009</c:v>
+                  <c:v>64.175583934447502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3241,6 +3983,264 @@
         </c:dLbls>
         <c:axId val="1402429440"/>
         <c:axId val="1402430688"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>aio b</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$A$81:$A$90</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>22.507909835843524</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>19.863260185540526</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>75.912066857629043</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>11.158368838035065</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50.066356605766636</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50.94922864097731</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3.5300134694286918</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>56.488754440070977</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>80.07543193298568</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>29.873759053697437</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$B$81:$B$90</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>47.813169348197107</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>49.356974152320703</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>12.761359790182011</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>30.447014129658029</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>41.807572151912233</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>33.306054573694652</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>28.513887140696763</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>47.20225447841495</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>34.915884692035164</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>58.401886797161133</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-1FA5-47AD-A63D-E4D2001D1538}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>b base</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$G$81:$G$90</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>32.465394849846035</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>29.820745199543033</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>85.869551871631558</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>21.115853852037574</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>60.023841619769144</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>60.906713654979818</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>13.4874984834312</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>66.446239454073492</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>90.032916946988195</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>39.831244067699942</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$H$81:$H$90</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>60.760563622769837</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>62.304368426893433</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>21.708754064754743</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>41.394408404230759</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>52.754966426484962</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>44.253448848267382</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>39.461281415269497</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>60.14964875298768</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>45.863278966607893</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>71.349281071733856</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-1FA5-47AD-A63D-E4D2001D1538}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1402429440"/>
@@ -3477,34 +4477,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>91.094120979293976</c:v>
+                  <c:v>32.465394849846035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.966862979872161</c:v>
+                  <c:v>29.820745199543033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.905798977903952</c:v>
+                  <c:v>85.869551871631558</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.777184285890435</c:v>
+                  <c:v>21.115853852037574</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.750483249631237</c:v>
+                  <c:v>60.023841619769144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.264844954143001</c:v>
+                  <c:v>60.906713654979818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.91632853562858</c:v>
+                  <c:v>13.4874984834312</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>104.85410287523105</c:v>
+                  <c:v>66.446239454073492</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65.737569358925441</c:v>
+                  <c:v>90.032916946988195</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.732703803480145</c:v>
+                  <c:v>39.831244067699942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3516,34 +4516,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>83.143791063329957</c:v>
+                  <c:v>60.760563622769837</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.413841333238508</c:v>
+                  <c:v>62.304368426893433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.531577588092517</c:v>
+                  <c:v>21.708754064754743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.218895848402042</c:v>
+                  <c:v>41.394408404230759</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.327810787866525</c:v>
+                  <c:v>52.754966426484962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.576230924954857</c:v>
+                  <c:v>44.253448848267382</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.851263011110095</c:v>
+                  <c:v>39.461281415269497</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77.929375694527494</c:v>
+                  <c:v>60.14964875298768</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.843415114171741</c:v>
+                  <c:v>45.863278966607893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.163798634306232</c:v>
+                  <c:v>71.349281071733856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3598,34 +4598,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>67.00844307689421</c:v>
+                  <c:v>49.154881329334671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.4001748562671</c:v>
+                  <c:v>49.027416651476216</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.372092954223028</c:v>
+                  <c:v>51.728811554952415</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.699429787683187</c:v>
+                  <c:v>48.607865361846791</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.860598626737662</c:v>
+                  <c:v>50.483120984596837</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.97071730709051</c:v>
+                  <c:v>50.525672934548119</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.859790644509673</c:v>
+                  <c:v>48.240200079778958</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72.703561094726098</c:v>
+                  <c:v>50.79266250399418</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.513621565109744</c:v>
+                  <c:v>51.92947404651408</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41.611570086758796</c:v>
+                  <c:v>49.509894552957746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3637,34 +4637,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>63.717881541672725</c:v>
+                  <c:v>50.518628913888321</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.860165279580656</c:v>
+                  <c:v>50.593035965125296</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.431171770604493</c:v>
+                  <c:v>48.636441485193615</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.53780949929758</c:v>
+                  <c:v>49.585234679228499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.68565874884812</c:v>
+                  <c:v>50.132781636320914</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.616257214109815</c:v>
+                  <c:v>49.723032390597062</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.935631131063751</c:v>
+                  <c:v>49.492063393240123</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.559687501599527</c:v>
+                  <c:v>50.48918453471817</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43.726842060921143</c:v>
+                  <c:v>49.800621676352776</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45.928895252302205</c:v>
+                  <c:v>51.02897532533521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3856,7 +4856,492 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11122472754822721"/>
+          <c:y val="8.1481481481481488E-2"/>
+          <c:w val="0.81922359418077828"/>
+          <c:h val="0.74667949839603387"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>set</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$107:$A$116</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32.465394849846035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.820745199543033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.869551871631558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.115853852037574</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.023841619769144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.906713654979818</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.4874984834312</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.446239454073492</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.032916946988195</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.831244067699942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$107:$B$116</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>60.760563622769837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.304368426893433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.708754064754743</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.394408404230759</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.754966426484962</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.253448848267382</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.461281415269497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.14964875298768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.863278966607893</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.349281071733856</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7809-472B-AC43-70079218503E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$105</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>duration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$E$107:$E$116</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32.465394849846035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.820745199543033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.869551871631558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.115853852037574</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.023841619769144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.906713654979818</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.4874984834312</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.446239454073492</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.032916946988195</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.831244067699942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$F$107:$F$116</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>60.760563622769837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.304368426893433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.708754064754743</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.394408404230759</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.754966426484962</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.253448848267382</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.461281415269497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.14964875298768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.863278966607893</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.349281071733856</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7809-472B-AC43-70079218503E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1402429440"/>
+        <c:axId val="1402430688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1402429440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1402430688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1402430688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1402429440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4176,6 +5661,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4692,7 +6217,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5208,7 +6733,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5724,7 +7249,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6240,7 +7765,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6756,7 +8281,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7272,7 +8797,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7788,7 +9313,1039 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8340,14 +10897,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -8500,16 +11057,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8557,6 +11114,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Gráfico 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Gráfico 15"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10590,17 +13211,522 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride8.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride9.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q103"/>
+  <dimension ref="A1:AA130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" style="1"/>
     <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="7.42578125" style="1"/>
@@ -10628,181 +13754,181 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f ca="1">RAND()*85</f>
-        <v>70.704187860247458</v>
+        <v>22.507909835843524</v>
       </c>
       <c r="B3" s="1">
         <f ca="1">RAND()*85</f>
-        <v>66.764920200533737</v>
+        <v>51.813169348197107</v>
       </c>
       <c r="D3" s="1">
         <f ca="1">RAND()*85</f>
-        <v>5.9364508560941278</v>
+        <v>43.798659542590798</v>
       </c>
       <c r="E3" s="1">
         <f ca="1">RAND()*85</f>
-        <v>18.271989148483662</v>
+        <v>46.791902497065735</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:E12" ca="1" si="0">RAND()*85</f>
-        <v>30.57692986082564</v>
+        <v>19.863260185540526</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>26.034970470442282</v>
+        <v>53.356974152320703</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44.907281396743606</v>
+        <v>62.812040763641839</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45.783578158503673</v>
+        <v>42.401015943745051</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5158658588574325</v>
+        <v>75.912066857629043</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>78.152706725296284</v>
+        <v>12.761359790182011</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>21.540197708336308</v>
+        <v>82.615757160127586</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>53.64430679874377</v>
+        <v>79.988621807677077</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>14.387251166843914</v>
+        <v>11.158368838035065</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>22.840024985605812</v>
+        <v>32.447014129658029</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95189058363969736</v>
+        <v>16.762300809572594</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>70.90318145946334</v>
+        <v>64.408619155224017</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>12.360550130584718</v>
+        <v>50.066356605766636</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15.948939925070302</v>
+        <v>43.807572151912233</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>58.111981242064161</v>
+        <v>6.6212783008893243</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>40.034459439991693</v>
+        <v>16.866598604953477</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>19.87491183509648</v>
+        <v>50.94922864097731</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18.197360062158634</v>
+        <v>35.306054573694652</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>53.985571391887405</v>
+        <v>75.982541219785404</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>49.592229420817681</v>
+        <v>1.6271067212760655</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5263954165820595</v>
+        <v>3.5300134694286918</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4723921483138689</v>
+        <v>30.513887140696763</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>26.011891547431706</v>
+        <v>80.997402354952953</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44.908323572400008</v>
+        <v>64.632355980568846</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>84.464169756184532</v>
+        <v>56.488754440070977</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>61.550504831731267</v>
+        <v>51.20225447841495</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>52.70913932511867</v>
+        <v>51.179144890274401</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.876765052934903</v>
+        <v>81.408013403223023</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45.347636239878923</v>
+        <v>80.07543193298568</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18.464544251375514</v>
+        <v>36.915884692035164</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>38.309373301816322</v>
+        <v>25.658003812064301</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>75.524695360821411</v>
+        <v>31.307606551948101</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3427706844336242</v>
+        <v>29.873759053697437</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.784927771510009</v>
+        <v>62.401886797161133</v>
       </c>
       <c r="D12" s="1">
         <f ca="1">RAND()*85</f>
-        <v>77.823561928951776</v>
+        <v>54.433630550210488</v>
       </c>
       <c r="E12" s="1">
         <f ca="1">RAND()*85</f>
-        <v>31.725057358507172</v>
+        <v>75.950453378961683</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -10830,19 +13956,19 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f ca="1">A3+F$17</f>
-        <v>91.094120979293976</v>
+        <v>32.465394849846035</v>
       </c>
       <c r="B16" s="1">
         <f ca="1">B3+G$17</f>
-        <v>83.143791063329957</v>
+        <v>60.760563622769837</v>
       </c>
       <c r="D16" s="1">
         <f ca="1">D3+$F$19</f>
-        <v>17.907716927885744</v>
+        <v>43.712583602179834</v>
       </c>
       <c r="E16" s="1">
         <f ca="1">E3+$G$19</f>
-        <v>22.845530571416937</v>
+        <v>46.253673092601424</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -10851,48 +13977,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" ref="A17:B25" ca="1" si="1">A4+F$17</f>
-        <v>50.966862979872161</v>
+        <v>29.820745199543033</v>
       </c>
       <c r="B17" s="1">
         <f ca="1">B4+G$17</f>
-        <v>42.413841333238508</v>
+        <v>62.304368426893433</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" ref="D17:D24" ca="1" si="2">D4+$F$19</f>
-        <v>56.878547468535224</v>
+        <v>62.725964823230875</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" ref="E17:E25" ca="1" si="3">E4+$G$19</f>
-        <v>50.357119581436947</v>
+        <v>41.862786539280741</v>
       </c>
       <c r="F17" s="1">
         <f ca="1">50-AVERAGE(A3:A12)</f>
-        <v>20.389933119046521</v>
+        <v>9.9574850140025077</v>
       </c>
       <c r="G17" s="1">
         <f ca="1">50-AVERAGE(B3:B12)</f>
-        <v>16.378870862796227</v>
+        <v>8.94739427457273</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>21.905798977903952</v>
+        <v>85.869551871631558</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>94.531577588092517</v>
+        <v>21.708754064754743</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>33.511463780127926</v>
+        <v>82.529681219716622</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>58.217848221677045</v>
+        <v>79.45039240321276</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -10901,146 +14027,149 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34.777184285890435</v>
+        <v>21.115853852037574</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>39.218895848402042</v>
+        <v>41.394408404230759</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>12.923156655431315</v>
+        <v>16.676224869161629</v>
       </c>
       <c r="E19" s="1">
         <f ca="1">E6+$G$19</f>
-        <v>75.476722882396615</v>
+        <v>63.870389750759706</v>
       </c>
       <c r="F19" s="1">
         <f ca="1">50-AVERAGE(D3:D12)</f>
-        <v>11.971266071791618</v>
+        <v>-8.6075940410964336E-2</v>
       </c>
       <c r="G19" s="1">
         <f ca="1">50-AVERAGE(E3:E12)</f>
-        <v>4.5735414229332747</v>
+        <v>-0.53822940446431033</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>32.750483249631237</v>
+        <v>60.023841619769144</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>32.327810787866525</v>
+        <v>52.754966426484962</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>70.083247313855779</v>
+        <v>6.53520236047836</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>44.608000862924968</v>
+        <v>16.328369200489167</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>40.264844954143001</v>
+        <v>60.906713654979818</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34.576230924954857</v>
+        <v>44.253448848267382</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>65.956837463679022</v>
+        <v>75.896465279374439</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>54.165770843750956</v>
+        <v>1.0888773168117551</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27.91632853562858</v>
+        <v>13.4874984834312</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20.851263011110095</v>
+        <v>39.461281415269497</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>37.98315761922332</v>
+        <v>80.911326414541989</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>49.481864995333282</v>
+        <v>64.094126576104543</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>104.85410287523105</v>
+        <v>66.446239454073492</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>77.929375694527494</v>
+        <v>60.14964875298768</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>64.680405396910288</v>
+        <v>51.093068949863437</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>28.450306475868178</v>
+        <v>80.86978399875872</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>65.737569358925441</v>
+        <v>90.032916946988195</v>
       </c>
       <c r="B24" s="3">
         <f ca="1">B11+G$17</f>
-        <v>34.843415114171741</v>
+        <v>45.863278966607893</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>50.28063937360794</v>
+        <v>25.571927871653337</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>80.098236783754686</v>
+        <v>30.769377147483791</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.732703803480145</v>
+        <v>39.831244067699942</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>40.163798634306232</v>
+        <v>71.349281071733856</v>
       </c>
       <c r="D25" s="1">
         <f ca="1">D12+$F$19</f>
-        <v>89.794828000743394</v>
+        <v>54.347554609799523</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>36.298598781440447</v>
+        <v>75.41222397449738</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="I27" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
@@ -11056,26 +14185,35 @@
       <c r="F28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O28" s="1" t="s">
-        <v>18</v>
+      <c r="I28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f ca="1">$A$3</f>
-        <v>70.704187860247458</v>
+        <v>22.507909835843524</v>
       </c>
       <c r="B29" s="1">
         <f ca="1">$B$3</f>
-        <v>66.764920200533737</v>
+        <v>51.813169348197107</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" ref="D29:D38" ca="1" si="4">A29+$F$30</f>
-        <v>77.704187860247458</v>
+        <v>31.507909835843524</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" ref="E29:E38" ca="1" si="5">B29+$G$30</f>
-        <v>86.764920200533737</v>
+        <v>62.813169348197107</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>0</v>
@@ -11083,179 +14221,359 @@
       <c r="G29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O29" s="1" t="s">
-        <v>19</v>
+      <c r="I29" s="1">
+        <f ca="1">A29+F$37</f>
+        <v>27.965394849846032</v>
+      </c>
+      <c r="J29" s="6">
+        <f ca="1">B29+G$37</f>
+        <v>55.26056362276983</v>
+      </c>
+      <c r="K29" s="1">
+        <f ca="1">D29+F$37</f>
+        <v>36.965394849846035</v>
+      </c>
+      <c r="L29" s="6">
+        <f ca="1">E29+G$37</f>
+        <v>66.260563622769837</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f ca="1">$A$4</f>
-        <v>30.57692986082564</v>
+        <v>19.863260185540526</v>
       </c>
       <c r="B30" s="1">
         <f ca="1">$B$4</f>
-        <v>26.034970470442282</v>
+        <v>53.356974152320703</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>37.576929860825643</v>
+        <v>28.863260185540526</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>46.034970470442282</v>
+        <v>64.356974152320703</v>
       </c>
       <c r="F30" s="1">
         <f ca="1">(RANDBETWEEN(2,20))</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G30" s="1">
         <f ca="1">(RANDBETWEEN(2,20))</f>
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" ref="I30:J38" ca="1" si="6">A30+F$37</f>
+        <v>25.320745199543033</v>
+      </c>
+      <c r="J30" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>56.804368426893426</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" ref="K30:L38" ca="1" si="7">D30+F$37</f>
+        <v>34.320745199543033</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" ca="1" si="7"/>
+        <v>67.804368426893433</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f ca="1">$A$5</f>
-        <v>1.5158658588574325</v>
+        <v>75.912066857629043</v>
       </c>
       <c r="B31" s="1">
         <f ca="1">$B$5</f>
-        <v>78.152706725296284</v>
+        <v>12.761359790182011</v>
       </c>
       <c r="D31" s="1">
         <f ca="1">A31+$F$30</f>
-        <v>8.515865858857433</v>
+        <v>84.912066857629043</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>98.152706725296284</v>
+        <v>23.761359790182013</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>81.369551871631558</v>
+      </c>
+      <c r="J31" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>16.208754064754736</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" ca="1" si="7"/>
+        <v>90.369551871631558</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" ca="1" si="7"/>
+        <v>27.208754064754736</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f ca="1">$A$6</f>
-        <v>14.387251166843914</v>
+        <v>11.158368838035065</v>
       </c>
       <c r="B32" s="1">
         <f ca="1">$B$6</f>
-        <v>22.840024985605812</v>
+        <v>32.447014129658029</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>21.387251166843914</v>
+        <v>20.158368838035067</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>42.840024985605808</v>
+        <v>43.447014129658029</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>16.615853852037574</v>
+      </c>
+      <c r="J32" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>35.894408404230752</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" ca="1" si="7"/>
+        <v>25.615853852037574</v>
+      </c>
+      <c r="L32" s="6">
+        <f t="shared" ca="1" si="7"/>
+        <v>46.894408404230752</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f ca="1">$A$7</f>
-        <v>12.360550130584718</v>
+        <v>50.066356605766636</v>
       </c>
       <c r="B33" s="1">
         <f ca="1">$B$7</f>
-        <v>15.948939925070302</v>
+        <v>43.807572151912233</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>19.36055013058472</v>
+        <v>59.066356605766636</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>35.948939925070306</v>
+        <v>54.807572151912233</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>55.523841619769144</v>
+      </c>
+      <c r="J33" s="6">
+        <f ca="1">B33+G$37</f>
+        <v>47.254966426484955</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" ca="1" si="7"/>
+        <v>64.523841619769144</v>
+      </c>
+      <c r="L33" s="6">
+        <f t="shared" ca="1" si="7"/>
+        <v>58.254966426484955</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f ca="1">$A$8</f>
-        <v>19.87491183509648</v>
+        <v>50.94922864097731</v>
       </c>
       <c r="B34" s="1">
         <f ca="1">$B$8</f>
-        <v>18.197360062158634</v>
+        <v>35.306054573694652</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>26.87491183509648</v>
+        <v>59.94922864097731</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>38.197360062158637</v>
+        <v>46.306054573694652</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>56.406713654979818</v>
+      </c>
+      <c r="J34" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>38.753448848267375</v>
+      </c>
+      <c r="K34" s="6">
+        <f t="shared" ca="1" si="7"/>
+        <v>65.406713654979825</v>
+      </c>
+      <c r="L34" s="6">
+        <f t="shared" ca="1" si="7"/>
+        <v>49.753448848267375</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f ca="1">$A$9</f>
-        <v>7.5263954165820595</v>
+        <v>3.5300134694286918</v>
       </c>
       <c r="B35" s="1">
         <f ca="1">$B$9</f>
-        <v>4.4723921483138689</v>
+        <v>30.513887140696763</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>14.526395416582059</v>
+        <v>12.530013469428692</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>24.472392148313869</v>
+        <v>41.513887140696767</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.9874984834311995</v>
+      </c>
+      <c r="J35" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>33.961281415269482</v>
+      </c>
+      <c r="K35" s="6">
+        <f t="shared" ca="1" si="7"/>
+        <v>17.9874984834312</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" ca="1" si="7"/>
+        <v>44.96128141526949</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f ca="1">$A$10</f>
-        <v>84.464169756184532</v>
+        <v>56.488754440070977</v>
       </c>
       <c r="B36" s="1">
         <f ca="1">$B$10</f>
-        <v>61.550504831731267</v>
+        <v>51.20225447841495</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>91.464169756184532</v>
+        <v>65.488754440070977</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>81.550504831731274</v>
+        <v>62.20225447841495</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>61.946239454073485</v>
+      </c>
+      <c r="J36" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>54.649648752987673</v>
+      </c>
+      <c r="K36" s="6">
+        <f t="shared" ca="1" si="7"/>
+        <v>70.946239454073492</v>
+      </c>
+      <c r="L36" s="6">
+        <f t="shared" ca="1" si="7"/>
+        <v>65.649648752987673</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f ca="1">$A$11</f>
-        <v>45.347636239878923</v>
+        <v>80.07543193298568</v>
       </c>
       <c r="B37" s="1">
         <f ca="1">$B$11</f>
-        <v>18.464544251375514</v>
+        <v>36.915884692035164</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>52.347636239878923</v>
+        <v>89.07543193298568</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>38.464544251375514</v>
+        <v>47.915884692035164</v>
+      </c>
+      <c r="F37" s="1">
+        <f ca="1">50-AVERAGE(A29:A38,D29:D38)</f>
+        <v>5.4574850140025077</v>
+      </c>
+      <c r="G37" s="1">
+        <f ca="1">50-AVERAGE(E29:E38,B29:B38)</f>
+        <v>3.4473942745727228</v>
+      </c>
+      <c r="I37" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>85.532916946988195</v>
+      </c>
+      <c r="J37" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>40.363278966607886</v>
+      </c>
+      <c r="K37" s="6">
+        <f t="shared" ca="1" si="7"/>
+        <v>94.532916946988195</v>
+      </c>
+      <c r="L37" s="6">
+        <f t="shared" ca="1" si="7"/>
+        <v>51.363278966607886</v>
       </c>
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f ca="1">$A$12</f>
-        <v>9.3427706844336242</v>
+        <v>29.873759053697437</v>
       </c>
       <c r="B38" s="1">
         <f ca="1">$B$12</f>
-        <v>23.784927771510009</v>
+        <v>62.401886797161133</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>16.342770684433624</v>
+        <v>38.873759053697441</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43.784927771510013</v>
+        <v>73.401886797161126</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>35.331244067699942</v>
+      </c>
+      <c r="J38" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>65.849281071733856</v>
+      </c>
+      <c r="K38" s="6">
+        <f t="shared" ca="1" si="7"/>
+        <v>44.331244067699949</v>
+      </c>
+      <c r="L38" s="6">
+        <f t="shared" ca="1" si="7"/>
+        <v>76.849281071733856</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -11292,137 +14610,137 @@
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f ca="1">A16</f>
-        <v>91.094120979293976</v>
+        <v>32.465394849846035</v>
       </c>
       <c r="B42" s="1">
         <f ca="1">B16</f>
-        <v>83.143791063329957</v>
+        <v>60.760563622769837</v>
       </c>
       <c r="D42" s="1">
         <f ca="1">H42+F$47</f>
-        <v>0.67517376463960943</v>
+        <v>69.914510629192861</v>
       </c>
       <c r="E42" s="1">
         <f ca="1">I42+G$47</f>
-        <v>31.177163285996869</v>
+        <v>44.836244230092973</v>
       </c>
       <c r="F42" s="1">
         <f ca="1">(F44*PI())/180</f>
-        <v>3.4557519189487729</v>
+        <v>2.8448866807507569</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" ref="H42:H51" ca="1" si="6">(($A42)*COS($F$42))+(($B42)*SIN($F$42))</f>
-        <v>-112.32850176886545</v>
+        <f t="shared" ref="H42:H51" ca="1" si="8">(($A42)*COS($F$42))+(($B42)*SIN($F$42))</f>
+        <v>-13.282141932822057</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" ref="I42:I51" ca="1" si="7">(($B42)*COS($F$42))-(($A42)*SIN($F$42))</f>
-        <v>-50.924812810013421</v>
+        <f t="shared" ref="I42:I51" ca="1" si="9">(($B42)*COS($F$42))-(($A42)*SIN($F$42))</f>
+        <v>-67.597578804195649</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <f t="shared" ref="A43:A51" ca="1" si="8">A17</f>
-        <v>50.966862979872161</v>
+        <f t="shared" ref="A43:A51" ca="1" si="10">A17</f>
+        <v>29.820745199543033</v>
       </c>
       <c r="B43" s="1">
-        <f t="shared" ref="B43:B51" ca="1" si="9">B17</f>
-        <v>42.413841333238508</v>
+        <f t="shared" ref="B43:B51" ca="1" si="11">B17</f>
+        <v>62.304368426893433</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" ref="D43:E51" ca="1" si="10">H43+F$47</f>
-        <v>51.424710612682127</v>
+        <f t="shared" ref="D43:E51" ca="1" si="12">H43+F$47</f>
+        <v>72.894966509974367</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>57.513642725684967</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>44.133117080284478</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>-61.578964920822933</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-10.301686052040552</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>-24.588333370325323</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>-68.300705954004144</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>21.905798977903952</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>85.869551871631558</v>
       </c>
       <c r="B44" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>94.531577588092517</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>21.708754064754743</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>62.958158691123273</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>7.4262171480780808</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>-1.0336326052723166</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>66.567811011645375</v>
       </c>
       <c r="F44" s="1">
         <f ca="1">RANDBETWEEN(5,355)</f>
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>-50.045516842381787</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-75.770435413936838</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>-83.135608701282607</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>-45.866012022643254</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>34.777184285890435</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>21.115853852037574</v>
       </c>
       <c r="B45" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>39.218895848402042</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>41.394408404230759</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>67.80930248223423</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>75.106014848225144</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>55.549330598336113</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>66.674475219650105</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>-45.19437305127083</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-8.0906377137897731</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>-26.552645497674181</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>-45.759347814638517</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>32.750483249631237</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>60.023841619769144</v>
       </c>
       <c r="B46" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>32.327810787866525</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>52.754966426484962</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>71.866272102739472</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>41.219626816559867</v>
       </c>
       <c r="E46" s="1">
         <f ca="1">I46+G$47</f>
-        <v>61.476856886781185</v>
+        <v>44.434724841591304</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>0</v>
@@ -11431,150 +14749,150 @@
         <v>1</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>-41.137403430765588</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-41.977025745455052</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>-20.625119209229105</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>-67.999098192697318</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>40.264844954143001</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>60.906713654979818</v>
       </c>
       <c r="B47" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>34.576230924954857</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>44.253448848267382</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>64.02488940500966</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>37.889728903307343</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>61.660547732608521</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>52.306639732557556</v>
       </c>
       <c r="F47" s="1">
         <f ca="1">50-AVERAGE(H42:H51)</f>
-        <v>113.00367553350506</v>
+        <v>83.196652562014918</v>
       </c>
       <c r="G47" s="1">
         <f ca="1">50-AVERAGE(I42:I51)</f>
-        <v>82.10197609601029</v>
+        <v>112.43382303428862</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>-48.9787861284954</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-45.306923658707575</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>-20.441428363401769</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>-60.127183301731066</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>13.4874984834312</v>
+      </c>
+      <c r="B48" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>39.461281415269497</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>81.835855734191441</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>70.753449016424554</v>
+      </c>
+      <c r="H48" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>27.91632853562858</v>
-      </c>
-      <c r="B48" s="1">
+        <v>-1.3607968278234797</v>
+      </c>
+      <c r="I48" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>20.851263011110095</v>
-      </c>
-      <c r="D48" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>80.010274744044395</v>
-      </c>
-      <c r="E48" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>70.897866474373458</v>
-      </c>
-      <c r="H48" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>-32.993400789460665</v>
-      </c>
-      <c r="I48" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>-11.20410962163683</v>
+        <v>-41.680374017864075</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>66.446239454073492</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>60.14964875298768</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>37.239853100610617</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>35.485427560697786</v>
+      </c>
+      <c r="H49" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>104.85410287523105</v>
-      </c>
-      <c r="B49" s="1">
+        <v>-45.956799461404302</v>
+      </c>
+      <c r="I49" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>77.929375694527494</v>
-      </c>
-      <c r="D49" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>-10.800003716904826</v>
-      </c>
-      <c r="E49" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>40.388435249302226</v>
-      </c>
-      <c r="H49" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>-123.80367925040989</v>
-      </c>
-      <c r="I49" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>-41.713540846708064</v>
+        <v>-76.948395473590836</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>90.032916946988195</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>45.863278966607893</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>10.50687094802673</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>42.251473825510502</v>
+      </c>
+      <c r="H50" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>65.737569358925441</v>
-      </c>
-      <c r="B50" s="1">
+        <v>-72.689781613988188</v>
+      </c>
+      <c r="I50" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>34.843415114171741</v>
-      </c>
-      <c r="D50" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>39.716324416954421</v>
-      </c>
-      <c r="E50" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>69.277945202510011</v>
-      </c>
-      <c r="H50" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>-73.287351116550639</v>
-      </c>
-      <c r="I50" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>-12.824030893500279</v>
+        <v>-70.18234920877812</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>39.831244067699942</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>71.349281071733856</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>65.966355361833564</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>32.556637481545323</v>
+      </c>
+      <c r="H51" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>29.732703803480145</v>
-      </c>
-      <c r="B51" s="1">
+        <v>-17.230297200181351</v>
+      </c>
+      <c r="I51" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>40.163798634306232</v>
-      </c>
-      <c r="D51" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>72.314897497477631</v>
-      </c>
-      <c r="E51" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>53.091844449678973</v>
-      </c>
-      <c r="H51" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>-40.688778036027429</v>
-      </c>
-      <c r="I51" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>-29.01013164633132</v>
+        <v>-79.877185552743299</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -11600,7 +14918,7 @@
       </c>
       <c r="F54" s="1">
         <f ca="1">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>16</v>
@@ -11609,19 +14927,19 @@
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <f ca="1">A16</f>
-        <v>91.094120979293976</v>
+        <v>32.465394849846035</v>
       </c>
       <c r="B55" s="1">
         <f ca="1">B16</f>
-        <v>83.143791063329957</v>
+        <v>60.760563622769837</v>
       </c>
       <c r="D55" s="1">
         <f ca="1">IF($F$54&lt;$G55,D3,A55)</f>
-        <v>91.094120979293976</v>
+        <v>32.465394849846035</v>
       </c>
       <c r="E55" s="1">
         <f ca="1">IF($F$54&lt;$G55,E3,B55)</f>
-        <v>83.143791063329957</v>
+        <v>60.760563622769837</v>
       </c>
       <c r="G55" s="1">
         <v>1</v>
@@ -11629,20 +14947,20 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <f t="shared" ref="A56:B64" ca="1" si="11">A17</f>
-        <v>50.966862979872161</v>
+        <f t="shared" ref="A56:B64" ca="1" si="13">A17</f>
+        <v>29.820745199543033</v>
       </c>
       <c r="B56" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>42.413841333238508</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>62.304368426893433</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" ref="D56:E64" ca="1" si="12">IF($F$54&lt;$G56,D4,A56)</f>
-        <v>50.966862979872161</v>
+        <f t="shared" ref="D56:E64" ca="1" si="14">IF($F$54&lt;$G56,D4,A56)</f>
+        <v>29.820745199543033</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>42.413841333238508</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>62.304368426893433</v>
       </c>
       <c r="G56" s="1">
         <v>2</v>
@@ -11650,20 +14968,20 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>21.905798977903952</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>85.869551871631558</v>
       </c>
       <c r="B57" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>94.531577588092517</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>21.708754064754743</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>21.905798977903952</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>85.869551871631558</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>94.531577588092517</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>21.708754064754743</v>
       </c>
       <c r="G57" s="1">
         <v>3</v>
@@ -11671,20 +14989,20 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>34.777184285890435</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>21.115853852037574</v>
       </c>
       <c r="B58" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>39.218895848402042</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>41.394408404230759</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>34.777184285890435</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>21.115853852037574</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>39.218895848402042</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>41.394408404230759</v>
       </c>
       <c r="G58" s="1">
         <v>4</v>
@@ -11692,20 +15010,20 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>32.750483249631237</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>60.023841619769144</v>
       </c>
       <c r="B59" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>32.327810787866525</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>52.754966426484962</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>32.750483249631237</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>60.023841619769144</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>32.327810787866525</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>52.754966426484962</v>
       </c>
       <c r="G59" s="1">
         <v>5</v>
@@ -11713,20 +15031,20 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>40.264844954143001</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>60.906713654979818</v>
       </c>
       <c r="B60" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>34.576230924954857</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>44.253448848267382</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>40.264844954143001</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>60.906713654979818</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>34.576230924954857</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>44.253448848267382</v>
       </c>
       <c r="G60" s="1">
         <v>6</v>
@@ -11734,20 +15052,20 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>27.91632853562858</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>13.4874984834312</v>
       </c>
       <c r="B61" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>20.851263011110095</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>39.461281415269497</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>26.011891547431706</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>13.4874984834312</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>44.908323572400008</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>39.461281415269497</v>
       </c>
       <c r="G61" s="1">
         <v>7</v>
@@ -11755,20 +15073,20 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>104.85410287523105</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>66.446239454073492</v>
       </c>
       <c r="B62" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>77.929375694527494</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>60.14964875298768</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>52.70913932511867</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>66.446239454073492</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>23.876765052934903</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>60.14964875298768</v>
       </c>
       <c r="G62" s="1">
         <v>8</v>
@@ -11776,20 +15094,20 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>65.737569358925441</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>90.032916946988195</v>
       </c>
       <c r="B63" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>34.843415114171741</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>45.863278966607893</v>
       </c>
       <c r="D63" s="1">
         <f ca="1">IF($F$54&lt;$G63,D11,A63)</f>
-        <v>38.309373301816322</v>
+        <v>25.658003812064301</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>75.524695360821411</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>31.307606551948101</v>
       </c>
       <c r="G63" s="1">
         <v>9</v>
@@ -11797,31 +15115,31 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>29.732703803480145</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>39.831244067699942</v>
       </c>
       <c r="B64" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>40.163798634306232</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>71.349281071733856</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>77.823561928951776</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>54.433630550210488</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>31.725057358507172</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>75.950453378961683</v>
       </c>
       <c r="G64" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -11835,189 +15153,189 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <f ca="1">$A$16</f>
-        <v>91.094120979293976</v>
+        <v>32.465394849846035</v>
       </c>
       <c r="B68" s="1">
         <f ca="1">$B$16</f>
-        <v>83.143791063329957</v>
+        <v>60.760563622769837</v>
       </c>
       <c r="D68" s="1">
         <f ca="1">A77</f>
-        <v>29.732703803480145</v>
+        <v>39.831244067699942</v>
       </c>
       <c r="E68" s="1">
         <f ca="1">B77</f>
-        <v>40.163798634306232</v>
+        <v>71.349281071733856</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <f ca="1">$A$17</f>
-        <v>50.966862979872161</v>
+        <v>29.820745199543033</v>
       </c>
       <c r="B69" s="1">
         <f ca="1">$B$17</f>
-        <v>42.413841333238508</v>
+        <v>62.304368426893433</v>
       </c>
       <c r="D69" s="1">
         <f ca="1">A76</f>
-        <v>65.737569358925441</v>
+        <v>90.032916946988195</v>
       </c>
       <c r="E69" s="1">
         <f ca="1">B76</f>
-        <v>34.843415114171741</v>
+        <v>45.863278966607893</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <f ca="1">$A$18</f>
-        <v>21.905798977903952</v>
+        <v>85.869551871631558</v>
       </c>
       <c r="B70" s="1">
         <f ca="1">$B$18</f>
-        <v>94.531577588092517</v>
+        <v>21.708754064754743</v>
       </c>
       <c r="D70" s="1">
         <f ca="1">A75</f>
-        <v>104.85410287523105</v>
+        <v>66.446239454073492</v>
       </c>
       <c r="E70" s="1">
         <f ca="1">B75</f>
-        <v>77.929375694527494</v>
+        <v>60.14964875298768</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <f ca="1">$A$19</f>
-        <v>34.777184285890435</v>
+        <v>21.115853852037574</v>
       </c>
       <c r="B71" s="1">
         <f ca="1">$B$19</f>
-        <v>39.218895848402042</v>
+        <v>41.394408404230759</v>
       </c>
       <c r="D71" s="1">
         <f ca="1">A74</f>
-        <v>27.91632853562858</v>
+        <v>13.4874984834312</v>
       </c>
       <c r="E71" s="1">
         <f ca="1">B74</f>
-        <v>20.851263011110095</v>
+        <v>39.461281415269497</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f ca="1">$A$20</f>
-        <v>32.750483249631237</v>
+        <v>60.023841619769144</v>
       </c>
       <c r="B72" s="1">
         <f ca="1">$B$20</f>
-        <v>32.327810787866525</v>
+        <v>52.754966426484962</v>
       </c>
       <c r="D72" s="1">
         <f ca="1">A73</f>
-        <v>40.264844954143001</v>
+        <v>60.906713654979818</v>
       </c>
       <c r="E72" s="1">
         <f ca="1">B73</f>
-        <v>34.576230924954857</v>
+        <v>44.253448848267382</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <f ca="1">$A$21</f>
-        <v>40.264844954143001</v>
+        <v>60.906713654979818</v>
       </c>
       <c r="B73" s="1">
         <f ca="1">$B$21</f>
-        <v>34.576230924954857</v>
+        <v>44.253448848267382</v>
       </c>
       <c r="D73" s="1">
         <f ca="1">A72</f>
-        <v>32.750483249631237</v>
+        <v>60.023841619769144</v>
       </c>
       <c r="E73" s="1">
         <f ca="1">B72</f>
-        <v>32.327810787866525</v>
+        <v>52.754966426484962</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <f ca="1">$A$22</f>
-        <v>27.91632853562858</v>
+        <v>13.4874984834312</v>
       </c>
       <c r="B74" s="1">
         <f ca="1">$B$22</f>
-        <v>20.851263011110095</v>
+        <v>39.461281415269497</v>
       </c>
       <c r="D74" s="1">
         <f ca="1">A71</f>
-        <v>34.777184285890435</v>
+        <v>21.115853852037574</v>
       </c>
       <c r="E74" s="1">
         <f ca="1">B71</f>
-        <v>39.218895848402042</v>
+        <v>41.394408404230759</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <f ca="1">$A$23</f>
-        <v>104.85410287523105</v>
+        <v>66.446239454073492</v>
       </c>
       <c r="B75" s="1">
         <f ca="1">$B$23</f>
-        <v>77.929375694527494</v>
+        <v>60.14964875298768</v>
       </c>
       <c r="D75" s="1">
         <f ca="1">A70</f>
-        <v>21.905798977903952</v>
+        <v>85.869551871631558</v>
       </c>
       <c r="E75" s="1">
         <f ca="1">B70</f>
-        <v>94.531577588092517</v>
+        <v>21.708754064754743</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <f ca="1">$A$24</f>
-        <v>65.737569358925441</v>
+        <v>90.032916946988195</v>
       </c>
       <c r="B76" s="1">
         <f ca="1">$B$24</f>
-        <v>34.843415114171741</v>
+        <v>45.863278966607893</v>
       </c>
       <c r="D76" s="1">
         <f ca="1">A69</f>
-        <v>50.966862979872161</v>
+        <v>29.820745199543033</v>
       </c>
       <c r="E76" s="1">
         <f ca="1">B69</f>
-        <v>42.413841333238508</v>
+        <v>62.304368426893433</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <f ca="1">$A$25</f>
-        <v>29.732703803480145</v>
+        <v>39.831244067699942</v>
       </c>
       <c r="B77" s="1">
         <f ca="1">$B$25</f>
-        <v>40.163798634306232</v>
+        <v>71.349281071733856</v>
       </c>
       <c r="D77" s="1">
         <f ca="1">A68</f>
-        <v>91.094120979293976</v>
+        <v>32.465394849846035</v>
       </c>
       <c r="E77" s="1">
         <f ca="1">B68</f>
-        <v>83.143791063329957</v>
+        <v>60.760563622769837</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>20</v>
       </c>
@@ -12025,8 +15343,11 @@
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
+      <c r="J79" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>0</v>
       </c>
@@ -12045,15 +15366,27 @@
       <c r="H80" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="J80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <f ca="1">IF(MIN(MOD(A3,D$31),QUOTIENT(A3,D$31))&lt;MIN(MOD(B3,E$31),QUOTIENT(B3,E$31)),A3-(2*MIN(MOD(A3,D$31),QUOTIENT(A3,D$31))),A3)</f>
-        <v>70.704187860247458</v>
+        <v>22.507909835843524</v>
       </c>
       <c r="B81" s="6">
         <f ca="1">IF(A81&lt;&gt;A3,B3,B3-(2*MIN(MOD(B3,E$31),QUOTIENT(B3,E$31))))</f>
-        <v>66.764920200533737</v>
+        <v>47.813169348197107</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6" t="s">
@@ -12065,215 +15398,381 @@
       <c r="F81" s="5"/>
       <c r="G81" s="6">
         <f ca="1">$A$16</f>
-        <v>91.094120979293976</v>
+        <v>32.465394849846035</v>
       </c>
       <c r="H81" s="6">
         <f ca="1">$B$16</f>
-        <v>83.143791063329957</v>
-      </c>
-      <c r="Q81" s="6" t="s">
-        <v>18</v>
+        <v>60.760563622769837</v>
+      </c>
+      <c r="J81" s="1">
+        <f ca="1">D$85+A81</f>
+        <v>27.486652342844788</v>
+      </c>
+      <c r="K81" s="6">
+        <f ca="1">E$85+B81</f>
+        <v>53.586866485483469</v>
+      </c>
+      <c r="L81" s="1">
+        <f ca="1">G81+D$85</f>
+        <v>37.4441373568473</v>
+      </c>
+      <c r="M81" s="6">
+        <f ca="1">H81+E$85</f>
+        <v>66.534260760056199</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <f t="shared" ref="A82:A90" ca="1" si="13">IF(MIN(MOD(A4,D$31),QUOTIENT(A4,D$31))&lt;MIN(MOD(B4,E$31),QUOTIENT(B4,E$31)),A4-(2*MIN(MOD(A4,D$31),QUOTIENT(A4,D$31))),A4)</f>
-        <v>30.57692986082564</v>
+        <f t="shared" ref="A82:A90" ca="1" si="15">IF(MIN(MOD(A4,D$31),QUOTIENT(A4,D$31))&lt;MIN(MOD(B4,E$31),QUOTIENT(B4,E$31)),A4-(2*MIN(MOD(A4,D$31),QUOTIENT(A4,D$31))),A4)</f>
+        <v>19.863260185540526</v>
       </c>
       <c r="B82" s="6">
-        <f t="shared" ref="B82:B90" ca="1" si="14">IF(A82&lt;&gt;A4,B4,B4-(2*MIN(MOD(B4,E$31),QUOTIENT(B4,E$31))))</f>
-        <v>26.034970470442282</v>
+        <f t="shared" ref="B82:B90" ca="1" si="16">IF(A82&lt;&gt;A4,B4,B4-(2*MIN(MOD(B4,E$31),QUOTIENT(B4,E$31))))</f>
+        <v>49.356974152320703</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6">
         <f ca="1">RANDBETWEEN(2,10)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E82" s="6">
         <f ca="1">RANDBETWEEN(2,10)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G82" s="6">
         <f ca="1">$A$17</f>
-        <v>50.966862979872161</v>
+        <v>29.820745199543033</v>
       </c>
       <c r="H82" s="6">
         <f ca="1">$B$17</f>
-        <v>42.413841333238508</v>
-      </c>
-      <c r="Q82" s="6" t="s">
-        <v>19</v>
+        <v>62.304368426893433</v>
+      </c>
+      <c r="J82" s="6">
+        <f t="shared" ref="J82:K90" ca="1" si="17">D$85+A82</f>
+        <v>24.84200269254179</v>
+      </c>
+      <c r="K82" s="6">
+        <f t="shared" ca="1" si="17"/>
+        <v>55.130671289607065</v>
+      </c>
+      <c r="L82" s="6">
+        <f t="shared" ref="L82:M90" ca="1" si="18">G82+D$85</f>
+        <v>34.799487706544298</v>
+      </c>
+      <c r="M82" s="6">
+        <f t="shared" ca="1" si="18"/>
+        <v>68.078065564179795</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <f t="shared" ca="1" si="13"/>
-        <v>1.5158658588574325</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>75.912066857629043</v>
       </c>
       <c r="B83" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>78.152706725296284</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>12.761359790182011</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="G83" s="6">
         <f ca="1">$A$18</f>
-        <v>21.905798977903952</v>
+        <v>85.869551871631558</v>
       </c>
       <c r="H83" s="6">
         <f ca="1">$B$18</f>
-        <v>94.531577588092517</v>
+        <v>21.708754064754743</v>
+      </c>
+      <c r="J83" s="6">
+        <f t="shared" ca="1" si="17"/>
+        <v>80.890809364630314</v>
+      </c>
+      <c r="K83" s="6">
+        <f t="shared" ca="1" si="17"/>
+        <v>18.535056927468375</v>
+      </c>
+      <c r="L83" s="6">
+        <f t="shared" ca="1" si="18"/>
+        <v>90.848294378632829</v>
+      </c>
+      <c r="M83" s="6">
+        <f ca="1">H83+E$85</f>
+        <v>27.482451202041105</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <f t="shared" ca="1" si="13"/>
-        <v>14.387251166843914</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>11.158368838035065</v>
       </c>
       <c r="B84" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>22.840024985605812</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>30.447014129658029</v>
       </c>
       <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
+      <c r="D84" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="E84" s="6"/>
       <c r="G84" s="6">
         <f ca="1">$A$19</f>
-        <v>34.777184285890435</v>
+        <v>21.115853852037574</v>
       </c>
       <c r="H84" s="6">
         <f ca="1">$B$19</f>
-        <v>39.218895848402042</v>
+        <v>41.394408404230759</v>
+      </c>
+      <c r="J84" s="6">
+        <f t="shared" ca="1" si="17"/>
+        <v>16.137111345036331</v>
+      </c>
+      <c r="K84" s="6">
+        <f t="shared" ca="1" si="17"/>
+        <v>36.220711266944392</v>
+      </c>
+      <c r="L84" s="6">
+        <f t="shared" ca="1" si="18"/>
+        <v>26.094596359038839</v>
+      </c>
+      <c r="M84" s="6">
+        <f t="shared" ca="1" si="18"/>
+        <v>47.168105541517122</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <f t="shared" ca="1" si="13"/>
-        <v>12.360550130584718</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>50.066356605766636</v>
       </c>
       <c r="B85" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>15.948939925070302</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>41.807572151912233</v>
       </c>
       <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
+      <c r="D85" s="6">
+        <f ca="1">50-AVERAGE(G81:G90,A81:A90)</f>
+        <v>4.9787425070012645</v>
+      </c>
+      <c r="E85" s="6">
+        <f ca="1">50-AVERAGE(H81:H90,B81:B90)</f>
+        <v>5.7736971372863621</v>
+      </c>
       <c r="G85" s="6">
         <f ca="1">$A$20</f>
-        <v>32.750483249631237</v>
+        <v>60.023841619769144</v>
       </c>
       <c r="H85" s="6">
         <f ca="1">$B$20</f>
-        <v>32.327810787866525</v>
+        <v>52.754966426484962</v>
+      </c>
+      <c r="J85" s="6">
+        <f t="shared" ca="1" si="17"/>
+        <v>55.0450991127679</v>
+      </c>
+      <c r="K85" s="6">
+        <f t="shared" ca="1" si="17"/>
+        <v>47.581269289198595</v>
+      </c>
+      <c r="L85" s="6">
+        <f t="shared" ca="1" si="18"/>
+        <v>65.002584126770415</v>
+      </c>
+      <c r="M85" s="6">
+        <f t="shared" ca="1" si="18"/>
+        <v>58.528663563771325</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
-        <f t="shared" ca="1" si="13"/>
-        <v>19.87491183509648</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>50.94922864097731</v>
       </c>
       <c r="B86" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>18.197360062158634</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>33.306054573694652</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="G86" s="6">
         <f ca="1">$A$21</f>
-        <v>40.264844954143001</v>
+        <v>60.906713654979818</v>
       </c>
       <c r="H86" s="6">
         <f ca="1">$B$21</f>
-        <v>34.576230924954857</v>
+        <v>44.253448848267382</v>
+      </c>
+      <c r="J86" s="6">
+        <f t="shared" ca="1" si="17"/>
+        <v>55.927971147978575</v>
+      </c>
+      <c r="K86" s="6">
+        <f t="shared" ca="1" si="17"/>
+        <v>39.079751710981014</v>
+      </c>
+      <c r="L86" s="6">
+        <f t="shared" ca="1" si="18"/>
+        <v>65.885456161981082</v>
+      </c>
+      <c r="M86" s="6">
+        <f t="shared" ca="1" si="18"/>
+        <v>50.027145985553744</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <f t="shared" ca="1" si="13"/>
-        <v>7.5263954165820595</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>3.5300134694286918</v>
       </c>
       <c r="B87" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>4.4723921483138689</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>28.513887140696763</v>
       </c>
       <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
+      <c r="D87" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E87" s="6"/>
       <c r="G87" s="6">
         <f ca="1">$A$22</f>
-        <v>27.91632853562858</v>
+        <v>13.4874984834312</v>
       </c>
       <c r="H87" s="6">
         <f ca="1">$B$22</f>
-        <v>20.851263011110095</v>
+        <v>39.461281415269497</v>
+      </c>
+      <c r="J87" s="6">
+        <f t="shared" ca="1" si="17"/>
+        <v>8.5087559764299563</v>
+      </c>
+      <c r="K87" s="6">
+        <f t="shared" ca="1" si="17"/>
+        <v>34.287584277983129</v>
+      </c>
+      <c r="L87" s="6">
+        <f t="shared" ca="1" si="18"/>
+        <v>18.466240990432464</v>
+      </c>
+      <c r="M87" s="6">
+        <f t="shared" ca="1" si="18"/>
+        <v>45.234978552555859</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <f t="shared" ca="1" si="13"/>
-        <v>84.464169756184532</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>56.488754440070977</v>
       </c>
       <c r="B88" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>61.550504831731267</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>47.20225447841495</v>
       </c>
       <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
+      <c r="D88" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="E88" s="6"/>
       <c r="G88" s="6">
         <f ca="1">$A$23</f>
-        <v>104.85410287523105</v>
+        <v>66.446239454073492</v>
       </c>
       <c r="H88" s="6">
         <f ca="1">$B$23</f>
-        <v>77.929375694527494</v>
+        <v>60.14964875298768</v>
+      </c>
+      <c r="J88" s="6">
+        <f t="shared" ca="1" si="17"/>
+        <v>61.467496947072242</v>
+      </c>
+      <c r="K88" s="6">
+        <f t="shared" ca="1" si="17"/>
+        <v>52.975951615701312</v>
+      </c>
+      <c r="L88" s="6">
+        <f t="shared" ca="1" si="18"/>
+        <v>71.424981961074764</v>
+      </c>
+      <c r="M88" s="6">
+        <f t="shared" ca="1" si="18"/>
+        <v>65.923345890274049</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
-        <f t="shared" ca="1" si="13"/>
-        <v>45.347636239878923</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>80.07543193298568</v>
       </c>
       <c r="B89" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>18.464544251375514</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>34.915884692035164</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="G89" s="6">
         <f ca="1">$A$24</f>
-        <v>65.737569358925441</v>
+        <v>90.032916946988195</v>
       </c>
       <c r="H89" s="6">
         <f ca="1">$B$24</f>
-        <v>34.843415114171741</v>
+        <v>45.863278966607893</v>
+      </c>
+      <c r="J89" s="6">
+        <f t="shared" ca="1" si="17"/>
+        <v>85.054174439986951</v>
+      </c>
+      <c r="K89" s="6">
+        <f t="shared" ca="1" si="17"/>
+        <v>40.689581829321526</v>
+      </c>
+      <c r="L89" s="6">
+        <f t="shared" ca="1" si="18"/>
+        <v>95.011659453989466</v>
+      </c>
+      <c r="M89" s="6">
+        <f t="shared" ca="1" si="18"/>
+        <v>51.636976103894256</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <f t="shared" ca="1" si="13"/>
-        <v>9.3427706844336242</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>29.873759053697437</v>
       </c>
       <c r="B90" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>23.784927771510009</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>58.401886797161133</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="G90" s="6">
         <f ca="1">$A$25</f>
-        <v>29.732703803480145</v>
+        <v>39.831244067699942</v>
       </c>
       <c r="H90" s="6">
         <f ca="1">$B$25</f>
-        <v>40.163798634306232</v>
+        <v>71.349281071733856</v>
+      </c>
+      <c r="J90" s="6">
+        <f t="shared" ca="1" si="17"/>
+        <v>34.852501560698698</v>
+      </c>
+      <c r="K90" s="6">
+        <f t="shared" ca="1" si="17"/>
+        <v>64.175583934447502</v>
+      </c>
+      <c r="L90" s="6">
+        <f t="shared" ca="1" si="18"/>
+        <v>44.809986574701206</v>
+      </c>
+      <c r="M90" s="6">
+        <f t="shared" ca="1" si="18"/>
+        <v>77.122978209020218</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>22</v>
       </c>
@@ -12283,7 +15782,7 @@
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>0</v>
       </c>
@@ -12305,103 +15804,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <f ca="1">E94+C$98</f>
-        <v>67.00844307689421</v>
+        <v>49.154881329334671</v>
       </c>
       <c r="B94" s="6">
         <f ca="1">F94+D$98</f>
-        <v>63.717881541672725</v>
+        <v>50.518628913888321</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="7">
         <f ca="1">RAND()</f>
-        <v>0.41388993538672403</v>
+        <v>4.8197188555335502E-2</v>
       </c>
       <c r="E94" s="6">
         <f ca="1">A3*$D$94</f>
-        <v>29.263751745048619</v>
+        <v>1.0848179743446409</v>
       </c>
       <c r="F94" s="6">
         <f ca="1">B3*$D$94</f>
-        <v>27.633328507898696</v>
+        <v>2.4972490927245858</v>
       </c>
       <c r="H94" s="6">
         <f ca="1">$A$16</f>
-        <v>91.094120979293976</v>
+        <v>32.465394849846035</v>
       </c>
       <c r="I94" s="6">
         <f ca="1">$B$16</f>
-        <v>83.143791063329957</v>
+        <v>60.760563622769837</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <f ca="1">E95+C$98</f>
-        <v>50.4001748562671</v>
+        <v>49.027416651476216</v>
       </c>
       <c r="B95" s="6">
         <f ca="1">F95+D$98</f>
-        <v>46.860165279580656</v>
+        <v>50.593035965125296</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6">
-        <f t="shared" ref="E95:E103" ca="1" si="15">A4*$D$94</f>
-        <v>12.655483524421516</v>
+        <f t="shared" ref="E95:E103" ca="1" si="19">A4*$D$94</f>
+        <v>0.95735329648618517</v>
       </c>
       <c r="F95" s="6">
-        <f t="shared" ref="F95:F103" ca="1" si="16">B4*$D$94</f>
-        <v>10.775612245806624</v>
+        <f t="shared" ref="F95:F103" ca="1" si="20">B4*$D$94</f>
+        <v>2.5716561439615635</v>
       </c>
       <c r="H95" s="6">
         <f ca="1">$A$17</f>
-        <v>50.966862979872161</v>
+        <v>29.820745199543033</v>
       </c>
       <c r="I95" s="6">
         <f ca="1">$B$17</f>
-        <v>42.413841333238508</v>
+        <v>62.304368426893433</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <f ca="1">E96+C$98</f>
-        <v>38.372092954223028</v>
+        <v>51.728811554952415</v>
       </c>
       <c r="B96" s="6">
         <f ca="1">F96+D$98</f>
-        <v>68.431171770604493</v>
+        <v>48.636441485193615</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="6">
-        <f t="shared" ca="1" si="15"/>
-        <v>0.62740162237744368</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>3.6587481999623819</v>
       </c>
       <c r="F96" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>32.346618736830472</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0.61506166402987905</v>
       </c>
       <c r="H96" s="6">
         <f ca="1">$A$18</f>
-        <v>21.905798977903952</v>
+        <v>85.869551871631558</v>
       </c>
       <c r="I96" s="6">
         <f ca="1">$B$18</f>
-        <v>94.531577588092517</v>
+        <v>21.708754064754743</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <f ca="1">E97+C$98</f>
-        <v>43.699429787683187</v>
+        <v>48.607865361846791</v>
       </c>
       <c r="B97" s="6">
         <f ca="1">F97+D$98</f>
-        <v>45.53780949929758</v>
+        <v>49.585234679228499</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>0</v>
@@ -12410,194 +15909,862 @@
         <v>1</v>
       </c>
       <c r="E97" s="6">
-        <f t="shared" ca="1" si="15"/>
-        <v>5.9547384558375978</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>0.53780200685675594</v>
       </c>
       <c r="F97" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>9.4532564655235518</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>1.5638548580647633</v>
       </c>
       <c r="H97" s="6">
         <f ca="1">$A$19</f>
-        <v>34.777184285890435</v>
+        <v>21.115853852037574</v>
       </c>
       <c r="I97" s="6">
         <f ca="1">$B$19</f>
-        <v>39.218895848402042</v>
+        <v>41.394408404230759</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <f ca="1">E98+C$98</f>
-        <v>42.860598626737662</v>
+        <v>50.483120984596837</v>
       </c>
       <c r="B98" s="6">
         <f ca="1">F98+D$98</f>
-        <v>42.68565874884812</v>
+        <v>50.132781636320914</v>
       </c>
       <c r="C98" s="6">
         <f ca="1">50-AVERAGE(E94:E103)</f>
-        <v>37.744691331845587</v>
+        <v>48.070063354990033</v>
       </c>
       <c r="D98" s="6">
         <f ca="1">50-AVERAGE(F94:F103)</f>
-        <v>36.084553033774029</v>
+        <v>48.021379821163734</v>
       </c>
       <c r="E98" s="6">
-        <f t="shared" ca="1" si="15"/>
-        <v>5.1159072948920725</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>2.4130576296068016</v>
       </c>
       <c r="F98" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>6.6011057150740902</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>2.1114018151571785</v>
       </c>
       <c r="H98" s="6">
         <f ca="1">$A$20</f>
-        <v>32.750483249631237</v>
+        <v>60.023841619769144</v>
       </c>
       <c r="I98" s="6">
         <f ca="1">$B$20</f>
-        <v>32.327810787866525</v>
+        <v>52.754966426484962</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <f ca="1">E99+C$98</f>
-        <v>45.97071730709051</v>
+        <v>50.525672934548119</v>
       </c>
       <c r="B99" s="6">
         <f ca="1">F99+D$98</f>
-        <v>43.616257214109815</v>
+        <v>49.723032390597062</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6">
-        <f t="shared" ca="1" si="15"/>
-        <v>8.2260259752449194</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>2.4556095795580832</v>
       </c>
       <c r="F99" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>7.5317041803357894</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>1.7016525694333264</v>
       </c>
       <c r="H99" s="6">
         <f ca="1">$A$21</f>
-        <v>40.264844954143001</v>
+        <v>60.906713654979818</v>
       </c>
       <c r="I99" s="6">
         <f ca="1">$B$21</f>
-        <v>34.576230924954857</v>
+        <v>44.253448848267382</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <f ca="1">E100+C$98</f>
-        <v>40.859790644509673</v>
+        <v>48.240200079778958</v>
       </c>
       <c r="B100" s="6">
         <f ca="1">F100+D$98</f>
-        <v>37.935631131063751</v>
+        <v>49.492063393240123</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
       <c r="E100" s="6">
-        <f t="shared" ca="1" si="15"/>
-        <v>3.1150993126640847</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>0.17013672478892872</v>
       </c>
       <c r="F100" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.8510780972897192</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>1.4706835720763891</v>
       </c>
       <c r="H100" s="6">
         <f ca="1">$A$22</f>
-        <v>27.91632853562858</v>
+        <v>13.4874984834312</v>
       </c>
       <c r="I100" s="6">
         <f ca="1">$B$22</f>
-        <v>20.851263011110095</v>
+        <v>39.461281415269497</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <f ca="1">E101+C$98</f>
-        <v>72.703561094726098</v>
+        <v>50.79266250399418</v>
       </c>
       <c r="B101" s="6">
         <f ca="1">F101+D$98</f>
-        <v>61.559687501599527</v>
+        <v>50.48918453471817</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6">
-        <f t="shared" ca="1" si="15"/>
-        <v>34.958869762880504</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>2.7225991490041466</v>
       </c>
       <c r="F101" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>25.475134467825498</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>2.467804713554437</v>
       </c>
       <c r="H101" s="6">
         <f ca="1">$A$23</f>
-        <v>104.85410287523105</v>
+        <v>66.446239454073492</v>
       </c>
       <c r="I101" s="6">
         <f ca="1">$B$23</f>
-        <v>77.929375694527494</v>
+        <v>60.14964875298768</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <f ca="1">E102+C$98</f>
-        <v>56.513621565109744</v>
+        <v>51.92947404651408</v>
       </c>
       <c r="B102" s="6">
         <f ca="1">F102+D$98</f>
-        <v>43.726842060921143</v>
+        <v>49.800621676352776</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6">
-        <f t="shared" ca="1" si="15"/>
-        <v>18.768930233264154</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>3.8594106915240443</v>
       </c>
       <c r="F102" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>7.6422890271471182</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>1.7792418551890423</v>
       </c>
       <c r="H102" s="6">
         <f ca="1">$A$24</f>
-        <v>65.737569358925441</v>
+        <v>90.032916946988195</v>
       </c>
       <c r="I102" s="6">
         <f ca="1">$B$24</f>
-        <v>34.843415114171741</v>
+        <v>45.863278966607893</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <f ca="1">E103+C$98</f>
-        <v>41.611570086758796</v>
+        <v>49.509894552957746</v>
       </c>
       <c r="B103" s="6">
         <f ca="1">F103+D$98</f>
-        <v>45.928895252302205</v>
+        <v>51.02897532533521</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6">
-        <f t="shared" ca="1" si="15"/>
-        <v>3.8668787549132122</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1.4398311979677165</v>
       </c>
       <c r="F103" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>9.8443422185281761</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>3.0075955041714759</v>
       </c>
       <c r="H103" s="6">
         <f ca="1">$A$25</f>
-        <v>29.732703803480145</v>
+        <v>39.831244067699942</v>
       </c>
       <c r="I103" s="6">
         <f ca="1">$B$25</f>
-        <v>40.163798634306232</v>
+        <v>71.349281071733856</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
+        <f ca="1">$A$16</f>
+        <v>32.465394849846035</v>
+      </c>
+      <c r="B107" s="6">
+        <f ca="1">$B$16</f>
+        <v>60.760563622769837</v>
+      </c>
+      <c r="C107" s="1">
+        <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>3</v>
+      </c>
+      <c r="E107" s="6">
+        <f ca="1">$A$16</f>
+        <v>32.465394849846035</v>
+      </c>
+      <c r="F107" s="6">
+        <f ca="1">$B$16</f>
+        <v>60.760563622769837</v>
+      </c>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
+      <c r="O107" s="6"/>
+      <c r="P107" s="6"/>
+      <c r="Q107" s="6"/>
+      <c r="R107" s="6"/>
+      <c r="S107" s="6"/>
+      <c r="T107" s="6"/>
+      <c r="U107" s="6"/>
+      <c r="V107" s="6"/>
+      <c r="W107" s="6"/>
+      <c r="X107" s="6"/>
+      <c r="Y107" s="6"/>
+      <c r="Z107" s="6"/>
+      <c r="AA107" s="6"/>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A108" s="6">
+        <f ca="1">$A$17</f>
+        <v>29.820745199543033</v>
+      </c>
+      <c r="B108" s="6">
+        <f ca="1">$B$17</f>
+        <v>62.304368426893433</v>
+      </c>
+      <c r="C108" s="6">
+        <f t="shared" ref="C108:C116" ca="1" si="21">RANDBETWEEN(1,10)</f>
+        <v>5</v>
+      </c>
+      <c r="E108" s="6">
+        <f ca="1">$A$17</f>
+        <v>29.820745199543033</v>
+      </c>
+      <c r="F108" s="6">
+        <f ca="1">$B$17</f>
+        <v>62.304368426893433</v>
+      </c>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
+      <c r="O108" s="6"/>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6"/>
+      <c r="R108" s="6"/>
+      <c r="S108" s="6"/>
+      <c r="T108" s="6"/>
+      <c r="U108" s="6"/>
+      <c r="V108" s="6"/>
+      <c r="W108" s="6"/>
+      <c r="X108" s="6"/>
+      <c r="Y108" s="6"/>
+      <c r="Z108" s="6"/>
+      <c r="AA108" s="6"/>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A109" s="6">
+        <f ca="1">$A$18</f>
+        <v>85.869551871631558</v>
+      </c>
+      <c r="B109" s="6">
+        <f ca="1">$B$18</f>
+        <v>21.708754064754743</v>
+      </c>
+      <c r="C109" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="E109" s="6">
+        <f ca="1">$A$18</f>
+        <v>85.869551871631558</v>
+      </c>
+      <c r="F109" s="6">
+        <f ca="1">$B$18</f>
+        <v>21.708754064754743</v>
+      </c>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+      <c r="O109" s="6"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="6"/>
+      <c r="R109" s="6"/>
+      <c r="S109" s="6"/>
+      <c r="T109" s="6"/>
+      <c r="U109" s="6"/>
+      <c r="V109" s="6"/>
+      <c r="W109" s="6"/>
+      <c r="X109" s="6"/>
+      <c r="Y109" s="6"/>
+      <c r="Z109" s="6"/>
+      <c r="AA109" s="6"/>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A110" s="6">
+        <f ca="1">$A$19</f>
+        <v>21.115853852037574</v>
+      </c>
+      <c r="B110" s="6">
+        <f ca="1">$B$19</f>
+        <v>41.394408404230759</v>
+      </c>
+      <c r="C110" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="E110" s="6">
+        <f ca="1">$A$19</f>
+        <v>21.115853852037574</v>
+      </c>
+      <c r="F110" s="6">
+        <f ca="1">$B$19</f>
+        <v>41.394408404230759</v>
+      </c>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="6"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="6"/>
+      <c r="T110" s="6"/>
+      <c r="U110" s="6"/>
+      <c r="V110" s="6"/>
+      <c r="W110" s="6"/>
+      <c r="X110" s="6"/>
+      <c r="Y110" s="6"/>
+      <c r="Z110" s="6"/>
+      <c r="AA110" s="6"/>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A111" s="6">
+        <f ca="1">$A$20</f>
+        <v>60.023841619769144</v>
+      </c>
+      <c r="B111" s="6">
+        <f ca="1">$B$20</f>
+        <v>52.754966426484962</v>
+      </c>
+      <c r="C111" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="E111" s="6">
+        <f ca="1">$A$20</f>
+        <v>60.023841619769144</v>
+      </c>
+      <c r="F111" s="6">
+        <f ca="1">$B$20</f>
+        <v>52.754966426484962</v>
+      </c>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+      <c r="O111" s="6"/>
+      <c r="P111" s="6"/>
+      <c r="Q111" s="6"/>
+      <c r="R111" s="6"/>
+      <c r="S111" s="6"/>
+      <c r="T111" s="6"/>
+      <c r="U111" s="6"/>
+      <c r="V111" s="6"/>
+      <c r="W111" s="6"/>
+      <c r="X111" s="6"/>
+      <c r="Y111" s="6"/>
+      <c r="Z111" s="6"/>
+      <c r="AA111" s="6"/>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <f ca="1">$A$21</f>
+        <v>60.906713654979818</v>
+      </c>
+      <c r="B112" s="6">
+        <f ca="1">$B$21</f>
+        <v>44.253448848267382</v>
+      </c>
+      <c r="C112" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="E112" s="6">
+        <f ca="1">$A$21</f>
+        <v>60.906713654979818</v>
+      </c>
+      <c r="F112" s="6">
+        <f ca="1">$B$21</f>
+        <v>44.253448848267382</v>
+      </c>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+      <c r="O112" s="6"/>
+      <c r="P112" s="6"/>
+      <c r="Q112" s="6"/>
+      <c r="R112" s="6"/>
+      <c r="S112" s="6"/>
+      <c r="T112" s="6"/>
+      <c r="U112" s="6"/>
+      <c r="V112" s="6"/>
+      <c r="W112" s="6"/>
+      <c r="X112" s="6"/>
+      <c r="Y112" s="6"/>
+      <c r="Z112" s="6"/>
+      <c r="AA112" s="6"/>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A113" s="6">
+        <f ca="1">$A$22</f>
+        <v>13.4874984834312</v>
+      </c>
+      <c r="B113" s="6">
+        <f ca="1">$B$22</f>
+        <v>39.461281415269497</v>
+      </c>
+      <c r="C113" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="E113" s="6">
+        <f ca="1">$A$22</f>
+        <v>13.4874984834312</v>
+      </c>
+      <c r="F113" s="6">
+        <f ca="1">$B$22</f>
+        <v>39.461281415269497</v>
+      </c>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="6"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="6"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="6"/>
+      <c r="T113" s="6"/>
+      <c r="U113" s="6"/>
+      <c r="V113" s="6"/>
+      <c r="W113" s="6"/>
+      <c r="X113" s="6"/>
+      <c r="Y113" s="6"/>
+      <c r="Z113" s="6"/>
+      <c r="AA113" s="6"/>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A114" s="6">
+        <f ca="1">$A$23</f>
+        <v>66.446239454073492</v>
+      </c>
+      <c r="B114" s="6">
+        <f ca="1">$B$23</f>
+        <v>60.14964875298768</v>
+      </c>
+      <c r="C114" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="E114" s="6">
+        <f ca="1">$A$23</f>
+        <v>66.446239454073492</v>
+      </c>
+      <c r="F114" s="6">
+        <f ca="1">$B$23</f>
+        <v>60.14964875298768</v>
+      </c>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
+      <c r="O114" s="6"/>
+      <c r="P114" s="6"/>
+      <c r="Q114" s="6"/>
+      <c r="R114" s="6"/>
+      <c r="S114" s="6"/>
+      <c r="T114" s="6"/>
+      <c r="U114" s="6"/>
+      <c r="V114" s="6"/>
+      <c r="W114" s="6"/>
+      <c r="X114" s="6"/>
+      <c r="Y114" s="6"/>
+      <c r="Z114" s="6"/>
+      <c r="AA114" s="6"/>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A115" s="6">
+        <f ca="1">$A$24</f>
+        <v>90.032916946988195</v>
+      </c>
+      <c r="B115" s="6">
+        <f ca="1">$B$24</f>
+        <v>45.863278966607893</v>
+      </c>
+      <c r="C115" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="E115" s="6">
+        <f ca="1">$A$24</f>
+        <v>90.032916946988195</v>
+      </c>
+      <c r="F115" s="6">
+        <f ca="1">$B$24</f>
+        <v>45.863278966607893</v>
+      </c>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
+      <c r="O115" s="6"/>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="6"/>
+      <c r="R115" s="6"/>
+      <c r="S115" s="6"/>
+      <c r="T115" s="6"/>
+      <c r="U115" s="6"/>
+      <c r="V115" s="6"/>
+      <c r="W115" s="6"/>
+      <c r="X115" s="6"/>
+      <c r="Y115" s="6"/>
+      <c r="Z115" s="6"/>
+      <c r="AA115" s="6"/>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A116" s="6">
+        <f ca="1">$A$25</f>
+        <v>39.831244067699942</v>
+      </c>
+      <c r="B116" s="6">
+        <f ca="1">$B$25</f>
+        <v>71.349281071733856</v>
+      </c>
+      <c r="C116" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="E116" s="6">
+        <f ca="1">$A$25</f>
+        <v>39.831244067699942</v>
+      </c>
+      <c r="F116" s="6">
+        <f ca="1">$B$25</f>
+        <v>71.349281071733856</v>
+      </c>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="6"/>
+      <c r="N116" s="6"/>
+      <c r="O116" s="6"/>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="6"/>
+      <c r="R116" s="6"/>
+      <c r="S116" s="6"/>
+      <c r="T116" s="6"/>
+      <c r="U116" s="6"/>
+      <c r="V116" s="6"/>
+      <c r="W116" s="6"/>
+      <c r="X116" s="6"/>
+      <c r="Y116" s="6"/>
+      <c r="Z116" s="6"/>
+      <c r="AA116" s="6"/>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <f ca="1">RANDBETWEEN($C$128,$C$122)</f>
+        <v>45</v>
+      </c>
+      <c r="B121" s="1">
+        <f ca="1">RANDBETWEEN(C130,C122)</f>
+        <v>76</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" s="6">
+        <f ca="1">$A$16</f>
+        <v>32.465394849846035</v>
+      </c>
+      <c r="E121" s="6">
+        <f ca="1">$B$16</f>
+        <v>60.760563622769837</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <f ca="1">D121</f>
+        <v>32.465394849846035</v>
+      </c>
+      <c r="B122" s="6">
+        <f ca="1">E121</f>
+        <v>60.760563622769837</v>
+      </c>
+      <c r="C122" s="1">
+        <f ca="1">MAX(D121:D130)</f>
+        <v>90.032916946988195</v>
+      </c>
+      <c r="D122" s="6">
+        <f ca="1">$A$17</f>
+        <v>29.820745199543033</v>
+      </c>
+      <c r="E122" s="6">
+        <f ca="1">$B$17</f>
+        <v>62.304368426893433</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A123" s="6">
+        <f t="shared" ref="A123:B130" ca="1" si="22">D122</f>
+        <v>29.820745199543033</v>
+      </c>
+      <c r="B123" s="6">
+        <f t="shared" ca="1" si="22"/>
+        <v>62.304368426893433</v>
+      </c>
+      <c r="D123" s="6">
+        <f ca="1">$A$18</f>
+        <v>85.869551871631558</v>
+      </c>
+      <c r="E123" s="6">
+        <f ca="1">$B$18</f>
+        <v>21.708754064754743</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A124" s="6">
+        <f t="shared" ca="1" si="22"/>
+        <v>85.869551871631558</v>
+      </c>
+      <c r="B124" s="6">
+        <f t="shared" ca="1" si="22"/>
+        <v>21.708754064754743</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D124" s="6">
+        <f ca="1">$A$19</f>
+        <v>21.115853852037574</v>
+      </c>
+      <c r="E124" s="6">
+        <f ca="1">$B$19</f>
+        <v>41.394408404230759</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A125" s="6">
+        <f t="shared" ca="1" si="22"/>
+        <v>21.115853852037574</v>
+      </c>
+      <c r="B125" s="6">
+        <f t="shared" ca="1" si="22"/>
+        <v>41.394408404230759</v>
+      </c>
+      <c r="C125" s="1">
+        <f ca="1">MAX(E121:E130)</f>
+        <v>71.349281071733856</v>
+      </c>
+      <c r="D125" s="6">
+        <f ca="1">$A$20</f>
+        <v>60.023841619769144</v>
+      </c>
+      <c r="E125" s="6">
+        <f ca="1">$B$20</f>
+        <v>52.754966426484962</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A126" s="6">
+        <f t="shared" ca="1" si="22"/>
+        <v>60.023841619769144</v>
+      </c>
+      <c r="B126" s="6">
+        <f t="shared" ca="1" si="22"/>
+        <v>52.754966426484962</v>
+      </c>
+      <c r="D126" s="6">
+        <f ca="1">$A$21</f>
+        <v>60.906713654979818</v>
+      </c>
+      <c r="E126" s="6">
+        <f ca="1">$B$21</f>
+        <v>44.253448848267382</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A127" s="6">
+        <f t="shared" ca="1" si="22"/>
+        <v>60.906713654979818</v>
+      </c>
+      <c r="B127" s="6">
+        <f t="shared" ca="1" si="22"/>
+        <v>44.253448848267382</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D127" s="6">
+        <f ca="1">$A$22</f>
+        <v>13.4874984834312</v>
+      </c>
+      <c r="E127" s="6">
+        <f ca="1">$B$22</f>
+        <v>39.461281415269497</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A128" s="6">
+        <f t="shared" ca="1" si="22"/>
+        <v>13.4874984834312</v>
+      </c>
+      <c r="B128" s="6">
+        <f t="shared" ca="1" si="22"/>
+        <v>39.461281415269497</v>
+      </c>
+      <c r="C128" s="1">
+        <f ca="1">MIN(D121:D130)</f>
+        <v>13.4874984834312</v>
+      </c>
+      <c r="D128" s="6">
+        <f ca="1">$A$23</f>
+        <v>66.446239454073492</v>
+      </c>
+      <c r="E128" s="6">
+        <f ca="1">$B$23</f>
+        <v>60.14964875298768</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="6">
+        <f t="shared" ca="1" si="22"/>
+        <v>66.446239454073492</v>
+      </c>
+      <c r="B129" s="6">
+        <f t="shared" ca="1" si="22"/>
+        <v>60.14964875298768</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D129" s="6">
+        <f ca="1">$A$24</f>
+        <v>90.032916946988195</v>
+      </c>
+      <c r="E129" s="6">
+        <f ca="1">$B$24</f>
+        <v>45.863278966607893</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="6">
+        <f t="shared" ca="1" si="22"/>
+        <v>90.032916946988195</v>
+      </c>
+      <c r="B130" s="6">
+        <f t="shared" ca="1" si="22"/>
+        <v>45.863278966607893</v>
+      </c>
+      <c r="C130" s="1">
+        <f ca="1">MIN(E121:E130)</f>
+        <v>21.708754064754743</v>
+      </c>
+      <c r="D130" s="6">
+        <f ca="1">$A$25</f>
+        <v>39.831244067699942</v>
+      </c>
+      <c r="E130" s="6">
+        <f ca="1">$B$25</f>
+        <v>71.349281071733856</v>
       </c>
     </row>
   </sheetData>

--- a/dots.xlsx
+++ b/dots.xlsx
@@ -182,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -191,6 +191,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -286,34 +287,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>22.507909835843524</c:v>
+                  <c:v>35.691257646143505</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.863260185540526</c:v>
+                  <c:v>37.48957389646467</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.912066857629043</c:v>
+                  <c:v>75.230554960642863</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.158368838035065</c:v>
+                  <c:v>81.506158751899761</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.066356605766636</c:v>
+                  <c:v>37.522118455233588</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.94922864097731</c:v>
+                  <c:v>9.5990700102502871</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5300134694286918</c:v>
+                  <c:v>68.09130016512087</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56.488754440070977</c:v>
+                  <c:v>42.814173048198711</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.07543193298568</c:v>
+                  <c:v>6.4072828453280808</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.873759053697437</c:v>
+                  <c:v>41.086436692049261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -325,34 +326,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>51.813169348197107</c:v>
+                  <c:v>69.667630517339276</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.356974152320703</c:v>
+                  <c:v>82.660218529879998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.761359790182011</c:v>
+                  <c:v>28.190343273553523</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.447014129658029</c:v>
+                  <c:v>37.667987463845357</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.807572151912233</c:v>
+                  <c:v>61.597030229668334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.306054573694652</c:v>
+                  <c:v>84.782950068357408</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.513887140696763</c:v>
+                  <c:v>30.038194632902826</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.20225447841495</c:v>
+                  <c:v>5.967852614891533</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.915884692035164</c:v>
+                  <c:v>13.796018214187129</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62.401886797161133</c:v>
+                  <c:v>49.107551012186981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -399,34 +400,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>43.798659542590798</c:v>
+                  <c:v>3.4870656128521564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.812040763641839</c:v>
+                  <c:v>45.077190216002492</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.615757160127586</c:v>
+                  <c:v>58.449061665546807</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.762300809572594</c:v>
+                  <c:v>79.801698436538544</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6212783008893243</c:v>
+                  <c:v>41.978945257420946</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75.982541219785404</c:v>
+                  <c:v>18.0409442262985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80.997402354952953</c:v>
+                  <c:v>34.834469051875033</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.179144890274401</c:v>
+                  <c:v>46.500860179199613</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.658003812064301</c:v>
+                  <c:v>70.87687004625792</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54.433630550210488</c:v>
+                  <c:v>10.635101937473861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -438,34 +439,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>46.791902497065735</c:v>
+                  <c:v>63.318542552317645</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.401015943745051</c:v>
+                  <c:v>17.783462252575521</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.988621807677077</c:v>
+                  <c:v>25.329460478256678</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.408619155224017</c:v>
+                  <c:v>31.749453930791624</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.866598604953477</c:v>
+                  <c:v>17.390074506970681</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6271067212760655</c:v>
+                  <c:v>28.088108816164752</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.632355980568846</c:v>
+                  <c:v>30.102067106033807</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81.408013403223023</c:v>
+                  <c:v>61.993841988595456</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.307606551948101</c:v>
+                  <c:v>32.589240454838169</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75.950453378961683</c:v>
+                  <c:v>37.252600010988282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -731,34 +732,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.465394849846035</c:v>
+                  <c:v>42.147464999010346</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.820745199543033</c:v>
+                  <c:v>43.94578124933151</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.869551871631558</c:v>
+                  <c:v>81.686762313509703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.115853852037574</c:v>
+                  <c:v>87.962366104766602</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.023841619769144</c:v>
+                  <c:v>43.978325808100429</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.906713654979818</c:v>
+                  <c:v>16.055277363117128</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.4874984834312</c:v>
+                  <c:v>74.547507517987711</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>66.446239454073492</c:v>
+                  <c:v>49.270380401065552</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.032916946988195</c:v>
+                  <c:v>12.863490198194921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -770,34 +771,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>76</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.760563622769837</c:v>
+                  <c:v>73.320052861658041</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.304368426893433</c:v>
+                  <c:v>86.312640874198763</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.708754064754743</c:v>
+                  <c:v>31.842765617872281</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.394408404230759</c:v>
+                  <c:v>41.320409808164115</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.754966426484962</c:v>
+                  <c:v>65.249452573987099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.253448848267382</c:v>
+                  <c:v>88.435372412676173</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.461281415269497</c:v>
+                  <c:v>33.69061697722158</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.14964875298768</c:v>
+                  <c:v>9.6202749592102919</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45.863278966607893</c:v>
+                  <c:v>17.448440558505887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -844,34 +845,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>32.465394849846035</c:v>
+                  <c:v>42.147464999010346</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.820745199543033</c:v>
+                  <c:v>43.94578124933151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.869551871631558</c:v>
+                  <c:v>81.686762313509703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.115853852037574</c:v>
+                  <c:v>87.962366104766602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.023841619769144</c:v>
+                  <c:v>43.978325808100429</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.906713654979818</c:v>
+                  <c:v>16.055277363117128</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.4874984834312</c:v>
+                  <c:v>74.547507517987711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66.446239454073492</c:v>
+                  <c:v>49.270380401065552</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.032916946988195</c:v>
+                  <c:v>12.863490198194921</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.831244067699942</c:v>
+                  <c:v>47.542644044916102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -883,34 +884,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60.760563622769837</c:v>
+                  <c:v>73.320052861658041</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.304368426893433</c:v>
+                  <c:v>86.312640874198763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.708754064754743</c:v>
+                  <c:v>31.842765617872281</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.394408404230759</c:v>
+                  <c:v>41.320409808164115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.754966426484962</c:v>
+                  <c:v>65.249452573987099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.253448848267382</c:v>
+                  <c:v>88.435372412676173</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.461281415269497</c:v>
+                  <c:v>33.69061697722158</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.14964875298768</c:v>
+                  <c:v>9.6202749592102919</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45.863278966607893</c:v>
+                  <c:v>17.448440558505887</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71.349281071733856</c:v>
+                  <c:v>52.759973356505739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1176,34 +1177,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>27.965394849846032</c:v>
+                  <c:v>36.147464999010346</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.320745199543033</c:v>
+                  <c:v>37.94578124933151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.369551871631558</c:v>
+                  <c:v>75.686762313509703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.615853852037574</c:v>
+                  <c:v>81.962366104766602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.523841619769144</c:v>
+                  <c:v>37.978325808100429</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56.406713654979818</c:v>
+                  <c:v>10.055277363117128</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.9874984834311995</c:v>
+                  <c:v>68.547507517987711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.946239454073485</c:v>
+                  <c:v>43.270380401065552</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85.532916946988195</c:v>
+                  <c:v>6.8634901981949215</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.331244067699942</c:v>
+                  <c:v>41.542644044916102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1215,34 +1216,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>55.26056362276983</c:v>
+                  <c:v>66.820052861658041</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.804368426893426</c:v>
+                  <c:v>79.812640874198763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.208754064754736</c:v>
+                  <c:v>25.342765617872288</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.894408404230752</c:v>
+                  <c:v>34.820409808164122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.254966426484955</c:v>
+                  <c:v>58.749452573987099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.753448848267375</c:v>
+                  <c:v>81.935372412676173</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.961281415269482</c:v>
+                  <c:v>27.190616977221591</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54.649648752987673</c:v>
+                  <c:v>3.1202749592102981</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.363278966607886</c:v>
+                  <c:v>10.948440558505894</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65.849281071733856</c:v>
+                  <c:v>46.259973356505746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1289,34 +1290,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>36.965394849846035</c:v>
+                  <c:v>48.147464999010346</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.320745199543033</c:v>
+                  <c:v>49.94578124933151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90.369551871631558</c:v>
+                  <c:v>87.686762313509703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.615853852037574</c:v>
+                  <c:v>93.962366104766602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.523841619769144</c:v>
+                  <c:v>49.978325808100429</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65.406713654979825</c:v>
+                  <c:v>22.055277363117128</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.9874984834312</c:v>
+                  <c:v>80.547507517987711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.946239454073492</c:v>
+                  <c:v>55.270380401065552</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>94.532916946988195</c:v>
+                  <c:v>18.863490198194921</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.331244067699949</c:v>
+                  <c:v>53.542644044916102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1328,34 +1329,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>66.260563622769837</c:v>
+                  <c:v>79.820052861658041</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.804368426893433</c:v>
+                  <c:v>92.812640874198763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.208754064754736</c:v>
+                  <c:v>38.342765617872288</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.894408404230752</c:v>
+                  <c:v>47.820409808164122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.254966426484955</c:v>
+                  <c:v>71.749452573987099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.753448848267375</c:v>
+                  <c:v>94.935372412676173</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.96128141526949</c:v>
+                  <c:v>40.190616977221595</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65.649648752987673</c:v>
+                  <c:v>16.120274959210299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51.363278966607886</c:v>
+                  <c:v>23.948440558505894</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76.849281071733856</c:v>
+                  <c:v>59.259973356505746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1421,34 +1422,34 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>31.507909835843524</c:v>
+                        <c:v>47.691257646143505</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>28.863260185540526</c:v>
+                        <c:v>49.48957389646467</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>84.912066857629043</c:v>
+                        <c:v>87.230554960642863</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>20.158368838035067</c:v>
+                        <c:v>93.506158751899761</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>59.066356605766636</c:v>
+                        <c:v>49.522118455233588</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>59.94922864097731</c:v>
+                        <c:v>21.599070010250287</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>12.530013469428692</c:v>
+                        <c:v>80.09130016512087</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>65.488754440070977</c:v>
+                        <c:v>54.814173048198711</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>89.07543193298568</c:v>
+                        <c:v>18.40728284532808</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>38.873759053697441</c:v>
+                        <c:v>53.086436692049261</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1466,34 +1467,34 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>62.813169348197107</c:v>
+                        <c:v>82.667630517339276</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>64.356974152320703</c:v>
+                        <c:v>95.660218529879998</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>23.761359790182013</c:v>
+                        <c:v>41.190343273553523</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>43.447014129658029</c:v>
+                        <c:v>50.667987463845357</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>54.807572151912233</c:v>
+                        <c:v>74.597030229668334</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>46.306054573694652</c:v>
+                        <c:v>97.782950068357408</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>41.513887140696767</c:v>
+                        <c:v>43.03819463290283</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>62.20225447841495</c:v>
+                        <c:v>18.967852614891534</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>47.915884692035164</c:v>
+                        <c:v>26.796018214187129</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>73.401886797161126</c:v>
+                        <c:v>62.107551012186981</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1548,34 +1549,34 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>22.507909835843524</c:v>
+                        <c:v>35.691257646143505</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>19.863260185540526</c:v>
+                        <c:v>37.48957389646467</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>75.912066857629043</c:v>
+                        <c:v>75.230554960642863</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>11.158368838035065</c:v>
+                        <c:v>81.506158751899761</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>50.066356605766636</c:v>
+                        <c:v>37.522118455233588</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>50.94922864097731</c:v>
+                        <c:v>9.5990700102502871</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>3.5300134694286918</c:v>
+                        <c:v>68.09130016512087</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>56.488754440070977</c:v>
+                        <c:v>42.814173048198711</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>80.07543193298568</c:v>
+                        <c:v>6.4072828453280808</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>29.873759053697437</c:v>
+                        <c:v>41.086436692049261</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1593,34 +1594,34 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>51.813169348197107</c:v>
+                        <c:v>69.667630517339276</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>53.356974152320703</c:v>
+                        <c:v>82.660218529879998</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>12.761359790182011</c:v>
+                        <c:v>28.190343273553523</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>32.447014129658029</c:v>
+                        <c:v>37.667987463845357</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>43.807572151912233</c:v>
+                        <c:v>61.597030229668334</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>35.306054573694652</c:v>
+                        <c:v>84.782950068357408</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>30.513887140696763</c:v>
+                        <c:v>30.038194632902826</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>51.20225447841495</c:v>
+                        <c:v>5.967852614891533</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>36.915884692035164</c:v>
+                        <c:v>13.796018214187129</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>62.401886797161133</c:v>
+                        <c:v>49.107551012186981</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1879,34 +1880,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>32.465394849846035</c:v>
+                  <c:v>42.147464999010346</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.820745199543033</c:v>
+                  <c:v>43.94578124933151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.869551871631558</c:v>
+                  <c:v>81.686762313509703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.115853852037574</c:v>
+                  <c:v>87.962366104766602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.023841619769144</c:v>
+                  <c:v>43.978325808100429</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.906713654979818</c:v>
+                  <c:v>16.055277363117128</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.4874984834312</c:v>
+                  <c:v>74.547507517987711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66.446239454073492</c:v>
+                  <c:v>49.270380401065552</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.032916946988195</c:v>
+                  <c:v>12.863490198194921</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.831244067699942</c:v>
+                  <c:v>47.542644044916102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1918,34 +1919,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60.760563622769837</c:v>
+                  <c:v>73.320052861658041</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.304368426893433</c:v>
+                  <c:v>86.312640874198763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.708754064754743</c:v>
+                  <c:v>31.842765617872281</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.394408404230759</c:v>
+                  <c:v>41.320409808164115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.754966426484962</c:v>
+                  <c:v>65.249452573987099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.253448848267382</c:v>
+                  <c:v>88.435372412676173</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.461281415269497</c:v>
+                  <c:v>33.69061697722158</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.14964875298768</c:v>
+                  <c:v>9.6202749592102919</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45.863278966607893</c:v>
+                  <c:v>17.448440558505887</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71.349281071733856</c:v>
+                  <c:v>52.759973356505739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1992,34 +1993,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>43.712583602179834</c:v>
+                  <c:v>12.518844949905571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.725964823230875</c:v>
+                  <c:v>54.108969553055907</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.529681219716622</c:v>
+                  <c:v>67.480841002600215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.676224869161629</c:v>
+                  <c:v>88.833477773591966</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.53520236047836</c:v>
+                  <c:v>51.010724594474361</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75.896465279374439</c:v>
+                  <c:v>27.072723563351914</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80.911326414541989</c:v>
+                  <c:v>43.866248388928447</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.093068949863437</c:v>
+                  <c:v>55.532639516253028</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.571927871653337</c:v>
+                  <c:v>79.908649383311342</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54.347554609799523</c:v>
+                  <c:v>19.666881274527277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2031,34 +2032,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>46.253673092601424</c:v>
+                  <c:v>78.758857342564397</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.862786539280741</c:v>
+                  <c:v>33.223777042822263</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.45039240321276</c:v>
+                  <c:v>40.769775268503423</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.870389750759706</c:v>
+                  <c:v>47.189768721038369</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.328369200489167</c:v>
+                  <c:v>32.830389297217422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0888773168117551</c:v>
+                  <c:v>43.528423606411494</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.094126576104543</c:v>
+                  <c:v>45.542381896280553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.86978399875872</c:v>
+                  <c:v>77.434156778842208</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.769377147483791</c:v>
+                  <c:v>48.029555245084914</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75.41222397449738</c:v>
+                  <c:v>52.692914801235027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2324,34 +2325,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>32.465394849846035</c:v>
+                  <c:v>42.147464999010346</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.820745199543033</c:v>
+                  <c:v>43.94578124933151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.869551871631558</c:v>
+                  <c:v>81.686762313509703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.115853852037574</c:v>
+                  <c:v>87.962366104766602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.023841619769144</c:v>
+                  <c:v>43.978325808100429</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.906713654979818</c:v>
+                  <c:v>16.055277363117128</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.4874984834312</c:v>
+                  <c:v>74.547507517987711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66.446239454073492</c:v>
+                  <c:v>49.270380401065552</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.032916946988195</c:v>
+                  <c:v>12.863490198194921</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.831244067699942</c:v>
+                  <c:v>47.542644044916102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2363,34 +2364,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60.760563622769837</c:v>
+                  <c:v>73.320052861658041</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.304368426893433</c:v>
+                  <c:v>86.312640874198763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.708754064754743</c:v>
+                  <c:v>31.842765617872281</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.394408404230759</c:v>
+                  <c:v>41.320409808164115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.754966426484962</c:v>
+                  <c:v>65.249452573987099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.253448848267382</c:v>
+                  <c:v>88.435372412676173</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.461281415269497</c:v>
+                  <c:v>33.69061697722158</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.14964875298768</c:v>
+                  <c:v>9.6202749592102919</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45.863278966607893</c:v>
+                  <c:v>17.448440558505887</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71.349281071733856</c:v>
+                  <c:v>52.759973356505739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2437,34 +2438,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>69.914510629192861</c:v>
+                  <c:v>74.605254998657216</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.894966509974367</c:v>
+                  <c:v>86.406230208912518</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4262171480780808</c:v>
+                  <c:v>22.939695871384906</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.106014848225144</c:v>
+                  <c:v>30.01420291622663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.219626816559867</c:v>
+                  <c:v>66.363890900310338</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.889728903307343</c:v>
+                  <c:v>97.043707553447433</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.835855734191441</c:v>
+                  <c:v>26.903258006828047</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.239853100610617</c:v>
+                  <c:v>11.822064229250142</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.50687094802673</c:v>
+                  <c:v>30.517439918127572</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65.966355361833564</c:v>
+                  <c:v>53.384255396855202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2476,34 +2477,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>44.836244230092973</c:v>
+                  <c:v>50.261911938152522</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.133117080284478</c:v>
+                  <c:v>44.536681053137798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.567811011645375</c:v>
+                  <c:v>25.474992216367454</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.674475219650105</c:v>
+                  <c:v>16.577785215566848</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.434724841591304</c:v>
+                  <c:v>51.014612478935646</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.306639732557556</c:v>
+                  <c:v>70.406166396992106</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.753449016424554</c:v>
+                  <c:v>31.693809538022293</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.485427560697786</c:v>
+                  <c:v>63.171930739774893</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42.251473825510502</c:v>
+                  <c:v>95.377904700293513</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.556637481545323</c:v>
+                  <c:v>51.484205722756897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2569,34 +2570,34 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>-13.282141932822057</c:v>
+                        <c:v>56.707231094667534</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>-10.301686052040552</c:v>
+                        <c:v>68.508206304922822</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>-75.770435413936838</c:v>
+                        <c:v>5.0416719673952173</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>-8.0906377137897731</c:v>
+                        <c:v>12.116179012236941</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>-41.977025745455052</c:v>
+                        <c:v>48.465866996320642</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>-45.306923658707575</c:v>
+                        <c:v>79.145683649457752</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>-1.3607968278234797</c:v>
+                        <c:v>9.005234102838358</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>-45.956799461404302</c:v>
+                        <c:v>-6.075959674739547</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>-72.689781613988188</c:v>
+                        <c:v>12.619416014137885</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>-17.230297200181351</c:v>
+                        <c:v>35.486231492865514</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2614,34 +2615,34 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>-67.597578804195649</c:v>
+                        <c:v>-62.741763595352523</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>-68.300705954004144</c:v>
+                        <c:v>-68.466994480367248</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>-45.866012022643254</c:v>
+                        <c:v>-87.528683317137592</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>-45.759347814638517</c:v>
+                        <c:v>-96.425890317938197</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>-67.999098192697318</c:v>
+                        <c:v>-61.989063054569399</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>-60.127183301731066</c:v>
+                        <c:v>-42.59750913651294</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>-41.680374017864075</c:v>
+                        <c:v>-81.309865995482753</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>-76.948395473590836</c:v>
+                        <c:v>-49.831744793730152</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>-70.18234920877812</c:v>
+                        <c:v>-17.625770833211533</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>-79.877185552743299</c:v>
+                        <c:v>-61.519469810748149</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2900,34 +2901,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>32.465394849846035</c:v>
+                  <c:v>42.147464999010346</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.820745199543033</c:v>
+                  <c:v>43.94578124933151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.869551871631558</c:v>
+                  <c:v>81.686762313509703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.115853852037574</c:v>
+                  <c:v>87.962366104766602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.023841619769144</c:v>
+                  <c:v>43.978325808100429</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.906713654979818</c:v>
+                  <c:v>16.055277363117128</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.4874984834312</c:v>
+                  <c:v>74.547507517987711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66.446239454073492</c:v>
+                  <c:v>49.270380401065552</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.032916946988195</c:v>
+                  <c:v>12.863490198194921</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.831244067699942</c:v>
+                  <c:v>47.542644044916102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2939,34 +2940,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60.760563622769837</c:v>
+                  <c:v>73.320052861658041</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.304368426893433</c:v>
+                  <c:v>86.312640874198763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.708754064754743</c:v>
+                  <c:v>31.842765617872281</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.394408404230759</c:v>
+                  <c:v>41.320409808164115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.754966426484962</c:v>
+                  <c:v>65.249452573987099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.253448848267382</c:v>
+                  <c:v>88.435372412676173</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.461281415269497</c:v>
+                  <c:v>33.69061697722158</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.14964875298768</c:v>
+                  <c:v>9.6202749592102919</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45.863278966607893</c:v>
+                  <c:v>17.448440558505887</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71.349281071733856</c:v>
+                  <c:v>52.759973356505739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3013,34 +3014,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>32.465394849846035</c:v>
+                  <c:v>42.147464999010346</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.820745199543033</c:v>
+                  <c:v>43.94578124933151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.869551871631558</c:v>
+                  <c:v>81.686762313509703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.115853852037574</c:v>
+                  <c:v>87.962366104766602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.023841619769144</c:v>
+                  <c:v>43.978325808100429</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.906713654979818</c:v>
+                  <c:v>18.0409442262985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.4874984834312</c:v>
+                  <c:v>34.834469051875033</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66.446239454073492</c:v>
+                  <c:v>46.500860179199613</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.658003812064301</c:v>
+                  <c:v>70.87687004625792</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54.433630550210488</c:v>
+                  <c:v>10.635101937473861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3052,34 +3053,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60.760563622769837</c:v>
+                  <c:v>73.320052861658041</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.304368426893433</c:v>
+                  <c:v>86.312640874198763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.708754064754743</c:v>
+                  <c:v>31.842765617872281</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.394408404230759</c:v>
+                  <c:v>41.320409808164115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.754966426484962</c:v>
+                  <c:v>65.249452573987099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.253448848267382</c:v>
+                  <c:v>28.088108816164752</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.461281415269497</c:v>
+                  <c:v>30.102067106033807</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.14964875298768</c:v>
+                  <c:v>61.993841988595456</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.307606551948101</c:v>
+                  <c:v>32.589240454838169</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75.950453378961683</c:v>
+                  <c:v>37.252600010988282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3337,34 +3338,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>32.465394849846035</c:v>
+                  <c:v>42.147464999010346</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.820745199543033</c:v>
+                  <c:v>43.94578124933151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.869551871631558</c:v>
+                  <c:v>81.686762313509703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.115853852037574</c:v>
+                  <c:v>87.962366104766602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.023841619769144</c:v>
+                  <c:v>43.978325808100429</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.906713654979818</c:v>
+                  <c:v>16.055277363117128</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.4874984834312</c:v>
+                  <c:v>74.547507517987711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66.446239454073492</c:v>
+                  <c:v>49.270380401065552</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.032916946988195</c:v>
+                  <c:v>12.863490198194921</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.831244067699942</c:v>
+                  <c:v>47.542644044916102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3376,34 +3377,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60.760563622769837</c:v>
+                  <c:v>73.320052861658041</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.304368426893433</c:v>
+                  <c:v>86.312640874198763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.708754064754743</c:v>
+                  <c:v>31.842765617872281</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.394408404230759</c:v>
+                  <c:v>41.320409808164115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.754966426484962</c:v>
+                  <c:v>65.249452573987099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.253448848267382</c:v>
+                  <c:v>88.435372412676173</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.461281415269497</c:v>
+                  <c:v>33.69061697722158</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.14964875298768</c:v>
+                  <c:v>9.6202749592102919</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45.863278966607893</c:v>
+                  <c:v>17.448440558505887</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71.349281071733856</c:v>
+                  <c:v>52.759973356505739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3450,34 +3451,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>39.831244067699942</c:v>
+                  <c:v>47.542644044916102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.032916946988195</c:v>
+                  <c:v>12.863490198194921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.446239454073492</c:v>
+                  <c:v>49.270380401065552</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.4874984834312</c:v>
+                  <c:v>74.547507517987711</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.906713654979818</c:v>
+                  <c:v>16.055277363117128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.023841619769144</c:v>
+                  <c:v>43.978325808100429</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.115853852037574</c:v>
+                  <c:v>87.962366104766602</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>85.869551871631558</c:v>
+                  <c:v>81.686762313509703</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.820745199543033</c:v>
+                  <c:v>43.94578124933151</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.465394849846035</c:v>
+                  <c:v>42.147464999010346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3489,34 +3490,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>71.349281071733856</c:v>
+                  <c:v>52.759973356505739</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.863278966607893</c:v>
+                  <c:v>17.448440558505887</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.14964875298768</c:v>
+                  <c:v>9.6202749592102919</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.461281415269497</c:v>
+                  <c:v>33.69061697722158</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.253448848267382</c:v>
+                  <c:v>88.435372412676173</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.754966426484962</c:v>
+                  <c:v>65.249452573987099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.394408404230759</c:v>
+                  <c:v>41.320409808164115</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.708754064754743</c:v>
+                  <c:v>31.842765617872281</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62.304368426893433</c:v>
+                  <c:v>86.312640874198763</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60.760563622769837</c:v>
+                  <c:v>73.320052861658041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3774,34 +3775,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>37.4441373568473</c:v>
+                  <c:v>45.375568675443766</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.799487706544298</c:v>
+                  <c:v>47.173884925764931</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90.848294378632829</c:v>
+                  <c:v>84.914865989943124</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.094596359038839</c:v>
+                  <c:v>91.190469781200022</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.002584126770415</c:v>
+                  <c:v>47.206429484533849</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65.885456161981082</c:v>
+                  <c:v>19.283381039550548</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.466240990432464</c:v>
+                  <c:v>77.775611194421131</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>71.424981961074764</c:v>
+                  <c:v>52.498484077498972</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95.011659453989466</c:v>
+                  <c:v>16.091593874628341</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.809986574701206</c:v>
+                  <c:v>50.770747721349522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3813,34 +3814,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>66.534260760056199</c:v>
+                  <c:v>75.674217232094719</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.078065564179795</c:v>
+                  <c:v>88.666805244635441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.482451202041105</c:v>
+                  <c:v>34.196929988308959</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.168105541517122</c:v>
+                  <c:v>43.674574178600793</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.528663563771325</c:v>
+                  <c:v>67.603616944423777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.027145985553744</c:v>
+                  <c:v>90.789536783112851</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.234978552555859</c:v>
+                  <c:v>36.044781347658258</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65.923345890274049</c:v>
+                  <c:v>11.97443932964697</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51.636976103894256</c:v>
+                  <c:v>19.802604928942564</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77.122978209020218</c:v>
+                  <c:v>55.114137726942417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3895,34 +3896,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>27.486652342844788</c:v>
+                  <c:v>38.919361322576925</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.84200269254179</c:v>
+                  <c:v>40.71767757289809</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80.890809364630314</c:v>
+                  <c:v>78.458658637076283</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.137111345036331</c:v>
+                  <c:v>84.734262428333182</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.0450991127679</c:v>
+                  <c:v>40.750222131667009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.927971147978575</c:v>
+                  <c:v>12.827173686683707</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.5087559764299563</c:v>
+                  <c:v>71.319403841554291</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.467496947072242</c:v>
+                  <c:v>46.042276724632131</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85.054174439986951</c:v>
+                  <c:v>9.6353865217615002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.852501560698698</c:v>
+                  <c:v>44.314540368482682</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3934,34 +3935,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>53.586866485483469</c:v>
+                  <c:v>70.021794887775954</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.130671289607065</c:v>
+                  <c:v>84.455318934770773</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.535056927468375</c:v>
+                  <c:v>30.544507643990201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.220711266944392</c:v>
+                  <c:v>40.022151834282035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.581269289198595</c:v>
+                  <c:v>61.951194600105012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.079751710981014</c:v>
+                  <c:v>83.137114438794086</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.287584277983129</c:v>
+                  <c:v>32.392359003339507</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.975951615701312</c:v>
+                  <c:v>8.3220169853282115</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.689581829321526</c:v>
+                  <c:v>16.150182584623806</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>64.175583934447502</c:v>
+                  <c:v>49.461715382623659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4027,34 +4028,34 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>22.507909835843524</c:v>
+                        <c:v>35.691257646143505</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>19.863260185540526</c:v>
+                        <c:v>37.48957389646467</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>75.912066857629043</c:v>
+                        <c:v>75.230554960642863</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>11.158368838035065</c:v>
+                        <c:v>81.506158751899761</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>50.066356605766636</c:v>
+                        <c:v>37.522118455233588</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>50.94922864097731</c:v>
+                        <c:v>9.5990700102502871</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>3.5300134694286918</c:v>
+                        <c:v>68.09130016512087</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>56.488754440070977</c:v>
+                        <c:v>42.814173048198711</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>80.07543193298568</c:v>
+                        <c:v>6.4072828453280808</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>29.873759053697437</c:v>
+                        <c:v>41.086436692049261</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4072,34 +4073,34 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>47.813169348197107</c:v>
+                        <c:v>67.667630517339276</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>49.356974152320703</c:v>
+                        <c:v>82.101154564334095</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>12.761359790182011</c:v>
+                        <c:v>28.190343273553523</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>30.447014129658029</c:v>
+                        <c:v>37.667987463845357</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>41.807572151912233</c:v>
+                        <c:v>59.597030229668334</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>33.306054573694652</c:v>
+                        <c:v>80.782950068357408</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>28.513887140696763</c:v>
+                        <c:v>30.038194632902826</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>47.20225447841495</c:v>
+                        <c:v>5.967852614891533</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>34.915884692035164</c:v>
+                        <c:v>13.796018214187129</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>58.401886797161133</c:v>
+                        <c:v>47.107551012186981</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4154,34 +4155,34 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>32.465394849846035</c:v>
+                        <c:v>42.147464999010346</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>29.820745199543033</c:v>
+                        <c:v>43.94578124933151</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>85.869551871631558</c:v>
+                        <c:v>81.686762313509703</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>21.115853852037574</c:v>
+                        <c:v>87.962366104766602</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>60.023841619769144</c:v>
+                        <c:v>43.978325808100429</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>60.906713654979818</c:v>
+                        <c:v>16.055277363117128</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>13.4874984834312</c:v>
+                        <c:v>74.547507517987711</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>66.446239454073492</c:v>
+                        <c:v>49.270380401065552</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>90.032916946988195</c:v>
+                        <c:v>12.863490198194921</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>39.831244067699942</c:v>
+                        <c:v>47.542644044916102</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4199,34 +4200,34 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>60.760563622769837</c:v>
+                        <c:v>73.320052861658041</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>62.304368426893433</c:v>
+                        <c:v>86.312640874198763</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>21.708754064754743</c:v>
+                        <c:v>31.842765617872281</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>41.394408404230759</c:v>
+                        <c:v>41.320409808164115</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>52.754966426484962</c:v>
+                        <c:v>65.249452573987099</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>44.253448848267382</c:v>
+                        <c:v>88.435372412676173</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>39.461281415269497</c:v>
+                        <c:v>33.69061697722158</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>60.14964875298768</c:v>
+                        <c:v>9.6202749592102919</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>45.863278966607893</c:v>
+                        <c:v>17.448440558505887</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>71.349281071733856</c:v>
+                        <c:v>52.759973356505739</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4477,34 +4478,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>32.465394849846035</c:v>
+                  <c:v>42.147464999010346</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.820745199543033</c:v>
+                  <c:v>43.94578124933151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.869551871631558</c:v>
+                  <c:v>81.686762313509703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.115853852037574</c:v>
+                  <c:v>87.962366104766602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.023841619769144</c:v>
+                  <c:v>43.978325808100429</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.906713654979818</c:v>
+                  <c:v>16.055277363117128</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.4874984834312</c:v>
+                  <c:v>74.547507517987711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66.446239454073492</c:v>
+                  <c:v>49.270380401065552</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.032916946988195</c:v>
+                  <c:v>12.863490198194921</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.831244067699942</c:v>
+                  <c:v>47.542644044916102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4516,34 +4517,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60.760563622769837</c:v>
+                  <c:v>73.320052861658041</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.304368426893433</c:v>
+                  <c:v>86.312640874198763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.708754064754743</c:v>
+                  <c:v>31.842765617872281</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.394408404230759</c:v>
+                  <c:v>41.320409808164115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.754966426484962</c:v>
+                  <c:v>65.249452573987099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.253448848267382</c:v>
+                  <c:v>88.435372412676173</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.461281415269497</c:v>
+                  <c:v>33.69061697722158</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.14964875298768</c:v>
+                  <c:v>9.6202749592102919</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45.863278966607893</c:v>
+                  <c:v>17.448440558505887</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71.349281071733856</c:v>
+                  <c:v>52.759973356505739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4598,34 +4599,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>49.154881329334671</c:v>
+                  <c:v>45.983043525339681</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.027416651476216</c:v>
+                  <c:v>46.90297041573929</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.728811554952415</c:v>
+                  <c:v>66.209331766140934</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.607865361846791</c:v>
+                  <c:v>69.419610647867046</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.483120984596837</c:v>
+                  <c:v>46.919618552429583</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.525672934548119</c:v>
+                  <c:v>32.635610874756949</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.240200079778958</c:v>
+                  <c:v>62.557253071616501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.79266250399418</c:v>
+                  <c:v>49.626763819376876</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51.92947404651408</c:v>
+                  <c:v>31.002855323045807</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49.509894552957746</c:v>
+                  <c:v>48.742942003687304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4637,34 +4638,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>50.518628913888321</c:v>
+                  <c:v>61.929349862210366</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.593035965125296</c:v>
+                  <c:v>68.575695345928921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.636441485193615</c:v>
+                  <c:v>40.711684799364718</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.585234679228499</c:v>
+                  <c:v>45.559964264521049</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.132781636320914</c:v>
+                  <c:v>57.800842306896143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.723032390597062</c:v>
+                  <c:v>69.661576554529432</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.492063393240123</c:v>
+                  <c:v>41.656951325551816</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.48918453471817</c:v>
+                  <c:v>29.343791791165415</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.800621676352776</c:v>
+                  <c:v>33.348282122611316</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51.02897532533521</c:v>
+                  <c:v>51.411861627220816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4922,34 +4923,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>32.465394849846035</c:v>
+                  <c:v>42.147464999010346</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.820745199543033</c:v>
+                  <c:v>43.94578124933151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.869551871631558</c:v>
+                  <c:v>81.686762313509703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.115853852037574</c:v>
+                  <c:v>87.962366104766602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.023841619769144</c:v>
+                  <c:v>43.978325808100429</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.906713654979818</c:v>
+                  <c:v>16.055277363117128</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.4874984834312</c:v>
+                  <c:v>74.547507517987711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66.446239454073492</c:v>
+                  <c:v>49.270380401065552</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.032916946988195</c:v>
+                  <c:v>12.863490198194921</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.831244067699942</c:v>
+                  <c:v>47.542644044916102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4961,34 +4962,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60.760563622769837</c:v>
+                  <c:v>73.320052861658041</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.304368426893433</c:v>
+                  <c:v>86.312640874198763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.708754064754743</c:v>
+                  <c:v>31.842765617872281</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.394408404230759</c:v>
+                  <c:v>41.320409808164115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.754966426484962</c:v>
+                  <c:v>65.249452573987099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.253448848267382</c:v>
+                  <c:v>88.435372412676173</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.461281415269497</c:v>
+                  <c:v>33.69061697722158</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.14964875298768</c:v>
+                  <c:v>9.6202749592102919</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45.863278966607893</c:v>
+                  <c:v>17.448440558505887</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71.349281071733856</c:v>
+                  <c:v>52.759973356505739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5043,34 +5044,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>32.465394849846035</c:v>
+                  <c:v>42.147464999010346</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.820745199543033</c:v>
+                  <c:v>43.94578124933151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.869551871631558</c:v>
+                  <c:v>81.686762313509703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.115853852037574</c:v>
+                  <c:v>87.962366104766602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.023841619769144</c:v>
+                  <c:v>43.978325808100429</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.906713654979818</c:v>
+                  <c:v>16.055277363117128</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.4874984834312</c:v>
+                  <c:v>74.547507517987711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66.446239454073492</c:v>
+                  <c:v>49.270380401065552</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.032916946988195</c:v>
+                  <c:v>12.863490198194921</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.831244067699942</c:v>
+                  <c:v>47.542644044916102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5082,34 +5083,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60.760563622769837</c:v>
+                  <c:v>73.320052861658041</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.304368426893433</c:v>
+                  <c:v>86.312640874198763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.708754064754743</c:v>
+                  <c:v>31.842765617872281</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.394408404230759</c:v>
+                  <c:v>41.320409808164115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.754966426484962</c:v>
+                  <c:v>65.249452573987099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.253448848267382</c:v>
+                  <c:v>88.435372412676173</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.461281415269497</c:v>
+                  <c:v>33.69061697722158</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.14964875298768</c:v>
+                  <c:v>9.6202749592102919</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45.863278966607893</c:v>
+                  <c:v>17.448440558505887</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71.349281071733856</c:v>
+                  <c:v>52.759973356505739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13719,8 +13720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView tabSelected="1" topLeftCell="J50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z128" sqref="Z128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13754,181 +13755,181 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f ca="1">RAND()*85</f>
-        <v>22.507909835843524</v>
+        <v>35.691257646143505</v>
       </c>
       <c r="B3" s="1">
         <f ca="1">RAND()*85</f>
-        <v>51.813169348197107</v>
+        <v>69.667630517339276</v>
       </c>
       <c r="D3" s="1">
         <f ca="1">RAND()*85</f>
-        <v>43.798659542590798</v>
+        <v>3.4870656128521564</v>
       </c>
       <c r="E3" s="1">
         <f ca="1">RAND()*85</f>
-        <v>46.791902497065735</v>
+        <v>63.318542552317645</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:E12" ca="1" si="0">RAND()*85</f>
-        <v>19.863260185540526</v>
+        <v>37.48957389646467</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>53.356974152320703</v>
+        <v>82.660218529879998</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>62.812040763641839</v>
+        <v>45.077190216002492</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>42.401015943745051</v>
+        <v>17.783462252575521</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>75.912066857629043</v>
+        <v>75.230554960642863</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>12.761359790182011</v>
+        <v>28.190343273553523</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>82.615757160127586</v>
+        <v>58.449061665546807</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>79.988621807677077</v>
+        <v>25.329460478256678</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>11.158368838035065</v>
+        <v>81.506158751899761</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>32.447014129658029</v>
+        <v>37.667987463845357</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>16.762300809572594</v>
+        <v>79.801698436538544</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>64.408619155224017</v>
+        <v>31.749453930791624</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>50.066356605766636</v>
+        <v>37.522118455233588</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43.807572151912233</v>
+        <v>61.597030229668334</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6212783008893243</v>
+        <v>41.978945257420946</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>16.866598604953477</v>
+        <v>17.390074506970681</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>50.94922864097731</v>
+        <v>9.5990700102502871</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>35.306054573694652</v>
+        <v>84.782950068357408</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>75.982541219785404</v>
+        <v>18.0409442262985</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6271067212760655</v>
+        <v>28.088108816164752</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5300134694286918</v>
+        <v>68.09130016512087</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>30.513887140696763</v>
+        <v>30.038194632902826</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>80.997402354952953</v>
+        <v>34.834469051875033</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>64.632355980568846</v>
+        <v>30.102067106033807</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>56.488754440070977</v>
+        <v>42.814173048198711</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>51.20225447841495</v>
+        <v>5.967852614891533</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>51.179144890274401</v>
+        <v>46.500860179199613</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>81.408013403223023</v>
+        <v>61.993841988595456</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>80.07543193298568</v>
+        <v>6.4072828453280808</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>36.915884692035164</v>
+        <v>13.796018214187129</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>25.658003812064301</v>
+        <v>70.87687004625792</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>31.307606551948101</v>
+        <v>32.589240454838169</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>29.873759053697437</v>
+        <v>41.086436692049261</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>62.401886797161133</v>
+        <v>49.107551012186981</v>
       </c>
       <c r="D12" s="1">
         <f ca="1">RAND()*85</f>
-        <v>54.433630550210488</v>
+        <v>10.635101937473861</v>
       </c>
       <c r="E12" s="1">
         <f ca="1">RAND()*85</f>
-        <v>75.950453378961683</v>
+        <v>37.252600010988282</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -13955,20 +13956,20 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f ca="1">A3+F$17</f>
-        <v>32.465394849846035</v>
+        <f ca="1">A3+F17</f>
+        <v>42.147464999010346</v>
       </c>
       <c r="B16" s="1">
-        <f ca="1">B3+G$17</f>
-        <v>60.760563622769837</v>
+        <f ca="1">B3+G17</f>
+        <v>73.320052861658041</v>
       </c>
       <c r="D16" s="1">
-        <f ca="1">D3+$F$19</f>
-        <v>43.712583602179834</v>
+        <f ca="1">D3+F19</f>
+        <v>12.518844949905571</v>
       </c>
       <c r="E16" s="1">
-        <f ca="1">E3+$G$19</f>
-        <v>46.253673092601424</v>
+        <f ca="1">E3+G19</f>
+        <v>78.758857342564397</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -13979,46 +13980,46 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" ref="A17:B25" ca="1" si="1">A4+F$17</f>
-        <v>29.820745199543033</v>
+        <f ca="1">A4+F17</f>
+        <v>43.94578124933151</v>
       </c>
       <c r="B17" s="1">
-        <f ca="1">B4+G$17</f>
-        <v>62.304368426893433</v>
+        <f ca="1">B4+G17</f>
+        <v>86.312640874198763</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" ref="D17:D24" ca="1" si="2">D4+$F$19</f>
-        <v>62.725964823230875</v>
+        <f ca="1">D4+F19</f>
+        <v>54.108969553055907</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" ref="E17:E25" ca="1" si="3">E4+$G$19</f>
-        <v>41.862786539280741</v>
+        <f ca="1">E4+G19</f>
+        <v>33.223777042822263</v>
       </c>
       <c r="F17" s="1">
         <f ca="1">50-AVERAGE(A3:A12)</f>
-        <v>9.9574850140025077</v>
+        <v>6.4562073528668407</v>
       </c>
       <c r="G17" s="1">
         <f ca="1">50-AVERAGE(B3:B12)</f>
-        <v>8.94739427457273</v>
+        <v>3.652422344318758</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>85.869551871631558</v>
+        <f ca="1">A5+F17</f>
+        <v>81.686762313509703</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>21.708754064754743</v>
+        <f ca="1">B5+G17</f>
+        <v>31.842765617872281</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>82.529681219716622</v>
+        <f ca="1">D5+F19</f>
+        <v>67.480841002600215</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>79.45039240321276</v>
+        <f ca="1">E5+G19</f>
+        <v>40.769775268503423</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -14029,136 +14030,136 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>21.115853852037574</v>
+        <f ca="1">A6+F17</f>
+        <v>87.962366104766602</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>41.394408404230759</v>
+        <f ca="1">B6+G17</f>
+        <v>41.320409808164115</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>16.676224869161629</v>
+        <f ca="1">D6+F19</f>
+        <v>88.833477773591966</v>
       </c>
       <c r="E19" s="1">
-        <f ca="1">E6+$G$19</f>
-        <v>63.870389750759706</v>
+        <f ca="1">E6+G19</f>
+        <v>47.189768721038369</v>
       </c>
       <c r="F19" s="1">
         <f ca="1">50-AVERAGE(D3:D12)</f>
-        <v>-8.6075940410964336E-2</v>
+        <v>9.0317793370534147</v>
       </c>
       <c r="G19" s="1">
         <f ca="1">50-AVERAGE(E3:E12)</f>
-        <v>-0.53822940446431033</v>
+        <v>15.440314790246745</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>60.023841619769144</v>
+        <f ca="1">A7+F17</f>
+        <v>43.978325808100429</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>52.754966426484962</v>
+        <f ca="1">B7+G17</f>
+        <v>65.249452573987099</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.53520236047836</v>
+        <f ca="1">D7+F19</f>
+        <v>51.010724594474361</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>16.328369200489167</v>
+        <f ca="1">E7+G19</f>
+        <v>32.830389297217422</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>60.906713654979818</v>
+        <f ca="1">A8+F17</f>
+        <v>16.055277363117128</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>44.253448848267382</v>
+        <f ca="1">B8+G17</f>
+        <v>88.435372412676173</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>75.896465279374439</v>
+        <f ca="1">D8+F19</f>
+        <v>27.072723563351914</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0888773168117551</v>
+        <f ca="1">E8+G19</f>
+        <v>43.528423606411494</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.4874984834312</v>
+        <f ca="1">A9+F17</f>
+        <v>74.547507517987711</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>39.461281415269497</v>
+        <f ca="1">B9+G17</f>
+        <v>33.69061697722158</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>80.911326414541989</v>
+        <f ca="1">D9+F19</f>
+        <v>43.866248388928447</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>64.094126576104543</v>
+        <f ca="1">E9+G19</f>
+        <v>45.542381896280553</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>66.446239454073492</v>
+        <f ca="1">A10+F17</f>
+        <v>49.270380401065552</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>60.14964875298768</v>
+        <f ca="1">B10+G17</f>
+        <v>9.6202749592102919</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>51.093068949863437</v>
+        <f ca="1">D10+F19</f>
+        <v>55.532639516253028</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>80.86978399875872</v>
+        <f ca="1">E10+G19</f>
+        <v>77.434156778842208</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>90.032916946988195</v>
-      </c>
-      <c r="B24" s="3">
-        <f ca="1">B11+G$17</f>
-        <v>45.863278966607893</v>
+        <f ca="1">A11+F17</f>
+        <v>12.863490198194921</v>
+      </c>
+      <c r="B24" s="6">
+        <f ca="1">B11+G17</f>
+        <v>17.448440558505887</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>25.571927871653337</v>
+        <f ca="1">D11+F19</f>
+        <v>79.908649383311342</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>30.769377147483791</v>
+        <f ca="1">E11+G19</f>
+        <v>48.029555245084914</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>39.831244067699942</v>
+        <f ca="1">A12+F17</f>
+        <v>47.542644044916102</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>71.349281071733856</v>
+        <f ca="1">B12+G17</f>
+        <v>52.759973356505739</v>
       </c>
       <c r="D25" s="1">
-        <f ca="1">D12+$F$19</f>
-        <v>54.347554609799523</v>
+        <f ca="1">D12+F19</f>
+        <v>19.666881274527277</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>75.41222397449738</v>
+        <f ca="1">E12+G19</f>
+        <v>52.692914801235027</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -14200,20 +14201,20 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f ca="1">$A$3</f>
-        <v>22.507909835843524</v>
+        <f ca="1">A3</f>
+        <v>35.691257646143505</v>
       </c>
       <c r="B29" s="1">
-        <f ca="1">$B$3</f>
-        <v>51.813169348197107</v>
+        <f ca="1">B3</f>
+        <v>69.667630517339276</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" ref="D29:D38" ca="1" si="4">A29+$F$30</f>
-        <v>31.507909835843524</v>
+        <f ca="1">A29+F30</f>
+        <v>47.691257646143505</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" ref="E29:E38" ca="1" si="5">B29+$G$30</f>
-        <v>62.813169348197107</v>
+        <f ca="1">B29+G30</f>
+        <v>82.667630517339276</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>0</v>
@@ -14222,259 +14223,259 @@
         <v>1</v>
       </c>
       <c r="I29" s="1">
-        <f ca="1">A29+F$37</f>
-        <v>27.965394849846032</v>
-      </c>
-      <c r="J29" s="6">
-        <f ca="1">B29+G$37</f>
-        <v>55.26056362276983</v>
+        <f ca="1">A29+F37</f>
+        <v>36.147464999010346</v>
+      </c>
+      <c r="J29" s="7">
+        <f ca="1">B29+G37</f>
+        <v>66.820052861658041</v>
       </c>
       <c r="K29" s="1">
-        <f ca="1">D29+F$37</f>
-        <v>36.965394849846035</v>
-      </c>
-      <c r="L29" s="6">
-        <f ca="1">E29+G$37</f>
-        <v>66.260563622769837</v>
+        <f ca="1">D29+F37</f>
+        <v>48.147464999010346</v>
+      </c>
+      <c r="L29" s="7">
+        <f ca="1">E29+G37</f>
+        <v>79.820052861658041</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f ca="1">$A$4</f>
-        <v>19.863260185540526</v>
+        <f ca="1">A4</f>
+        <v>37.48957389646467</v>
       </c>
       <c r="B30" s="1">
-        <f ca="1">$B$4</f>
-        <v>53.356974152320703</v>
+        <f ca="1">B4</f>
+        <v>82.660218529879998</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>28.863260185540526</v>
+        <f ca="1">A30+F30</f>
+        <v>49.48957389646467</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>64.356974152320703</v>
+        <f ca="1">B30+G30</f>
+        <v>95.660218529879998</v>
       </c>
       <c r="F30" s="1">
         <f ca="1">(RANDBETWEEN(2,20))</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G30" s="1">
         <f ca="1">(RANDBETWEEN(2,20))</f>
-        <v>11</v>
-      </c>
-      <c r="I30" s="6">
-        <f t="shared" ref="I30:J38" ca="1" si="6">A30+F$37</f>
-        <v>25.320745199543033</v>
-      </c>
-      <c r="J30" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>56.804368426893426</v>
-      </c>
-      <c r="K30" s="6">
-        <f t="shared" ref="K30:L38" ca="1" si="7">D30+F$37</f>
-        <v>34.320745199543033</v>
-      </c>
-      <c r="L30" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>67.804368426893433</v>
+        <v>13</v>
+      </c>
+      <c r="I30" s="7">
+        <f ca="1">A30+F37</f>
+        <v>37.94578124933151</v>
+      </c>
+      <c r="J30" s="7">
+        <f ca="1">B30+G37</f>
+        <v>79.812640874198763</v>
+      </c>
+      <c r="K30" s="7">
+        <f ca="1">D30+F37</f>
+        <v>49.94578124933151</v>
+      </c>
+      <c r="L30" s="7">
+        <f ca="1">E30+G37</f>
+        <v>92.812640874198763</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <f ca="1">$A$5</f>
-        <v>75.912066857629043</v>
+        <f ca="1">A5</f>
+        <v>75.230554960642863</v>
       </c>
       <c r="B31" s="1">
-        <f ca="1">$B$5</f>
-        <v>12.761359790182011</v>
+        <f ca="1">B5</f>
+        <v>28.190343273553523</v>
       </c>
       <c r="D31" s="1">
-        <f ca="1">A31+$F$30</f>
-        <v>84.912066857629043</v>
+        <f ca="1">A31+F30</f>
+        <v>87.230554960642863</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>23.761359790182013</v>
-      </c>
-      <c r="I31" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>81.369551871631558</v>
-      </c>
-      <c r="J31" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>16.208754064754736</v>
-      </c>
-      <c r="K31" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>90.369551871631558</v>
-      </c>
-      <c r="L31" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>27.208754064754736</v>
+        <f ca="1">B31+G30</f>
+        <v>41.190343273553523</v>
+      </c>
+      <c r="I31" s="7">
+        <f ca="1">A31+F37</f>
+        <v>75.686762313509703</v>
+      </c>
+      <c r="J31" s="7">
+        <f ca="1">B31+G37</f>
+        <v>25.342765617872288</v>
+      </c>
+      <c r="K31" s="7">
+        <f ca="1">D31+F37</f>
+        <v>87.686762313509703</v>
+      </c>
+      <c r="L31" s="7">
+        <f ca="1">E31+G37</f>
+        <v>38.342765617872288</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f ca="1">$A$6</f>
-        <v>11.158368838035065</v>
+        <f ca="1">A6</f>
+        <v>81.506158751899761</v>
       </c>
       <c r="B32" s="1">
-        <f ca="1">$B$6</f>
-        <v>32.447014129658029</v>
+        <f ca="1">B6</f>
+        <v>37.667987463845357</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>20.158368838035067</v>
+        <f ca="1">A32+F30</f>
+        <v>93.506158751899761</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>43.447014129658029</v>
+        <f ca="1">B32+G30</f>
+        <v>50.667987463845357</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>16.615853852037574</v>
-      </c>
-      <c r="J32" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>35.894408404230752</v>
-      </c>
-      <c r="K32" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>25.615853852037574</v>
-      </c>
-      <c r="L32" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>46.894408404230752</v>
+      <c r="I32" s="7">
+        <f ca="1">A32+F37</f>
+        <v>81.962366104766602</v>
+      </c>
+      <c r="J32" s="7">
+        <f ca="1">B32+G37</f>
+        <v>34.820409808164122</v>
+      </c>
+      <c r="K32" s="7">
+        <f ca="1">D32+F37</f>
+        <v>93.962366104766602</v>
+      </c>
+      <c r="L32" s="7">
+        <f ca="1">E32+G37</f>
+        <v>47.820409808164122</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f ca="1">$A$7</f>
-        <v>50.066356605766636</v>
+        <f ca="1">A7</f>
+        <v>37.522118455233588</v>
       </c>
       <c r="B33" s="1">
-        <f ca="1">$B$7</f>
-        <v>43.807572151912233</v>
+        <f ca="1">B7</f>
+        <v>61.597030229668334</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>59.066356605766636</v>
+        <f ca="1">A33+F30</f>
+        <v>49.522118455233588</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>54.807572151912233</v>
+        <f ca="1">B33+G30</f>
+        <v>74.597030229668334</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>55.523841619769144</v>
-      </c>
-      <c r="J33" s="6">
-        <f ca="1">B33+G$37</f>
-        <v>47.254966426484955</v>
-      </c>
-      <c r="K33" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>64.523841619769144</v>
-      </c>
-      <c r="L33" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>58.254966426484955</v>
+      <c r="I33" s="7">
+        <f ca="1">A33+F37</f>
+        <v>37.978325808100429</v>
+      </c>
+      <c r="J33" s="7">
+        <f ca="1">B33+G37</f>
+        <v>58.749452573987099</v>
+      </c>
+      <c r="K33" s="7">
+        <f ca="1">D33+F37</f>
+        <v>49.978325808100429</v>
+      </c>
+      <c r="L33" s="7">
+        <f ca="1">E33+G37</f>
+        <v>71.749452573987099</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f ca="1">$A$8</f>
-        <v>50.94922864097731</v>
+        <f ca="1">A8</f>
+        <v>9.5990700102502871</v>
       </c>
       <c r="B34" s="1">
-        <f ca="1">$B$8</f>
-        <v>35.306054573694652</v>
+        <f ca="1">B8</f>
+        <v>84.782950068357408</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>59.94922864097731</v>
+        <f ca="1">A34+F30</f>
+        <v>21.599070010250287</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>46.306054573694652</v>
-      </c>
-      <c r="I34" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>56.406713654979818</v>
-      </c>
-      <c r="J34" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>38.753448848267375</v>
-      </c>
-      <c r="K34" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>65.406713654979825</v>
-      </c>
-      <c r="L34" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>49.753448848267375</v>
+        <f ca="1">B34+G30</f>
+        <v>97.782950068357408</v>
+      </c>
+      <c r="I34" s="7">
+        <f ca="1">A34+F37</f>
+        <v>10.055277363117128</v>
+      </c>
+      <c r="J34" s="7">
+        <f ca="1">B34+G37</f>
+        <v>81.935372412676173</v>
+      </c>
+      <c r="K34" s="7">
+        <f ca="1">D34+F37</f>
+        <v>22.055277363117128</v>
+      </c>
+      <c r="L34" s="7">
+        <f ca="1">E34+G37</f>
+        <v>94.935372412676173</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f ca="1">$A$9</f>
-        <v>3.5300134694286918</v>
+        <f ca="1">A9</f>
+        <v>68.09130016512087</v>
       </c>
       <c r="B35" s="1">
-        <f ca="1">$B$9</f>
-        <v>30.513887140696763</v>
+        <f ca="1">B9</f>
+        <v>30.038194632902826</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>12.530013469428692</v>
+        <f ca="1">A35+F30</f>
+        <v>80.09130016512087</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>41.513887140696767</v>
+        <f ca="1">B35+G30</f>
+        <v>43.03819463290283</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I35" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.9874984834311995</v>
-      </c>
-      <c r="J35" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>33.961281415269482</v>
-      </c>
-      <c r="K35" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>17.9874984834312</v>
-      </c>
-      <c r="L35" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>44.96128141526949</v>
+      <c r="I35" s="7">
+        <f ca="1">A35+F37</f>
+        <v>68.547507517987711</v>
+      </c>
+      <c r="J35" s="7">
+        <f ca="1">B35+G37</f>
+        <v>27.190616977221591</v>
+      </c>
+      <c r="K35" s="7">
+        <f ca="1">D35+F37</f>
+        <v>80.547507517987711</v>
+      </c>
+      <c r="L35" s="7">
+        <f ca="1">E35+G37</f>
+        <v>40.190616977221595</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f ca="1">$A$10</f>
-        <v>56.488754440070977</v>
+        <f ca="1">A10</f>
+        <v>42.814173048198711</v>
       </c>
       <c r="B36" s="1">
-        <f ca="1">$B$10</f>
-        <v>51.20225447841495</v>
+        <f ca="1">B10</f>
+        <v>5.967852614891533</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>65.488754440070977</v>
+        <f ca="1">A36+F30</f>
+        <v>54.814173048198711</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>62.20225447841495</v>
+        <f ca="1">B36+G30</f>
+        <v>18.967852614891534</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>0</v>
@@ -14482,98 +14483,98 @@
       <c r="G36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I36" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>61.946239454073485</v>
-      </c>
-      <c r="J36" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>54.649648752987673</v>
-      </c>
-      <c r="K36" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>70.946239454073492</v>
-      </c>
-      <c r="L36" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>65.649648752987673</v>
+      <c r="I36" s="7">
+        <f ca="1">A36+F37</f>
+        <v>43.270380401065552</v>
+      </c>
+      <c r="J36" s="7">
+        <f ca="1">B36+G37</f>
+        <v>3.1202749592102981</v>
+      </c>
+      <c r="K36" s="7">
+        <f ca="1">D36+F37</f>
+        <v>55.270380401065552</v>
+      </c>
+      <c r="L36" s="7">
+        <f ca="1">E36+G37</f>
+        <v>16.120274959210299</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f ca="1">$A$11</f>
-        <v>80.07543193298568</v>
+        <f ca="1">A11</f>
+        <v>6.4072828453280808</v>
       </c>
       <c r="B37" s="1">
-        <f ca="1">$B$11</f>
-        <v>36.915884692035164</v>
+        <f ca="1">B11</f>
+        <v>13.796018214187129</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>89.07543193298568</v>
+        <f ca="1">A37+F30</f>
+        <v>18.40728284532808</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>47.915884692035164</v>
+        <f ca="1">B37+G30</f>
+        <v>26.796018214187129</v>
       </c>
       <c r="F37" s="1">
         <f ca="1">50-AVERAGE(A29:A38,D29:D38)</f>
-        <v>5.4574850140025077</v>
+        <v>0.45620735286684067</v>
       </c>
       <c r="G37" s="1">
         <f ca="1">50-AVERAGE(E29:E38,B29:B38)</f>
-        <v>3.4473942745727228</v>
-      </c>
-      <c r="I37" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>85.532916946988195</v>
-      </c>
-      <c r="J37" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>40.363278966607886</v>
-      </c>
-      <c r="K37" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>94.532916946988195</v>
-      </c>
-      <c r="L37" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>51.363278966607886</v>
+        <v>-2.8475776556812349</v>
+      </c>
+      <c r="I37" s="7">
+        <f ca="1">A37+F37</f>
+        <v>6.8634901981949215</v>
+      </c>
+      <c r="J37" s="7">
+        <f ca="1">B37+G37</f>
+        <v>10.948440558505894</v>
+      </c>
+      <c r="K37" s="7">
+        <f ca="1">D37+F37</f>
+        <v>18.863490198194921</v>
+      </c>
+      <c r="L37" s="7">
+        <f ca="1">E37+G37</f>
+        <v>23.948440558505894</v>
       </c>
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f ca="1">$A$12</f>
-        <v>29.873759053697437</v>
+        <f ca="1">A12</f>
+        <v>41.086436692049261</v>
       </c>
       <c r="B38" s="1">
-        <f ca="1">$B$12</f>
-        <v>62.401886797161133</v>
+        <f ca="1">B12</f>
+        <v>49.107551012186981</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>38.873759053697441</v>
+        <f ca="1">A38+F30</f>
+        <v>53.086436692049261</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>73.401886797161126</v>
-      </c>
-      <c r="I38" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>35.331244067699942</v>
-      </c>
-      <c r="J38" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>65.849281071733856</v>
-      </c>
-      <c r="K38" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>44.331244067699949</v>
-      </c>
-      <c r="L38" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>76.849281071733856</v>
+        <f ca="1">B38+G30</f>
+        <v>62.107551012186981</v>
+      </c>
+      <c r="I38" s="7">
+        <f ca="1">A38+F37</f>
+        <v>41.542644044916102</v>
+      </c>
+      <c r="J38" s="7">
+        <f ca="1">B38+G37</f>
+        <v>46.259973356505746</v>
+      </c>
+      <c r="K38" s="7">
+        <f ca="1">D38+F37</f>
+        <v>53.542644044916102</v>
+      </c>
+      <c r="L38" s="7">
+        <f ca="1">E38+G37</f>
+        <v>59.259973356505746</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -14610,137 +14611,137 @@
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f ca="1">A16</f>
-        <v>32.465394849846035</v>
+        <v>42.147464999010346</v>
       </c>
       <c r="B42" s="1">
         <f ca="1">B16</f>
-        <v>60.760563622769837</v>
+        <v>73.320052861658041</v>
       </c>
       <c r="D42" s="1">
-        <f ca="1">H42+F$47</f>
-        <v>69.914510629192861</v>
+        <f ca="1">H42+F47</f>
+        <v>74.605254998657216</v>
       </c>
       <c r="E42" s="1">
-        <f ca="1">I42+G$47</f>
-        <v>44.836244230092973</v>
+        <f ca="1">I42+G47</f>
+        <v>50.261911938152522</v>
       </c>
       <c r="F42" s="1">
         <f ca="1">(F44*PI())/180</f>
-        <v>2.8448866807507569</v>
+        <v>1.8849555921538759</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" ref="H42:H51" ca="1" si="8">(($A42)*COS($F$42))+(($B42)*SIN($F$42))</f>
-        <v>-13.282141932822057</v>
+        <f ca="1">((A42)*COS(F42))+((B42)*SIN(F42))</f>
+        <v>56.707231094667534</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" ref="I42:I51" ca="1" si="9">(($B42)*COS($F$42))-(($A42)*SIN($F$42))</f>
-        <v>-67.597578804195649</v>
+        <f ca="1">((B42)*COS(F42))-((A42)*SIN(F42))</f>
+        <v>-62.741763595352523</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <f t="shared" ref="A43:A51" ca="1" si="10">A17</f>
-        <v>29.820745199543033</v>
+        <f t="shared" ref="A43:A51" ca="1" si="1">A17</f>
+        <v>43.94578124933151</v>
       </c>
       <c r="B43" s="1">
-        <f t="shared" ref="B43:B51" ca="1" si="11">B17</f>
-        <v>62.304368426893433</v>
+        <f t="shared" ref="B43:B51" ca="1" si="2">B17</f>
+        <v>86.312640874198763</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" ref="D43:E51" ca="1" si="12">H43+F$47</f>
-        <v>72.894966509974367</v>
+        <f ca="1">H43+F47</f>
+        <v>86.406230208912518</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>44.133117080284478</v>
+        <f ca="1">I43+G47</f>
+        <v>44.536681053137798</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>-10.301686052040552</v>
+        <f ca="1">((A43)*COS(F42))+((B43)*SIN(F42))</f>
+        <v>68.508206304922822</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>-68.300705954004144</v>
+        <f ca="1">((B43)*COS(F42))-((A43)*SIN(F42))</f>
+        <v>-68.466994480367248</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>85.869551871631558</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>81.686762313509703</v>
       </c>
       <c r="B44" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>21.708754064754743</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>31.842765617872281</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>7.4262171480780808</v>
+        <f ca="1">H44+F47</f>
+        <v>22.939695871384906</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>66.567811011645375</v>
+        <f ca="1">I44+G47</f>
+        <v>25.474992216367454</v>
       </c>
       <c r="F44" s="1">
         <f ca="1">RANDBETWEEN(5,355)</f>
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>-75.770435413936838</v>
+        <f ca="1">((A44)*COS(F42))+((B44)*SIN(F42))</f>
+        <v>5.0416719673952173</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>-45.866012022643254</v>
+        <f ca="1">((B44)*COS(F42))-((A44)*SIN(F42))</f>
+        <v>-87.528683317137592</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>21.115853852037574</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>87.962366104766602</v>
       </c>
       <c r="B45" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>41.394408404230759</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>41.320409808164115</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>75.106014848225144</v>
+        <f ca="1">H45+F47</f>
+        <v>30.01420291622663</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>66.674475219650105</v>
+        <f ca="1">I45+G47</f>
+        <v>16.577785215566848</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>-8.0906377137897731</v>
+        <f ca="1">((A45)*COS(F42))+((B45)*SIN(F42))</f>
+        <v>12.116179012236941</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>-45.759347814638517</v>
+        <f ca="1">((B45)*COS(F42))-((A45)*SIN(F42))</f>
+        <v>-96.425890317938197</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>60.023841619769144</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43.978325808100429</v>
       </c>
       <c r="B46" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>52.754966426484962</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>65.249452573987099</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>41.219626816559867</v>
+        <f ca="1">H46+F47</f>
+        <v>66.363890900310338</v>
       </c>
       <c r="E46" s="1">
-        <f ca="1">I46+G$47</f>
-        <v>44.434724841591304</v>
+        <f ca="1">I46+G47</f>
+        <v>51.014612478935646</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>0</v>
@@ -14749,150 +14750,150 @@
         <v>1</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>-41.977025745455052</v>
+        <f ca="1">((A46)*COS(F42))+((B46)*SIN(F42))</f>
+        <v>48.465866996320642</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>-67.999098192697318</v>
+        <f ca="1">((B46)*COS(F42))-((A46)*SIN(F42))</f>
+        <v>-61.989063054569399</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>60.906713654979818</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16.055277363117128</v>
       </c>
       <c r="B47" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>44.253448848267382</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>88.435372412676173</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>37.889728903307343</v>
+        <f ca="1">H47+F47</f>
+        <v>97.043707553447433</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>52.306639732557556</v>
+        <f ca="1">I47+G47</f>
+        <v>70.406166396992106</v>
       </c>
       <c r="F47" s="1">
         <f ca="1">50-AVERAGE(H42:H51)</f>
-        <v>83.196652562014918</v>
+        <v>17.898023903989689</v>
       </c>
       <c r="G47" s="1">
         <f ca="1">50-AVERAGE(I42:I51)</f>
-        <v>112.43382303428862</v>
+        <v>113.00367553350505</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>-45.306923658707575</v>
+        <f ca="1">((A47)*COS(F42))+((B47)*SIN(F42))</f>
+        <v>79.145683649457752</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>-60.127183301731066</v>
+        <f ca="1">((B47)*COS(F42))-((A47)*SIN(F42))</f>
+        <v>-42.59750913651294</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>13.4874984834312</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>74.547507517987711</v>
       </c>
       <c r="B48" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>39.461281415269497</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>33.69061697722158</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>81.835855734191441</v>
+        <f ca="1">H48+F47</f>
+        <v>26.903258006828047</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>70.753449016424554</v>
+        <f ca="1">I48+G47</f>
+        <v>31.693809538022293</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>-1.3607968278234797</v>
+        <f ca="1">((A48)*COS(F42))+((B48)*SIN(F42))</f>
+        <v>9.005234102838358</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>-41.680374017864075</v>
+        <f ca="1">((B48)*COS(F42))-((A48)*SIN(F42))</f>
+        <v>-81.309865995482753</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>66.446239454073492</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>49.270380401065552</v>
       </c>
       <c r="B49" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>60.14964875298768</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.6202749592102919</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>37.239853100610617</v>
+        <f ca="1">H49+F47</f>
+        <v>11.822064229250142</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>35.485427560697786</v>
+        <f ca="1">I49+G47</f>
+        <v>63.171930739774893</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>-45.956799461404302</v>
+        <f ca="1">((A49)*COS(F42))+((B49)*SIN(F42))</f>
+        <v>-6.075959674739547</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>-76.948395473590836</v>
+        <f ca="1">((B49)*COS(F42))-((A49)*SIN(F42))</f>
+        <v>-49.831744793730152</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>90.032916946988195</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>12.863490198194921</v>
       </c>
       <c r="B50" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>45.863278966607893</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>17.448440558505887</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>10.50687094802673</v>
+        <f ca="1">H50+F47</f>
+        <v>30.517439918127572</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>42.251473825510502</v>
+        <f ca="1">I50+G47</f>
+        <v>95.377904700293513</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>-72.689781613988188</v>
+        <f ca="1">((A50)*COS(F42))+((B50)*SIN(F42))</f>
+        <v>12.619416014137885</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>-70.18234920877812</v>
+        <f ca="1">((B50)*COS(F42))-((A50)*SIN(F42))</f>
+        <v>-17.625770833211533</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>39.831244067699942</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>47.542644044916102</v>
       </c>
       <c r="B51" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>71.349281071733856</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>52.759973356505739</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>65.966355361833564</v>
+        <f ca="1">H51+F47</f>
+        <v>53.384255396855202</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>32.556637481545323</v>
+        <f ca="1">I51+G47</f>
+        <v>51.484205722756897</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>-17.230297200181351</v>
+        <f ca="1">((A51)*COS(F42))+((B51)*SIN(F42))</f>
+        <v>35.486231492865514</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>-79.877185552743299</v>
+        <f ca="1">((B51)*COS(F42))-((A51)*SIN(F42))</f>
+        <v>-61.519469810748149</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -14918,7 +14919,7 @@
       </c>
       <c r="F54" s="1">
         <f ca="1">RANDBETWEEN(2,8)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>16</v>
@@ -14927,19 +14928,19 @@
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <f ca="1">A16</f>
-        <v>32.465394849846035</v>
+        <v>42.147464999010346</v>
       </c>
       <c r="B55" s="1">
         <f ca="1">B16</f>
-        <v>60.760563622769837</v>
+        <v>73.320052861658041</v>
       </c>
       <c r="D55" s="1">
-        <f ca="1">IF($F$54&lt;$G55,D3,A55)</f>
-        <v>32.465394849846035</v>
+        <f ca="1">IF(F54&lt;G55,D3,A55)</f>
+        <v>42.147464999010346</v>
       </c>
       <c r="E55" s="1">
-        <f ca="1">IF($F$54&lt;$G55,E3,B55)</f>
-        <v>60.760563622769837</v>
+        <f ca="1">IF(F54&lt;G55,E3,B55)</f>
+        <v>73.320052861658041</v>
       </c>
       <c r="G55" s="1">
         <v>1</v>
@@ -14947,20 +14948,20 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <f t="shared" ref="A56:B64" ca="1" si="13">A17</f>
-        <v>29.820745199543033</v>
+        <f t="shared" ref="A56:B64" ca="1" si="3">A17</f>
+        <v>43.94578124933151</v>
       </c>
       <c r="B56" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>62.304368426893433</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>86.312640874198763</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" ref="D56:E64" ca="1" si="14">IF($F$54&lt;$G56,D4,A56)</f>
-        <v>29.820745199543033</v>
+        <f ca="1">IF(F54&lt;G56,D4,A56)</f>
+        <v>43.94578124933151</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>62.304368426893433</v>
+        <f ca="1">IF(F54&lt;G56,E4,B56)</f>
+        <v>86.312640874198763</v>
       </c>
       <c r="G56" s="1">
         <v>2</v>
@@ -14968,20 +14969,20 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>85.869551871631558</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>81.686762313509703</v>
       </c>
       <c r="B57" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>21.708754064754743</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>31.842765617872281</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>85.869551871631558</v>
+        <f ca="1">IF(F54&lt;G57,D5,A57)</f>
+        <v>81.686762313509703</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>21.708754064754743</v>
+        <f ca="1">IF(F54&lt;G57,E5,B57)</f>
+        <v>31.842765617872281</v>
       </c>
       <c r="G57" s="1">
         <v>3</v>
@@ -14989,20 +14990,20 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>21.115853852037574</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>87.962366104766602</v>
       </c>
       <c r="B58" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>41.394408404230759</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>41.320409808164115</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>21.115853852037574</v>
+        <f ca="1">IF(F54&lt;G58,D6,A58)</f>
+        <v>87.962366104766602</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>41.394408404230759</v>
+        <f ca="1">IF(F54&lt;G58,E6,B58)</f>
+        <v>41.320409808164115</v>
       </c>
       <c r="G58" s="1">
         <v>4</v>
@@ -15010,20 +15011,20 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>60.023841619769144</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>43.978325808100429</v>
       </c>
       <c r="B59" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>52.754966426484962</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>65.249452573987099</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>60.023841619769144</v>
+        <f ca="1">IF(F54&lt;G59,D7,A59)</f>
+        <v>43.978325808100429</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>52.754966426484962</v>
+        <f ca="1">IF(F54&lt;G59,E7,B59)</f>
+        <v>65.249452573987099</v>
       </c>
       <c r="G59" s="1">
         <v>5</v>
@@ -15031,20 +15032,20 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>60.906713654979818</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16.055277363117128</v>
       </c>
       <c r="B60" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>44.253448848267382</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>88.435372412676173</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>60.906713654979818</v>
+        <f ca="1">IF(F54&lt;G60,D8,A60)</f>
+        <v>18.0409442262985</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>44.253448848267382</v>
+        <f ca="1">IF(F54&lt;G60,E8,B60)</f>
+        <v>28.088108816164752</v>
       </c>
       <c r="G60" s="1">
         <v>6</v>
@@ -15052,20 +15053,20 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>13.4874984834312</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>74.547507517987711</v>
       </c>
       <c r="B61" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>39.461281415269497</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>33.69061697722158</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>13.4874984834312</v>
+        <f ca="1">IF(F54&lt;G61,D9,A61)</f>
+        <v>34.834469051875033</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>39.461281415269497</v>
+        <f ca="1">IF(F54&lt;G61,E9,B61)</f>
+        <v>30.102067106033807</v>
       </c>
       <c r="G61" s="1">
         <v>7</v>
@@ -15073,20 +15074,20 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>66.446239454073492</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>49.270380401065552</v>
       </c>
       <c r="B62" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>60.14964875298768</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.6202749592102919</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>66.446239454073492</v>
+        <f ca="1">IF(F54&lt;G62,D10,A62)</f>
+        <v>46.500860179199613</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>60.14964875298768</v>
+        <f ca="1">IF(F54&lt;G62,E10,B62)</f>
+        <v>61.993841988595456</v>
       </c>
       <c r="G62" s="1">
         <v>8</v>
@@ -15094,20 +15095,20 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>90.032916946988195</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>12.863490198194921</v>
       </c>
       <c r="B63" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>45.863278966607893</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>17.448440558505887</v>
       </c>
       <c r="D63" s="1">
-        <f ca="1">IF($F$54&lt;$G63,D11,A63)</f>
-        <v>25.658003812064301</v>
+        <f ca="1">IF(F54&lt;G63,D11,A63)</f>
+        <v>70.87687004625792</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>31.307606551948101</v>
+        <f ca="1">IF(F54&lt;G63,E11,B63)</f>
+        <v>32.589240454838169</v>
       </c>
       <c r="G63" s="1">
         <v>9</v>
@@ -15115,20 +15116,20 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>39.831244067699942</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>47.542644044916102</v>
       </c>
       <c r="B64" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>71.349281071733856</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>52.759973356505739</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>54.433630550210488</v>
+        <f ca="1">IF(F54&lt;G64,D12,A64)</f>
+        <v>10.635101937473861</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>75.950453378961683</v>
+        <f ca="1">IF(F54&lt;G64,E12,B64)</f>
+        <v>37.252600010988282</v>
       </c>
       <c r="G64" s="1">
         <v>10</v>
@@ -15155,215 +15156,215 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <f ca="1">$A$16</f>
-        <v>32.465394849846035</v>
+        <f ca="1">A16</f>
+        <v>42.147464999010346</v>
       </c>
       <c r="B68" s="1">
-        <f ca="1">$B$16</f>
-        <v>60.760563622769837</v>
+        <f ca="1">B16</f>
+        <v>73.320052861658041</v>
       </c>
       <c r="D68" s="1">
         <f ca="1">A77</f>
-        <v>39.831244067699942</v>
+        <v>47.542644044916102</v>
       </c>
       <c r="E68" s="1">
         <f ca="1">B77</f>
-        <v>71.349281071733856</v>
+        <v>52.759973356505739</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <f ca="1">$A$17</f>
-        <v>29.820745199543033</v>
+        <f ca="1">A17</f>
+        <v>43.94578124933151</v>
       </c>
       <c r="B69" s="1">
-        <f ca="1">$B$17</f>
-        <v>62.304368426893433</v>
+        <f ca="1">B17</f>
+        <v>86.312640874198763</v>
       </c>
       <c r="D69" s="1">
         <f ca="1">A76</f>
-        <v>90.032916946988195</v>
+        <v>12.863490198194921</v>
       </c>
       <c r="E69" s="1">
         <f ca="1">B76</f>
-        <v>45.863278966607893</v>
+        <v>17.448440558505887</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <f ca="1">$A$18</f>
-        <v>85.869551871631558</v>
+        <f ca="1">A18</f>
+        <v>81.686762313509703</v>
       </c>
       <c r="B70" s="1">
-        <f ca="1">$B$18</f>
-        <v>21.708754064754743</v>
+        <f ca="1">B18</f>
+        <v>31.842765617872281</v>
       </c>
       <c r="D70" s="1">
         <f ca="1">A75</f>
-        <v>66.446239454073492</v>
+        <v>49.270380401065552</v>
       </c>
       <c r="E70" s="1">
         <f ca="1">B75</f>
-        <v>60.14964875298768</v>
+        <v>9.6202749592102919</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <f ca="1">$A$19</f>
-        <v>21.115853852037574</v>
+        <f ca="1">A19</f>
+        <v>87.962366104766602</v>
       </c>
       <c r="B71" s="1">
-        <f ca="1">$B$19</f>
-        <v>41.394408404230759</v>
+        <f ca="1">B19</f>
+        <v>41.320409808164115</v>
       </c>
       <c r="D71" s="1">
         <f ca="1">A74</f>
-        <v>13.4874984834312</v>
+        <v>74.547507517987711</v>
       </c>
       <c r="E71" s="1">
         <f ca="1">B74</f>
-        <v>39.461281415269497</v>
+        <v>33.69061697722158</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <f ca="1">$A$20</f>
-        <v>60.023841619769144</v>
+        <f ca="1">A20</f>
+        <v>43.978325808100429</v>
       </c>
       <c r="B72" s="1">
-        <f ca="1">$B$20</f>
-        <v>52.754966426484962</v>
+        <f ca="1">B20</f>
+        <v>65.249452573987099</v>
       </c>
       <c r="D72" s="1">
         <f ca="1">A73</f>
-        <v>60.906713654979818</v>
+        <v>16.055277363117128</v>
       </c>
       <c r="E72" s="1">
         <f ca="1">B73</f>
-        <v>44.253448848267382</v>
+        <v>88.435372412676173</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <f ca="1">$A$21</f>
-        <v>60.906713654979818</v>
+        <f ca="1">A21</f>
+        <v>16.055277363117128</v>
       </c>
       <c r="B73" s="1">
-        <f ca="1">$B$21</f>
-        <v>44.253448848267382</v>
+        <f ca="1">B21</f>
+        <v>88.435372412676173</v>
       </c>
       <c r="D73" s="1">
         <f ca="1">A72</f>
-        <v>60.023841619769144</v>
+        <v>43.978325808100429</v>
       </c>
       <c r="E73" s="1">
         <f ca="1">B72</f>
-        <v>52.754966426484962</v>
+        <v>65.249452573987099</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <f ca="1">$A$22</f>
-        <v>13.4874984834312</v>
+        <f ca="1">A22</f>
+        <v>74.547507517987711</v>
       </c>
       <c r="B74" s="1">
-        <f ca="1">$B$22</f>
-        <v>39.461281415269497</v>
+        <f ca="1">B22</f>
+        <v>33.69061697722158</v>
       </c>
       <c r="D74" s="1">
         <f ca="1">A71</f>
-        <v>21.115853852037574</v>
+        <v>87.962366104766602</v>
       </c>
       <c r="E74" s="1">
         <f ca="1">B71</f>
-        <v>41.394408404230759</v>
+        <v>41.320409808164115</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <f ca="1">$A$23</f>
-        <v>66.446239454073492</v>
+        <f ca="1">A23</f>
+        <v>49.270380401065552</v>
       </c>
       <c r="B75" s="1">
-        <f ca="1">$B$23</f>
-        <v>60.14964875298768</v>
+        <f ca="1">B23</f>
+        <v>9.6202749592102919</v>
       </c>
       <c r="D75" s="1">
         <f ca="1">A70</f>
-        <v>85.869551871631558</v>
+        <v>81.686762313509703</v>
       </c>
       <c r="E75" s="1">
         <f ca="1">B70</f>
-        <v>21.708754064754743</v>
+        <v>31.842765617872281</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <f ca="1">$A$24</f>
-        <v>90.032916946988195</v>
+        <f ca="1">A24</f>
+        <v>12.863490198194921</v>
       </c>
       <c r="B76" s="1">
-        <f ca="1">$B$24</f>
-        <v>45.863278966607893</v>
+        <f ca="1">B24</f>
+        <v>17.448440558505887</v>
       </c>
       <c r="D76" s="1">
         <f ca="1">A69</f>
-        <v>29.820745199543033</v>
+        <v>43.94578124933151</v>
       </c>
       <c r="E76" s="1">
         <f ca="1">B69</f>
-        <v>62.304368426893433</v>
+        <v>86.312640874198763</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <f ca="1">$A$25</f>
-        <v>39.831244067699942</v>
+        <f ca="1">A25</f>
+        <v>47.542644044916102</v>
       </c>
       <c r="B77" s="1">
-        <f ca="1">$B$25</f>
-        <v>71.349281071733856</v>
+        <f ca="1">B25</f>
+        <v>52.759973356505739</v>
       </c>
       <c r="D77" s="1">
         <f ca="1">A68</f>
-        <v>32.465394849846035</v>
+        <v>42.147464999010346</v>
       </c>
       <c r="E77" s="1">
         <f ca="1">B68</f>
-        <v>60.760563622769837</v>
+        <v>73.320052861658041</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
       <c r="J79" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6" t="s">
+      <c r="C80" s="7"/>
+      <c r="D80" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E80" s="6"/>
+      <c r="E80" s="7"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="6" t="s">
+      <c r="G80" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H80" s="6" t="s">
+      <c r="H80" s="7" t="s">
         <v>1</v>
       </c>
       <c r="J80" s="1" t="s">
@@ -15380,723 +15381,723 @@
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="6">
-        <f ca="1">IF(MIN(MOD(A3,D$31),QUOTIENT(A3,D$31))&lt;MIN(MOD(B3,E$31),QUOTIENT(B3,E$31)),A3-(2*MIN(MOD(A3,D$31),QUOTIENT(A3,D$31))),A3)</f>
-        <v>22.507909835843524</v>
-      </c>
-      <c r="B81" s="6">
-        <f ca="1">IF(A81&lt;&gt;A3,B3,B3-(2*MIN(MOD(B3,E$31),QUOTIENT(B3,E$31))))</f>
-        <v>47.813169348197107</v>
-      </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6" t="s">
+      <c r="A81" s="7">
+        <f ca="1">IF(MIN(MOD(A3,D31),QUOTIENT(A3,D31))&lt;MIN(MOD(B3,E31),QUOTIENT(B3,E31)),A3-(2*MIN(MOD(A3,D31),QUOTIENT(A3,D31))),A3)</f>
+        <v>35.691257646143505</v>
+      </c>
+      <c r="B81" s="7">
+        <f ca="1">IF(A81&lt;&gt;A3,B3,B3-(2*MIN(MOD(B3,E31),QUOTIENT(B3,E31))))</f>
+        <v>67.667630517339276</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E81" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F81" s="5"/>
-      <c r="G81" s="6">
-        <f ca="1">$A$16</f>
-        <v>32.465394849846035</v>
-      </c>
-      <c r="H81" s="6">
-        <f ca="1">$B$16</f>
-        <v>60.760563622769837</v>
+      <c r="G81" s="7">
+        <f ca="1">A16</f>
+        <v>42.147464999010346</v>
+      </c>
+      <c r="H81" s="7">
+        <f ca="1">B16</f>
+        <v>73.320052861658041</v>
       </c>
       <c r="J81" s="1">
-        <f ca="1">D$85+A81</f>
-        <v>27.486652342844788</v>
-      </c>
-      <c r="K81" s="6">
-        <f ca="1">E$85+B81</f>
-        <v>53.586866485483469</v>
+        <f ca="1">D85+A81</f>
+        <v>38.919361322576925</v>
+      </c>
+      <c r="K81" s="7">
+        <f ca="1">E85+B81</f>
+        <v>70.021794887775954</v>
       </c>
       <c r="L81" s="1">
-        <f ca="1">G81+D$85</f>
-        <v>37.4441373568473</v>
-      </c>
-      <c r="M81" s="6">
-        <f ca="1">H81+E$85</f>
-        <v>66.534260760056199</v>
+        <f ca="1">G81+D85</f>
+        <v>45.375568675443766</v>
+      </c>
+      <c r="M81" s="7">
+        <f ca="1">H81+E85</f>
+        <v>75.674217232094719</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="6">
-        <f t="shared" ref="A82:A90" ca="1" si="15">IF(MIN(MOD(A4,D$31),QUOTIENT(A4,D$31))&lt;MIN(MOD(B4,E$31),QUOTIENT(B4,E$31)),A4-(2*MIN(MOD(A4,D$31),QUOTIENT(A4,D$31))),A4)</f>
-        <v>19.863260185540526</v>
-      </c>
-      <c r="B82" s="6">
-        <f t="shared" ref="B82:B90" ca="1" si="16">IF(A82&lt;&gt;A4,B4,B4-(2*MIN(MOD(B4,E$31),QUOTIENT(B4,E$31))))</f>
-        <v>49.356974152320703</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6">
+      <c r="A82" s="7">
+        <f ca="1">IF(MIN(MOD(A4,D31),QUOTIENT(A4,D31))&lt;MIN(MOD(B4,E31),QUOTIENT(B4,E31)),A4-(2*MIN(MOD(A4,D31),QUOTIENT(A4,D31))),A4)</f>
+        <v>37.48957389646467</v>
+      </c>
+      <c r="B82" s="7">
+        <f ca="1">IF(A82&lt;&gt;A4,B4,B4-(2*MIN(MOD(B4,E31),QUOTIENT(B4,E31))))</f>
+        <v>82.101154564334095</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7">
         <f ca="1">RANDBETWEEN(2,10)</f>
-        <v>4</v>
-      </c>
-      <c r="E82" s="6">
+        <v>2</v>
+      </c>
+      <c r="E82" s="7">
         <f ca="1">RANDBETWEEN(2,10)</f>
-        <v>3</v>
-      </c>
-      <c r="G82" s="6">
-        <f ca="1">$A$17</f>
-        <v>29.820745199543033</v>
-      </c>
-      <c r="H82" s="6">
-        <f ca="1">$B$17</f>
-        <v>62.304368426893433</v>
-      </c>
-      <c r="J82" s="6">
-        <f t="shared" ref="J82:K90" ca="1" si="17">D$85+A82</f>
-        <v>24.84200269254179</v>
-      </c>
-      <c r="K82" s="6">
-        <f t="shared" ca="1" si="17"/>
-        <v>55.130671289607065</v>
-      </c>
-      <c r="L82" s="6">
-        <f t="shared" ref="L82:M90" ca="1" si="18">G82+D$85</f>
-        <v>34.799487706544298</v>
-      </c>
-      <c r="M82" s="6">
-        <f t="shared" ca="1" si="18"/>
-        <v>68.078065564179795</v>
+        <v>5</v>
+      </c>
+      <c r="G82" s="7">
+        <f ca="1">A17</f>
+        <v>43.94578124933151</v>
+      </c>
+      <c r="H82" s="7">
+        <f ca="1">B17</f>
+        <v>86.312640874198763</v>
+      </c>
+      <c r="J82" s="7">
+        <f ca="1">D85+A82</f>
+        <v>40.71767757289809</v>
+      </c>
+      <c r="K82" s="7">
+        <f ca="1">E85+B82</f>
+        <v>84.455318934770773</v>
+      </c>
+      <c r="L82" s="7">
+        <f ca="1">G82+D85</f>
+        <v>47.173884925764931</v>
+      </c>
+      <c r="M82" s="7">
+        <f ca="1">H82+E85</f>
+        <v>88.666805244635441</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
-        <f t="shared" ca="1" si="15"/>
-        <v>75.912066857629043</v>
-      </c>
-      <c r="B83" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>12.761359790182011</v>
-      </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="G83" s="6">
-        <f ca="1">$A$18</f>
-        <v>85.869551871631558</v>
-      </c>
-      <c r="H83" s="6">
-        <f ca="1">$B$18</f>
-        <v>21.708754064754743</v>
-      </c>
-      <c r="J83" s="6">
-        <f t="shared" ca="1" si="17"/>
-        <v>80.890809364630314</v>
-      </c>
-      <c r="K83" s="6">
-        <f t="shared" ca="1" si="17"/>
-        <v>18.535056927468375</v>
-      </c>
-      <c r="L83" s="6">
-        <f t="shared" ca="1" si="18"/>
-        <v>90.848294378632829</v>
-      </c>
-      <c r="M83" s="6">
-        <f ca="1">H83+E$85</f>
-        <v>27.482451202041105</v>
+      <c r="A83" s="7">
+        <f ca="1">IF(MIN(MOD(A5,D31),QUOTIENT(A5,D31))&lt;MIN(MOD(B5,E31),QUOTIENT(B5,E31)),A5-(2*MIN(MOD(A5,D31),QUOTIENT(A5,D31))),A5)</f>
+        <v>75.230554960642863</v>
+      </c>
+      <c r="B83" s="7">
+        <f ca="1">IF(A83&lt;&gt;A5,B5,B5-(2*MIN(MOD(B5,E31),QUOTIENT(B5,E31))))</f>
+        <v>28.190343273553523</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="G83" s="7">
+        <f ca="1">A18</f>
+        <v>81.686762313509703</v>
+      </c>
+      <c r="H83" s="7">
+        <f ca="1">B18</f>
+        <v>31.842765617872281</v>
+      </c>
+      <c r="J83" s="7">
+        <f ca="1">D85+A83</f>
+        <v>78.458658637076283</v>
+      </c>
+      <c r="K83" s="7">
+        <f ca="1">E85+B83</f>
+        <v>30.544507643990201</v>
+      </c>
+      <c r="L83" s="7">
+        <f ca="1">G83+D85</f>
+        <v>84.914865989943124</v>
+      </c>
+      <c r="M83" s="7">
+        <f ca="1">H83+E85</f>
+        <v>34.196929988308959</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="6">
-        <f t="shared" ca="1" si="15"/>
-        <v>11.158368838035065</v>
-      </c>
-      <c r="B84" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>30.447014129658029</v>
-      </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6" t="s">
+      <c r="A84" s="7">
+        <f ca="1">IF(MIN(MOD(A6,D31),QUOTIENT(A6,D31))&lt;MIN(MOD(B6,E31),QUOTIENT(B6,E31)),A6-(2*MIN(MOD(A6,D31),QUOTIENT(A6,D31))),A6)</f>
+        <v>81.506158751899761</v>
+      </c>
+      <c r="B84" s="7">
+        <f ca="1">IF(A84&lt;&gt;A6,B6,B6-(2*MIN(MOD(B6,E31),QUOTIENT(B6,E31))))</f>
+        <v>37.667987463845357</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E84" s="6"/>
-      <c r="G84" s="6">
-        <f ca="1">$A$19</f>
-        <v>21.115853852037574</v>
-      </c>
-      <c r="H84" s="6">
-        <f ca="1">$B$19</f>
-        <v>41.394408404230759</v>
-      </c>
-      <c r="J84" s="6">
-        <f t="shared" ca="1" si="17"/>
-        <v>16.137111345036331</v>
-      </c>
-      <c r="K84" s="6">
-        <f t="shared" ca="1" si="17"/>
-        <v>36.220711266944392</v>
-      </c>
-      <c r="L84" s="6">
-        <f t="shared" ca="1" si="18"/>
-        <v>26.094596359038839</v>
-      </c>
-      <c r="M84" s="6">
-        <f t="shared" ca="1" si="18"/>
-        <v>47.168105541517122</v>
+      <c r="E84" s="7"/>
+      <c r="G84" s="7">
+        <f ca="1">A19</f>
+        <v>87.962366104766602</v>
+      </c>
+      <c r="H84" s="7">
+        <f ca="1">B19</f>
+        <v>41.320409808164115</v>
+      </c>
+      <c r="J84" s="7">
+        <f ca="1">D85+A84</f>
+        <v>84.734262428333182</v>
+      </c>
+      <c r="K84" s="7">
+        <f ca="1">E85+B84</f>
+        <v>40.022151834282035</v>
+      </c>
+      <c r="L84" s="7">
+        <f ca="1">G84+D85</f>
+        <v>91.190469781200022</v>
+      </c>
+      <c r="M84" s="7">
+        <f ca="1">H84+E85</f>
+        <v>43.674574178600793</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="6">
-        <f t="shared" ca="1" si="15"/>
-        <v>50.066356605766636</v>
-      </c>
-      <c r="B85" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>41.807572151912233</v>
-      </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6">
+      <c r="A85" s="7">
+        <f ca="1">IF(MIN(MOD(A7,D31),QUOTIENT(A7,D31))&lt;MIN(MOD(B7,E31),QUOTIENT(B7,E31)),A7-(2*MIN(MOD(A7,D31),QUOTIENT(A7,D31))),A7)</f>
+        <v>37.522118455233588</v>
+      </c>
+      <c r="B85" s="7">
+        <f ca="1">IF(A85&lt;&gt;A7,B7,B7-(2*MIN(MOD(B7,E31),QUOTIENT(B7,E31))))</f>
+        <v>59.597030229668334</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7">
         <f ca="1">50-AVERAGE(G81:G90,A81:A90)</f>
-        <v>4.9787425070012645</v>
-      </c>
-      <c r="E85" s="6">
+        <v>3.2281036764334203</v>
+      </c>
+      <c r="E85" s="7">
         <f ca="1">50-AVERAGE(H81:H90,B81:B90)</f>
-        <v>5.7736971372863621</v>
-      </c>
-      <c r="G85" s="6">
-        <f ca="1">$A$20</f>
-        <v>60.023841619769144</v>
-      </c>
-      <c r="H85" s="6">
-        <f ca="1">$B$20</f>
-        <v>52.754966426484962</v>
-      </c>
-      <c r="J85" s="6">
-        <f t="shared" ca="1" si="17"/>
-        <v>55.0450991127679</v>
-      </c>
-      <c r="K85" s="6">
-        <f t="shared" ca="1" si="17"/>
-        <v>47.581269289198595</v>
-      </c>
-      <c r="L85" s="6">
-        <f t="shared" ca="1" si="18"/>
-        <v>65.002584126770415</v>
-      </c>
-      <c r="M85" s="6">
-        <f t="shared" ca="1" si="18"/>
-        <v>58.528663563771325</v>
+        <v>2.3541643704366777</v>
+      </c>
+      <c r="G85" s="7">
+        <f ca="1">A20</f>
+        <v>43.978325808100429</v>
+      </c>
+      <c r="H85" s="7">
+        <f ca="1">B20</f>
+        <v>65.249452573987099</v>
+      </c>
+      <c r="J85" s="7">
+        <f ca="1">D85+A85</f>
+        <v>40.750222131667009</v>
+      </c>
+      <c r="K85" s="7">
+        <f ca="1">E85+B85</f>
+        <v>61.951194600105012</v>
+      </c>
+      <c r="L85" s="7">
+        <f ca="1">G85+D85</f>
+        <v>47.206429484533849</v>
+      </c>
+      <c r="M85" s="7">
+        <f ca="1">H85+E85</f>
+        <v>67.603616944423777</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="6">
-        <f t="shared" ca="1" si="15"/>
-        <v>50.94922864097731</v>
-      </c>
-      <c r="B86" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>33.306054573694652</v>
-      </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="G86" s="6">
-        <f ca="1">$A$21</f>
-        <v>60.906713654979818</v>
-      </c>
-      <c r="H86" s="6">
-        <f ca="1">$B$21</f>
-        <v>44.253448848267382</v>
-      </c>
-      <c r="J86" s="6">
-        <f t="shared" ca="1" si="17"/>
-        <v>55.927971147978575</v>
-      </c>
-      <c r="K86" s="6">
-        <f t="shared" ca="1" si="17"/>
-        <v>39.079751710981014</v>
-      </c>
-      <c r="L86" s="6">
-        <f t="shared" ca="1" si="18"/>
-        <v>65.885456161981082</v>
-      </c>
-      <c r="M86" s="6">
-        <f t="shared" ca="1" si="18"/>
-        <v>50.027145985553744</v>
+      <c r="A86" s="7">
+        <f ca="1">IF(MIN(MOD(A8,D31),QUOTIENT(A8,D31))&lt;MIN(MOD(B8,E31),QUOTIENT(B8,E31)),A8-(2*MIN(MOD(A8,D31),QUOTIENT(A8,D31))),A8)</f>
+        <v>9.5990700102502871</v>
+      </c>
+      <c r="B86" s="7">
+        <f ca="1">IF(A86&lt;&gt;A8,B8,B8-(2*MIN(MOD(B8,E31),QUOTIENT(B8,E31))))</f>
+        <v>80.782950068357408</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="G86" s="7">
+        <f ca="1">A21</f>
+        <v>16.055277363117128</v>
+      </c>
+      <c r="H86" s="7">
+        <f ca="1">B21</f>
+        <v>88.435372412676173</v>
+      </c>
+      <c r="J86" s="7">
+        <f ca="1">D85+A86</f>
+        <v>12.827173686683707</v>
+      </c>
+      <c r="K86" s="7">
+        <f ca="1">E85+B86</f>
+        <v>83.137114438794086</v>
+      </c>
+      <c r="L86" s="7">
+        <f ca="1">G86+D85</f>
+        <v>19.283381039550548</v>
+      </c>
+      <c r="M86" s="7">
+        <f ca="1">H86+E85</f>
+        <v>90.789536783112851</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="6">
-        <f t="shared" ca="1" si="15"/>
-        <v>3.5300134694286918</v>
-      </c>
-      <c r="B87" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>28.513887140696763</v>
-      </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6" t="s">
+      <c r="A87" s="7">
+        <f ca="1">IF(MIN(MOD(A9,D31),QUOTIENT(A9,D31))&lt;MIN(MOD(B9,E31),QUOTIENT(B9,E31)),A9-(2*MIN(MOD(A9,D31),QUOTIENT(A9,D31))),A9)</f>
+        <v>68.09130016512087</v>
+      </c>
+      <c r="B87" s="7">
+        <f ca="1">IF(A87&lt;&gt;A9,B9,B9-(2*MIN(MOD(B9,E31),QUOTIENT(B9,E31))))</f>
+        <v>30.038194632902826</v>
+      </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E87" s="6"/>
-      <c r="G87" s="6">
-        <f ca="1">$A$22</f>
-        <v>13.4874984834312</v>
-      </c>
-      <c r="H87" s="6">
-        <f ca="1">$B$22</f>
-        <v>39.461281415269497</v>
-      </c>
-      <c r="J87" s="6">
-        <f t="shared" ca="1" si="17"/>
-        <v>8.5087559764299563</v>
-      </c>
-      <c r="K87" s="6">
-        <f t="shared" ca="1" si="17"/>
-        <v>34.287584277983129</v>
-      </c>
-      <c r="L87" s="6">
-        <f t="shared" ca="1" si="18"/>
-        <v>18.466240990432464</v>
-      </c>
-      <c r="M87" s="6">
-        <f t="shared" ca="1" si="18"/>
-        <v>45.234978552555859</v>
+      <c r="E87" s="7"/>
+      <c r="G87" s="7">
+        <f ca="1">A22</f>
+        <v>74.547507517987711</v>
+      </c>
+      <c r="H87" s="7">
+        <f ca="1">B22</f>
+        <v>33.69061697722158</v>
+      </c>
+      <c r="J87" s="7">
+        <f ca="1">D85+A87</f>
+        <v>71.319403841554291</v>
+      </c>
+      <c r="K87" s="7">
+        <f ca="1">E85+B87</f>
+        <v>32.392359003339507</v>
+      </c>
+      <c r="L87" s="7">
+        <f ca="1">G87+D85</f>
+        <v>77.775611194421131</v>
+      </c>
+      <c r="M87" s="7">
+        <f ca="1">H87+E85</f>
+        <v>36.044781347658258</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="6">
-        <f t="shared" ca="1" si="15"/>
-        <v>56.488754440070977</v>
-      </c>
-      <c r="B88" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>47.20225447841495</v>
-      </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6" t="s">
+      <c r="A88" s="7">
+        <f ca="1">IF(MIN(MOD(A10,D31),QUOTIENT(A10,D31))&lt;MIN(MOD(B10,E31),QUOTIENT(B10,E31)),A10-(2*MIN(MOD(A10,D31),QUOTIENT(A10,D31))),A10)</f>
+        <v>42.814173048198711</v>
+      </c>
+      <c r="B88" s="7">
+        <f ca="1">IF(A88&lt;&gt;A10,B10,B10-(2*MIN(MOD(B10,E31),QUOTIENT(B10,E31))))</f>
+        <v>5.967852614891533</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E88" s="6"/>
-      <c r="G88" s="6">
-        <f ca="1">$A$23</f>
-        <v>66.446239454073492</v>
-      </c>
-      <c r="H88" s="6">
-        <f ca="1">$B$23</f>
-        <v>60.14964875298768</v>
-      </c>
-      <c r="J88" s="6">
-        <f t="shared" ca="1" si="17"/>
-        <v>61.467496947072242</v>
-      </c>
-      <c r="K88" s="6">
-        <f t="shared" ca="1" si="17"/>
-        <v>52.975951615701312</v>
-      </c>
-      <c r="L88" s="6">
-        <f t="shared" ca="1" si="18"/>
-        <v>71.424981961074764</v>
-      </c>
-      <c r="M88" s="6">
-        <f t="shared" ca="1" si="18"/>
-        <v>65.923345890274049</v>
+      <c r="E88" s="7"/>
+      <c r="G88" s="7">
+        <f ca="1">A23</f>
+        <v>49.270380401065552</v>
+      </c>
+      <c r="H88" s="7">
+        <f ca="1">B23</f>
+        <v>9.6202749592102919</v>
+      </c>
+      <c r="J88" s="7">
+        <f ca="1">D85+A88</f>
+        <v>46.042276724632131</v>
+      </c>
+      <c r="K88" s="7">
+        <f ca="1">E85+B88</f>
+        <v>8.3220169853282115</v>
+      </c>
+      <c r="L88" s="7">
+        <f ca="1">G88+D85</f>
+        <v>52.498484077498972</v>
+      </c>
+      <c r="M88" s="7">
+        <f ca="1">H88+E85</f>
+        <v>11.97443932964697</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="6">
-        <f t="shared" ca="1" si="15"/>
-        <v>80.07543193298568</v>
-      </c>
-      <c r="B89" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>34.915884692035164</v>
-      </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="G89" s="6">
-        <f ca="1">$A$24</f>
-        <v>90.032916946988195</v>
-      </c>
-      <c r="H89" s="6">
-        <f ca="1">$B$24</f>
-        <v>45.863278966607893</v>
-      </c>
-      <c r="J89" s="6">
-        <f t="shared" ca="1" si="17"/>
-        <v>85.054174439986951</v>
-      </c>
-      <c r="K89" s="6">
-        <f t="shared" ca="1" si="17"/>
-        <v>40.689581829321526</v>
-      </c>
-      <c r="L89" s="6">
-        <f t="shared" ca="1" si="18"/>
-        <v>95.011659453989466</v>
-      </c>
-      <c r="M89" s="6">
-        <f t="shared" ca="1" si="18"/>
-        <v>51.636976103894256</v>
+      <c r="A89" s="7">
+        <f ca="1">IF(MIN(MOD(A11,D31),QUOTIENT(A11,D31))&lt;MIN(MOD(B11,E31),QUOTIENT(B11,E31)),A11-(2*MIN(MOD(A11,D31),QUOTIENT(A11,D31))),A11)</f>
+        <v>6.4072828453280808</v>
+      </c>
+      <c r="B89" s="7">
+        <f ca="1">IF(A89&lt;&gt;A11,B11,B11-(2*MIN(MOD(B11,E31),QUOTIENT(B11,E31))))</f>
+        <v>13.796018214187129</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="G89" s="7">
+        <f ca="1">A24</f>
+        <v>12.863490198194921</v>
+      </c>
+      <c r="H89" s="7">
+        <f ca="1">B24</f>
+        <v>17.448440558505887</v>
+      </c>
+      <c r="J89" s="7">
+        <f ca="1">D85+A89</f>
+        <v>9.6353865217615002</v>
+      </c>
+      <c r="K89" s="7">
+        <f ca="1">E85+B89</f>
+        <v>16.150182584623806</v>
+      </c>
+      <c r="L89" s="7">
+        <f ca="1">G89+D85</f>
+        <v>16.091593874628341</v>
+      </c>
+      <c r="M89" s="7">
+        <f ca="1">H89+E85</f>
+        <v>19.802604928942564</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="6">
-        <f t="shared" ca="1" si="15"/>
-        <v>29.873759053697437</v>
-      </c>
-      <c r="B90" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>58.401886797161133</v>
-      </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="G90" s="6">
-        <f ca="1">$A$25</f>
-        <v>39.831244067699942</v>
-      </c>
-      <c r="H90" s="6">
-        <f ca="1">$B$25</f>
-        <v>71.349281071733856</v>
-      </c>
-      <c r="J90" s="6">
-        <f t="shared" ca="1" si="17"/>
-        <v>34.852501560698698</v>
-      </c>
-      <c r="K90" s="6">
-        <f t="shared" ca="1" si="17"/>
-        <v>64.175583934447502</v>
-      </c>
-      <c r="L90" s="6">
-        <f t="shared" ca="1" si="18"/>
-        <v>44.809986574701206</v>
-      </c>
-      <c r="M90" s="6">
-        <f t="shared" ca="1" si="18"/>
-        <v>77.122978209020218</v>
+      <c r="A90" s="7">
+        <f ca="1">IF(MIN(MOD(A12,D31),QUOTIENT(A12,D31))&lt;MIN(MOD(B12,E31),QUOTIENT(B12,E31)),A12-(2*MIN(MOD(A12,D31),QUOTIENT(A12,D31))),A12)</f>
+        <v>41.086436692049261</v>
+      </c>
+      <c r="B90" s="7">
+        <f ca="1">IF(A90&lt;&gt;A12,B12,B12-(2*MIN(MOD(B12,E31),QUOTIENT(B12,E31))))</f>
+        <v>47.107551012186981</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="G90" s="7">
+        <f ca="1">A25</f>
+        <v>47.542644044916102</v>
+      </c>
+      <c r="H90" s="7">
+        <f ca="1">B25</f>
+        <v>52.759973356505739</v>
+      </c>
+      <c r="J90" s="7">
+        <f ca="1">D85+A90</f>
+        <v>44.314540368482682</v>
+      </c>
+      <c r="K90" s="7">
+        <f ca="1">E85+B90</f>
+        <v>49.461715382623659</v>
+      </c>
+      <c r="L90" s="7">
+        <f ca="1">G90+D85</f>
+        <v>50.770747721349522</v>
+      </c>
+      <c r="M90" s="7">
+        <f ca="1">H90+E85</f>
+        <v>55.114137726942417</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6" t="s">
+      <c r="C93" s="7"/>
+      <c r="D93" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F93" s="6"/>
-      <c r="H93" s="6" t="s">
+      <c r="F93" s="7"/>
+      <c r="H93" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I93" s="6" t="s">
+      <c r="I93" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="6">
-        <f ca="1">E94+C$98</f>
-        <v>49.154881329334671</v>
-      </c>
-      <c r="B94" s="6">
-        <f ca="1">F94+D$98</f>
-        <v>50.518628913888321</v>
-      </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="7">
+      <c r="A94" s="7">
+        <f ca="1">E94+C98</f>
+        <v>45.983043525339681</v>
+      </c>
+      <c r="B94" s="7">
+        <f ca="1">F94+D98</f>
+        <v>61.929349862210366</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="8">
         <f ca="1">RAND()</f>
-        <v>4.8197188555335502E-2</v>
-      </c>
-      <c r="E94" s="6">
-        <f ca="1">A3*$D$94</f>
-        <v>1.0848179743446409</v>
-      </c>
-      <c r="F94" s="6">
-        <f ca="1">B3*$D$94</f>
-        <v>2.4972490927245858</v>
-      </c>
-      <c r="H94" s="6">
-        <f ca="1">$A$16</f>
-        <v>32.465394849846035</v>
-      </c>
-      <c r="I94" s="6">
-        <f ca="1">$B$16</f>
-        <v>60.760563622769837</v>
+        <v>0.51154900604124098</v>
+      </c>
+      <c r="E94" s="7">
+        <f ca="1">A3*D94</f>
+        <v>18.257827373246553</v>
+      </c>
+      <c r="F94" s="7">
+        <f ca="1">B3*D94</f>
+        <v>35.638407144393334</v>
+      </c>
+      <c r="H94" s="7">
+        <f ca="1">A16</f>
+        <v>42.147464999010346</v>
+      </c>
+      <c r="I94" s="7">
+        <f ca="1">B16</f>
+        <v>73.320052861658041</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="6">
-        <f ca="1">E95+C$98</f>
-        <v>49.027416651476216</v>
-      </c>
-      <c r="B95" s="6">
-        <f ca="1">F95+D$98</f>
-        <v>50.593035965125296</v>
-      </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6">
-        <f t="shared" ref="E95:E103" ca="1" si="19">A4*$D$94</f>
-        <v>0.95735329648618517</v>
-      </c>
-      <c r="F95" s="6">
-        <f t="shared" ref="F95:F103" ca="1" si="20">B4*$D$94</f>
-        <v>2.5716561439615635</v>
-      </c>
-      <c r="H95" s="6">
-        <f ca="1">$A$17</f>
-        <v>29.820745199543033</v>
-      </c>
-      <c r="I95" s="6">
-        <f ca="1">$B$17</f>
-        <v>62.304368426893433</v>
+      <c r="A95" s="7">
+        <f ca="1">E95+C98</f>
+        <v>46.90297041573929</v>
+      </c>
+      <c r="B95" s="7">
+        <f ca="1">F95+D98</f>
+        <v>68.575695345928921</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7">
+        <f ca="1">A4*D94</f>
+        <v>19.177754263646154</v>
+      </c>
+      <c r="F95" s="7">
+        <f ca="1">B4*D94</f>
+        <v>42.284752628111882</v>
+      </c>
+      <c r="H95" s="7">
+        <f ca="1">A17</f>
+        <v>43.94578124933151</v>
+      </c>
+      <c r="I95" s="7">
+        <f ca="1">B17</f>
+        <v>86.312640874198763</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="6">
-        <f ca="1">E96+C$98</f>
-        <v>51.728811554952415</v>
-      </c>
-      <c r="B96" s="6">
-        <f ca="1">F96+D$98</f>
-        <v>48.636441485193615</v>
-      </c>
-      <c r="C96" s="6" t="s">
+      <c r="A96" s="7">
+        <f ca="1">E96+C98</f>
+        <v>66.209331766140934</v>
+      </c>
+      <c r="B96" s="7">
+        <f ca="1">F96+D98</f>
+        <v>40.711684799364718</v>
+      </c>
+      <c r="C96" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6">
-        <f t="shared" ca="1" si="19"/>
-        <v>3.6587481999623819</v>
-      </c>
-      <c r="F96" s="6">
-        <f t="shared" ca="1" si="20"/>
-        <v>0.61506166402987905</v>
-      </c>
-      <c r="H96" s="6">
-        <f ca="1">$A$18</f>
-        <v>85.869551871631558</v>
-      </c>
-      <c r="I96" s="6">
-        <f ca="1">$B$18</f>
-        <v>21.708754064754743</v>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7">
+        <f ca="1">A5*D94</f>
+        <v>38.484115614047809</v>
+      </c>
+      <c r="F96" s="7">
+        <f ca="1">B5*D94</f>
+        <v>14.420742081547688</v>
+      </c>
+      <c r="H96" s="7">
+        <f ca="1">A18</f>
+        <v>81.686762313509703</v>
+      </c>
+      <c r="I96" s="7">
+        <f ca="1">B18</f>
+        <v>31.842765617872281</v>
       </c>
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A97" s="6">
-        <f ca="1">E97+C$98</f>
-        <v>48.607865361846791</v>
-      </c>
-      <c r="B97" s="6">
-        <f ca="1">F97+D$98</f>
-        <v>49.585234679228499</v>
-      </c>
-      <c r="C97" s="6" t="s">
+      <c r="A97" s="7">
+        <f ca="1">E97+C98</f>
+        <v>69.419610647867046</v>
+      </c>
+      <c r="B97" s="7">
+        <f ca="1">F97+D98</f>
+        <v>45.559964264521049</v>
+      </c>
+      <c r="C97" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E97" s="6">
-        <f t="shared" ca="1" si="19"/>
-        <v>0.53780200685675594</v>
-      </c>
-      <c r="F97" s="6">
-        <f t="shared" ca="1" si="20"/>
-        <v>1.5638548580647633</v>
-      </c>
-      <c r="H97" s="6">
-        <f ca="1">$A$19</f>
-        <v>21.115853852037574</v>
-      </c>
-      <c r="I97" s="6">
-        <f ca="1">$B$19</f>
-        <v>41.394408404230759</v>
+      <c r="E97" s="7">
+        <f ca="1">A6*D94</f>
+        <v>41.694394495773921</v>
+      </c>
+      <c r="F97" s="7">
+        <f ca="1">B6*D94</f>
+        <v>19.269021546704018</v>
+      </c>
+      <c r="H97" s="7">
+        <f ca="1">A19</f>
+        <v>87.962366104766602</v>
+      </c>
+      <c r="I97" s="7">
+        <f ca="1">B19</f>
+        <v>41.320409808164115</v>
       </c>
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A98" s="6">
-        <f ca="1">E98+C$98</f>
-        <v>50.483120984596837</v>
-      </c>
-      <c r="B98" s="6">
-        <f ca="1">F98+D$98</f>
-        <v>50.132781636320914</v>
-      </c>
-      <c r="C98" s="6">
+      <c r="A98" s="7">
+        <f ca="1">E98+C98</f>
+        <v>46.919618552429583</v>
+      </c>
+      <c r="B98" s="7">
+        <f ca="1">F98+D98</f>
+        <v>57.800842306896143</v>
+      </c>
+      <c r="C98" s="7">
         <f ca="1">50-AVERAGE(E94:E103)</f>
-        <v>48.070063354990033</v>
-      </c>
-      <c r="D98" s="6">
+        <v>27.725216152093132</v>
+      </c>
+      <c r="D98" s="7">
         <f ca="1">50-AVERAGE(F94:F103)</f>
-        <v>48.021379821163734</v>
-      </c>
-      <c r="E98" s="6">
-        <f t="shared" ca="1" si="19"/>
-        <v>2.4130576296068016</v>
-      </c>
-      <c r="F98" s="6">
-        <f t="shared" ca="1" si="20"/>
-        <v>2.1114018151571785</v>
-      </c>
-      <c r="H98" s="6">
-        <f ca="1">$A$20</f>
-        <v>60.023841619769144</v>
-      </c>
-      <c r="I98" s="6">
-        <f ca="1">$B$20</f>
-        <v>52.754966426484962</v>
+        <v>26.290942717817032</v>
+      </c>
+      <c r="E98" s="7">
+        <f ca="1">A7*D94</f>
+        <v>19.194402400336447</v>
+      </c>
+      <c r="F98" s="7">
+        <f ca="1">B7*D94</f>
+        <v>31.509899589079112</v>
+      </c>
+      <c r="H98" s="7">
+        <f ca="1">A20</f>
+        <v>43.978325808100429</v>
+      </c>
+      <c r="I98" s="7">
+        <f ca="1">B20</f>
+        <v>65.249452573987099</v>
       </c>
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A99" s="6">
-        <f ca="1">E99+C$98</f>
-        <v>50.525672934548119</v>
-      </c>
-      <c r="B99" s="6">
-        <f ca="1">F99+D$98</f>
-        <v>49.723032390597062</v>
-      </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6">
-        <f t="shared" ca="1" si="19"/>
-        <v>2.4556095795580832</v>
-      </c>
-      <c r="F99" s="6">
-        <f t="shared" ca="1" si="20"/>
-        <v>1.7016525694333264</v>
-      </c>
-      <c r="H99" s="6">
-        <f ca="1">$A$21</f>
-        <v>60.906713654979818</v>
-      </c>
-      <c r="I99" s="6">
-        <f ca="1">$B$21</f>
-        <v>44.253448848267382</v>
+      <c r="A99" s="7">
+        <f ca="1">E99+C98</f>
+        <v>32.635610874756949</v>
+      </c>
+      <c r="B99" s="7">
+        <f ca="1">F99+D98</f>
+        <v>69.661576554529432</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7">
+        <f ca="1">A8*D94</f>
+        <v>4.9103947226638196</v>
+      </c>
+      <c r="F99" s="7">
+        <f ca="1">B8*D94</f>
+        <v>43.370633836712393</v>
+      </c>
+      <c r="H99" s="7">
+        <f ca="1">A21</f>
+        <v>16.055277363117128</v>
+      </c>
+      <c r="I99" s="7">
+        <f ca="1">B21</f>
+        <v>88.435372412676173</v>
       </c>
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A100" s="6">
-        <f ca="1">E100+C$98</f>
-        <v>48.240200079778958</v>
-      </c>
-      <c r="B100" s="6">
-        <f ca="1">F100+D$98</f>
-        <v>49.492063393240123</v>
-      </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6">
-        <f t="shared" ca="1" si="19"/>
-        <v>0.17013672478892872</v>
-      </c>
-      <c r="F100" s="6">
-        <f t="shared" ca="1" si="20"/>
-        <v>1.4706835720763891</v>
-      </c>
-      <c r="H100" s="6">
-        <f ca="1">$A$22</f>
-        <v>13.4874984834312</v>
-      </c>
-      <c r="I100" s="6">
-        <f ca="1">$B$22</f>
-        <v>39.461281415269497</v>
+      <c r="A100" s="7">
+        <f ca="1">E100+C98</f>
+        <v>62.557253071616501</v>
+      </c>
+      <c r="B100" s="7">
+        <f ca="1">F100+D98</f>
+        <v>41.656951325551816</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7">
+        <f ca="1">A9*D94</f>
+        <v>34.832036919523368</v>
+      </c>
+      <c r="F100" s="7">
+        <f ca="1">B9*D94</f>
+        <v>15.366008607734781</v>
+      </c>
+      <c r="H100" s="7">
+        <f ca="1">A22</f>
+        <v>74.547507517987711</v>
+      </c>
+      <c r="I100" s="7">
+        <f ca="1">B22</f>
+        <v>33.69061697722158</v>
       </c>
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A101" s="6">
-        <f ca="1">E101+C$98</f>
-        <v>50.79266250399418</v>
-      </c>
-      <c r="B101" s="6">
-        <f ca="1">F101+D$98</f>
-        <v>50.48918453471817</v>
-      </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6">
-        <f t="shared" ca="1" si="19"/>
-        <v>2.7225991490041466</v>
-      </c>
-      <c r="F101" s="6">
-        <f t="shared" ca="1" si="20"/>
-        <v>2.467804713554437</v>
-      </c>
-      <c r="H101" s="6">
-        <f ca="1">$A$23</f>
-        <v>66.446239454073492</v>
-      </c>
-      <c r="I101" s="6">
-        <f ca="1">$B$23</f>
-        <v>60.14964875298768</v>
+      <c r="A101" s="7">
+        <f ca="1">E101+C98</f>
+        <v>49.626763819376876</v>
+      </c>
+      <c r="B101" s="7">
+        <f ca="1">F101+D98</f>
+        <v>29.343791791165415</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7">
+        <f ca="1">A10*D94</f>
+        <v>21.90154766728374</v>
+      </c>
+      <c r="F101" s="7">
+        <f ca="1">B10*D94</f>
+        <v>3.0528490733483844</v>
+      </c>
+      <c r="H101" s="7">
+        <f ca="1">A23</f>
+        <v>49.270380401065552</v>
+      </c>
+      <c r="I101" s="7">
+        <f ca="1">B23</f>
+        <v>9.6202749592102919</v>
       </c>
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A102" s="6">
-        <f ca="1">E102+C$98</f>
-        <v>51.92947404651408</v>
-      </c>
-      <c r="B102" s="6">
-        <f ca="1">F102+D$98</f>
-        <v>49.800621676352776</v>
-      </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6">
-        <f t="shared" ca="1" si="19"/>
-        <v>3.8594106915240443</v>
-      </c>
-      <c r="F102" s="6">
-        <f t="shared" ca="1" si="20"/>
-        <v>1.7792418551890423</v>
-      </c>
-      <c r="H102" s="6">
-        <f ca="1">$A$24</f>
-        <v>90.032916946988195</v>
-      </c>
-      <c r="I102" s="6">
-        <f ca="1">$B$24</f>
-        <v>45.863278966607893</v>
+      <c r="A102" s="7">
+        <f ca="1">E102+C98</f>
+        <v>31.002855323045807</v>
+      </c>
+      <c r="B102" s="7">
+        <f ca="1">F102+D98</f>
+        <v>33.348282122611316</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7">
+        <f ca="1">A11*D94</f>
+        <v>3.277639170952674</v>
+      </c>
+      <c r="F102" s="7">
+        <f ca="1">B11*D94</f>
+        <v>7.0573394047942823</v>
+      </c>
+      <c r="H102" s="7">
+        <f ca="1">A24</f>
+        <v>12.863490198194921</v>
+      </c>
+      <c r="I102" s="7">
+        <f ca="1">B24</f>
+        <v>17.448440558505887</v>
       </c>
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A103" s="6">
-        <f ca="1">E103+C$98</f>
-        <v>49.509894552957746</v>
-      </c>
-      <c r="B103" s="6">
-        <f ca="1">F103+D$98</f>
-        <v>51.02897532533521</v>
-      </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6">
-        <f t="shared" ca="1" si="19"/>
-        <v>1.4398311979677165</v>
-      </c>
-      <c r="F103" s="6">
-        <f t="shared" ca="1" si="20"/>
-        <v>3.0075955041714759</v>
-      </c>
-      <c r="H103" s="6">
-        <f ca="1">$A$25</f>
-        <v>39.831244067699942</v>
-      </c>
-      <c r="I103" s="6">
-        <f ca="1">$B$25</f>
-        <v>71.349281071733856</v>
+      <c r="A103" s="7">
+        <f ca="1">E103+C98</f>
+        <v>48.742942003687304</v>
+      </c>
+      <c r="B103" s="7">
+        <f ca="1">F103+D98</f>
+        <v>51.411861627220816</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7">
+        <f ca="1">A12*D94</f>
+        <v>21.017725851594172</v>
+      </c>
+      <c r="F103" s="7">
+        <f ca="1">B12*D94</f>
+        <v>25.120918909403787</v>
+      </c>
+      <c r="H103" s="7">
+        <f ca="1">A25</f>
+        <v>47.542644044916102</v>
+      </c>
+      <c r="I103" s="7">
+        <f ca="1">B25</f>
+        <v>52.759973356505739</v>
       </c>
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.25">
@@ -16105,440 +16106,440 @@
       </c>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E106" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="F106" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A107" s="6">
-        <f ca="1">$A$16</f>
-        <v>32.465394849846035</v>
-      </c>
-      <c r="B107" s="6">
-        <f ca="1">$B$16</f>
-        <v>60.760563622769837</v>
+      <c r="A107" s="7">
+        <f ca="1">A16</f>
+        <v>42.147464999010346</v>
+      </c>
+      <c r="B107" s="7">
+        <f ca="1">B16</f>
+        <v>73.320052861658041</v>
       </c>
       <c r="C107" s="1">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>3</v>
-      </c>
-      <c r="E107" s="6">
-        <f ca="1">$A$16</f>
-        <v>32.465394849846035</v>
-      </c>
-      <c r="F107" s="6">
-        <f ca="1">$B$16</f>
-        <v>60.760563622769837</v>
-      </c>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
-      <c r="L107" s="6"/>
-      <c r="M107" s="6"/>
-      <c r="N107" s="6"/>
-      <c r="O107" s="6"/>
-      <c r="P107" s="6"/>
-      <c r="Q107" s="6"/>
-      <c r="R107" s="6"/>
-      <c r="S107" s="6"/>
-      <c r="T107" s="6"/>
-      <c r="U107" s="6"/>
-      <c r="V107" s="6"/>
-      <c r="W107" s="6"/>
-      <c r="X107" s="6"/>
-      <c r="Y107" s="6"/>
-      <c r="Z107" s="6"/>
-      <c r="AA107" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="E107" s="7">
+        <f ca="1">A16</f>
+        <v>42.147464999010346</v>
+      </c>
+      <c r="F107" s="7">
+        <f ca="1">B16</f>
+        <v>73.320052861658041</v>
+      </c>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7"/>
+      <c r="O107" s="7"/>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="7"/>
+      <c r="S107" s="7"/>
+      <c r="T107" s="7"/>
+      <c r="U107" s="7"/>
+      <c r="V107" s="7"/>
+      <c r="W107" s="7"/>
+      <c r="X107" s="7"/>
+      <c r="Y107" s="7"/>
+      <c r="Z107" s="7"/>
+      <c r="AA107" s="7"/>
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A108" s="6">
-        <f ca="1">$A$17</f>
-        <v>29.820745199543033</v>
-      </c>
-      <c r="B108" s="6">
-        <f ca="1">$B$17</f>
-        <v>62.304368426893433</v>
-      </c>
-      <c r="C108" s="6">
-        <f t="shared" ref="C108:C116" ca="1" si="21">RANDBETWEEN(1,10)</f>
-        <v>5</v>
-      </c>
-      <c r="E108" s="6">
-        <f ca="1">$A$17</f>
-        <v>29.820745199543033</v>
-      </c>
-      <c r="F108" s="6">
-        <f ca="1">$B$17</f>
-        <v>62.304368426893433</v>
-      </c>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
-      <c r="K108" s="6"/>
-      <c r="L108" s="6"/>
-      <c r="M108" s="6"/>
-      <c r="N108" s="6"/>
-      <c r="O108" s="6"/>
-      <c r="P108" s="6"/>
-      <c r="Q108" s="6"/>
-      <c r="R108" s="6"/>
-      <c r="S108" s="6"/>
-      <c r="T108" s="6"/>
-      <c r="U108" s="6"/>
-      <c r="V108" s="6"/>
-      <c r="W108" s="6"/>
-      <c r="X108" s="6"/>
-      <c r="Y108" s="6"/>
-      <c r="Z108" s="6"/>
-      <c r="AA108" s="6"/>
+      <c r="A108" s="7">
+        <f ca="1">A17</f>
+        <v>43.94578124933151</v>
+      </c>
+      <c r="B108" s="7">
+        <f ca="1">B17</f>
+        <v>86.312640874198763</v>
+      </c>
+      <c r="C108" s="7">
+        <f t="shared" ref="C108:C116" ca="1" si="4">RANDBETWEEN(1,10)</f>
+        <v>3</v>
+      </c>
+      <c r="E108" s="7">
+        <f ca="1">A17</f>
+        <v>43.94578124933151</v>
+      </c>
+      <c r="F108" s="7">
+        <f ca="1">B17</f>
+        <v>86.312640874198763</v>
+      </c>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="7"/>
+      <c r="O108" s="7"/>
+      <c r="P108" s="7"/>
+      <c r="Q108" s="7"/>
+      <c r="R108" s="7"/>
+      <c r="S108" s="7"/>
+      <c r="T108" s="7"/>
+      <c r="U108" s="7"/>
+      <c r="V108" s="7"/>
+      <c r="W108" s="7"/>
+      <c r="X108" s="7"/>
+      <c r="Y108" s="7"/>
+      <c r="Z108" s="7"/>
+      <c r="AA108" s="7"/>
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A109" s="6">
-        <f ca="1">$A$18</f>
-        <v>85.869551871631558</v>
-      </c>
-      <c r="B109" s="6">
-        <f ca="1">$B$18</f>
-        <v>21.708754064754743</v>
-      </c>
-      <c r="C109" s="6">
-        <f t="shared" ca="1" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="E109" s="6">
-        <f ca="1">$A$18</f>
-        <v>85.869551871631558</v>
-      </c>
-      <c r="F109" s="6">
-        <f ca="1">$B$18</f>
-        <v>21.708754064754743</v>
-      </c>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
-      <c r="K109" s="6"/>
-      <c r="L109" s="6"/>
-      <c r="M109" s="6"/>
-      <c r="N109" s="6"/>
-      <c r="O109" s="6"/>
-      <c r="P109" s="6"/>
-      <c r="Q109" s="6"/>
-      <c r="R109" s="6"/>
-      <c r="S109" s="6"/>
-      <c r="T109" s="6"/>
-      <c r="U109" s="6"/>
-      <c r="V109" s="6"/>
-      <c r="W109" s="6"/>
-      <c r="X109" s="6"/>
-      <c r="Y109" s="6"/>
-      <c r="Z109" s="6"/>
-      <c r="AA109" s="6"/>
+      <c r="A109" s="7">
+        <f ca="1">A18</f>
+        <v>81.686762313509703</v>
+      </c>
+      <c r="B109" s="7">
+        <f ca="1">B18</f>
+        <v>31.842765617872281</v>
+      </c>
+      <c r="C109" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E109" s="7">
+        <f ca="1">A18</f>
+        <v>81.686762313509703</v>
+      </c>
+      <c r="F109" s="7">
+        <f ca="1">B18</f>
+        <v>31.842765617872281</v>
+      </c>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="7"/>
+      <c r="O109" s="7"/>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="7"/>
+      <c r="R109" s="7"/>
+      <c r="S109" s="7"/>
+      <c r="T109" s="7"/>
+      <c r="U109" s="7"/>
+      <c r="V109" s="7"/>
+      <c r="W109" s="7"/>
+      <c r="X109" s="7"/>
+      <c r="Y109" s="7"/>
+      <c r="Z109" s="7"/>
+      <c r="AA109" s="7"/>
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A110" s="6">
-        <f ca="1">$A$19</f>
-        <v>21.115853852037574</v>
-      </c>
-      <c r="B110" s="6">
-        <f ca="1">$B$19</f>
-        <v>41.394408404230759</v>
-      </c>
-      <c r="C110" s="6">
-        <f t="shared" ca="1" si="21"/>
-        <v>8</v>
-      </c>
-      <c r="E110" s="6">
-        <f ca="1">$A$19</f>
-        <v>21.115853852037574</v>
-      </c>
-      <c r="F110" s="6">
-        <f ca="1">$B$19</f>
-        <v>41.394408404230759</v>
-      </c>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
-      <c r="M110" s="6"/>
-      <c r="N110" s="6"/>
-      <c r="O110" s="6"/>
-      <c r="P110" s="6"/>
-      <c r="Q110" s="6"/>
-      <c r="R110" s="6"/>
-      <c r="S110" s="6"/>
-      <c r="T110" s="6"/>
-      <c r="U110" s="6"/>
-      <c r="V110" s="6"/>
-      <c r="W110" s="6"/>
-      <c r="X110" s="6"/>
-      <c r="Y110" s="6"/>
-      <c r="Z110" s="6"/>
-      <c r="AA110" s="6"/>
+      <c r="A110" s="7">
+        <f ca="1">A19</f>
+        <v>87.962366104766602</v>
+      </c>
+      <c r="B110" s="7">
+        <f ca="1">B19</f>
+        <v>41.320409808164115</v>
+      </c>
+      <c r="C110" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E110" s="7">
+        <f ca="1">A19</f>
+        <v>87.962366104766602</v>
+      </c>
+      <c r="F110" s="7">
+        <f ca="1">B19</f>
+        <v>41.320409808164115</v>
+      </c>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="7"/>
+      <c r="O110" s="7"/>
+      <c r="P110" s="7"/>
+      <c r="Q110" s="7"/>
+      <c r="R110" s="7"/>
+      <c r="S110" s="7"/>
+      <c r="T110" s="7"/>
+      <c r="U110" s="7"/>
+      <c r="V110" s="7"/>
+      <c r="W110" s="7"/>
+      <c r="X110" s="7"/>
+      <c r="Y110" s="7"/>
+      <c r="Z110" s="7"/>
+      <c r="AA110" s="7"/>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A111" s="6">
-        <f ca="1">$A$20</f>
-        <v>60.023841619769144</v>
-      </c>
-      <c r="B111" s="6">
-        <f ca="1">$B$20</f>
-        <v>52.754966426484962</v>
-      </c>
-      <c r="C111" s="6">
-        <f t="shared" ca="1" si="21"/>
+      <c r="A111" s="7">
+        <f ca="1">A20</f>
+        <v>43.978325808100429</v>
+      </c>
+      <c r="B111" s="7">
+        <f ca="1">B20</f>
+        <v>65.249452573987099</v>
+      </c>
+      <c r="C111" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>7</v>
       </c>
-      <c r="E111" s="6">
-        <f ca="1">$A$20</f>
-        <v>60.023841619769144</v>
-      </c>
-      <c r="F111" s="6">
-        <f ca="1">$B$20</f>
-        <v>52.754966426484962</v>
-      </c>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
-      <c r="K111" s="6"/>
-      <c r="L111" s="6"/>
-      <c r="M111" s="6"/>
-      <c r="N111" s="6"/>
-      <c r="O111" s="6"/>
-      <c r="P111" s="6"/>
-      <c r="Q111" s="6"/>
-      <c r="R111" s="6"/>
-      <c r="S111" s="6"/>
-      <c r="T111" s="6"/>
-      <c r="U111" s="6"/>
-      <c r="V111" s="6"/>
-      <c r="W111" s="6"/>
-      <c r="X111" s="6"/>
-      <c r="Y111" s="6"/>
-      <c r="Z111" s="6"/>
-      <c r="AA111" s="6"/>
+      <c r="E111" s="7">
+        <f ca="1">A20</f>
+        <v>43.978325808100429</v>
+      </c>
+      <c r="F111" s="7">
+        <f ca="1">B20</f>
+        <v>65.249452573987099</v>
+      </c>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="7"/>
+      <c r="O111" s="7"/>
+      <c r="P111" s="7"/>
+      <c r="Q111" s="7"/>
+      <c r="R111" s="7"/>
+      <c r="S111" s="7"/>
+      <c r="T111" s="7"/>
+      <c r="U111" s="7"/>
+      <c r="V111" s="7"/>
+      <c r="W111" s="7"/>
+      <c r="X111" s="7"/>
+      <c r="Y111" s="7"/>
+      <c r="Z111" s="7"/>
+      <c r="AA111" s="7"/>
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A112" s="6">
-        <f ca="1">$A$21</f>
-        <v>60.906713654979818</v>
-      </c>
-      <c r="B112" s="6">
-        <f ca="1">$B$21</f>
-        <v>44.253448848267382</v>
-      </c>
-      <c r="C112" s="6">
-        <f t="shared" ca="1" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="E112" s="6">
-        <f ca="1">$A$21</f>
-        <v>60.906713654979818</v>
-      </c>
-      <c r="F112" s="6">
-        <f ca="1">$B$21</f>
-        <v>44.253448848267382</v>
-      </c>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="6"/>
-      <c r="K112" s="6"/>
-      <c r="L112" s="6"/>
-      <c r="M112" s="6"/>
-      <c r="N112" s="6"/>
-      <c r="O112" s="6"/>
-      <c r="P112" s="6"/>
-      <c r="Q112" s="6"/>
-      <c r="R112" s="6"/>
-      <c r="S112" s="6"/>
-      <c r="T112" s="6"/>
-      <c r="U112" s="6"/>
-      <c r="V112" s="6"/>
-      <c r="W112" s="6"/>
-      <c r="X112" s="6"/>
-      <c r="Y112" s="6"/>
-      <c r="Z112" s="6"/>
-      <c r="AA112" s="6"/>
+      <c r="A112" s="7">
+        <f ca="1">A21</f>
+        <v>16.055277363117128</v>
+      </c>
+      <c r="B112" s="7">
+        <f ca="1">B21</f>
+        <v>88.435372412676173</v>
+      </c>
+      <c r="C112" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E112" s="7">
+        <f ca="1">A21</f>
+        <v>16.055277363117128</v>
+      </c>
+      <c r="F112" s="7">
+        <f ca="1">B21</f>
+        <v>88.435372412676173</v>
+      </c>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
+      <c r="O112" s="7"/>
+      <c r="P112" s="7"/>
+      <c r="Q112" s="7"/>
+      <c r="R112" s="7"/>
+      <c r="S112" s="7"/>
+      <c r="T112" s="7"/>
+      <c r="U112" s="7"/>
+      <c r="V112" s="7"/>
+      <c r="W112" s="7"/>
+      <c r="X112" s="7"/>
+      <c r="Y112" s="7"/>
+      <c r="Z112" s="7"/>
+      <c r="AA112" s="7"/>
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A113" s="6">
-        <f ca="1">$A$22</f>
-        <v>13.4874984834312</v>
-      </c>
-      <c r="B113" s="6">
-        <f ca="1">$B$22</f>
-        <v>39.461281415269497</v>
-      </c>
-      <c r="C113" s="6">
-        <f t="shared" ca="1" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="E113" s="6">
-        <f ca="1">$A$22</f>
-        <v>13.4874984834312</v>
-      </c>
-      <c r="F113" s="6">
-        <f ca="1">$B$22</f>
-        <v>39.461281415269497</v>
-      </c>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="6"/>
-      <c r="K113" s="6"/>
-      <c r="L113" s="6"/>
-      <c r="M113" s="6"/>
-      <c r="N113" s="6"/>
-      <c r="O113" s="6"/>
-      <c r="P113" s="6"/>
-      <c r="Q113" s="6"/>
-      <c r="R113" s="6"/>
-      <c r="S113" s="6"/>
-      <c r="T113" s="6"/>
-      <c r="U113" s="6"/>
-      <c r="V113" s="6"/>
-      <c r="W113" s="6"/>
-      <c r="X113" s="6"/>
-      <c r="Y113" s="6"/>
-      <c r="Z113" s="6"/>
-      <c r="AA113" s="6"/>
+      <c r="A113" s="7">
+        <f ca="1">A22</f>
+        <v>74.547507517987711</v>
+      </c>
+      <c r="B113" s="7">
+        <f ca="1">B22</f>
+        <v>33.69061697722158</v>
+      </c>
+      <c r="C113" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="E113" s="7">
+        <f ca="1">A22</f>
+        <v>74.547507517987711</v>
+      </c>
+      <c r="F113" s="7">
+        <f ca="1">B22</f>
+        <v>33.69061697722158</v>
+      </c>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
+      <c r="M113" s="7"/>
+      <c r="N113" s="7"/>
+      <c r="O113" s="7"/>
+      <c r="P113" s="7"/>
+      <c r="Q113" s="7"/>
+      <c r="R113" s="7"/>
+      <c r="S113" s="7"/>
+      <c r="T113" s="7"/>
+      <c r="U113" s="7"/>
+      <c r="V113" s="7"/>
+      <c r="W113" s="7"/>
+      <c r="X113" s="7"/>
+      <c r="Y113" s="7"/>
+      <c r="Z113" s="7"/>
+      <c r="AA113" s="7"/>
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A114" s="6">
-        <f ca="1">$A$23</f>
-        <v>66.446239454073492</v>
-      </c>
-      <c r="B114" s="6">
-        <f ca="1">$B$23</f>
-        <v>60.14964875298768</v>
-      </c>
-      <c r="C114" s="6">
-        <f t="shared" ca="1" si="21"/>
-        <v>7</v>
-      </c>
-      <c r="E114" s="6">
-        <f ca="1">$A$23</f>
-        <v>66.446239454073492</v>
-      </c>
-      <c r="F114" s="6">
-        <f ca="1">$B$23</f>
-        <v>60.14964875298768</v>
-      </c>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
-      <c r="K114" s="6"/>
-      <c r="L114" s="6"/>
-      <c r="M114" s="6"/>
-      <c r="N114" s="6"/>
-      <c r="O114" s="6"/>
-      <c r="P114" s="6"/>
-      <c r="Q114" s="6"/>
-      <c r="R114" s="6"/>
-      <c r="S114" s="6"/>
-      <c r="T114" s="6"/>
-      <c r="U114" s="6"/>
-      <c r="V114" s="6"/>
-      <c r="W114" s="6"/>
-      <c r="X114" s="6"/>
-      <c r="Y114" s="6"/>
-      <c r="Z114" s="6"/>
-      <c r="AA114" s="6"/>
+      <c r="A114" s="7">
+        <f ca="1">A23</f>
+        <v>49.270380401065552</v>
+      </c>
+      <c r="B114" s="7">
+        <f ca="1">B23</f>
+        <v>9.6202749592102919</v>
+      </c>
+      <c r="C114" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E114" s="7">
+        <f ca="1">A23</f>
+        <v>49.270380401065552</v>
+      </c>
+      <c r="F114" s="7">
+        <f ca="1">B23</f>
+        <v>9.6202749592102919</v>
+      </c>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
+      <c r="N114" s="7"/>
+      <c r="O114" s="7"/>
+      <c r="P114" s="7"/>
+      <c r="Q114" s="7"/>
+      <c r="R114" s="7"/>
+      <c r="S114" s="7"/>
+      <c r="T114" s="7"/>
+      <c r="U114" s="7"/>
+      <c r="V114" s="7"/>
+      <c r="W114" s="7"/>
+      <c r="X114" s="7"/>
+      <c r="Y114" s="7"/>
+      <c r="Z114" s="7"/>
+      <c r="AA114" s="7"/>
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A115" s="6">
-        <f ca="1">$A$24</f>
-        <v>90.032916946988195</v>
-      </c>
-      <c r="B115" s="6">
-        <f ca="1">$B$24</f>
-        <v>45.863278966607893</v>
-      </c>
-      <c r="C115" s="6">
-        <f t="shared" ca="1" si="21"/>
-        <v>6</v>
-      </c>
-      <c r="E115" s="6">
-        <f ca="1">$A$24</f>
-        <v>90.032916946988195</v>
-      </c>
-      <c r="F115" s="6">
-        <f ca="1">$B$24</f>
-        <v>45.863278966607893</v>
-      </c>
-      <c r="H115" s="6"/>
-      <c r="I115" s="6"/>
-      <c r="J115" s="6"/>
-      <c r="K115" s="6"/>
-      <c r="L115" s="6"/>
-      <c r="M115" s="6"/>
-      <c r="N115" s="6"/>
-      <c r="O115" s="6"/>
-      <c r="P115" s="6"/>
-      <c r="Q115" s="6"/>
-      <c r="R115" s="6"/>
-      <c r="S115" s="6"/>
-      <c r="T115" s="6"/>
-      <c r="U115" s="6"/>
-      <c r="V115" s="6"/>
-      <c r="W115" s="6"/>
-      <c r="X115" s="6"/>
-      <c r="Y115" s="6"/>
-      <c r="Z115" s="6"/>
-      <c r="AA115" s="6"/>
+      <c r="A115" s="7">
+        <f ca="1">A24</f>
+        <v>12.863490198194921</v>
+      </c>
+      <c r="B115" s="7">
+        <f ca="1">B24</f>
+        <v>17.448440558505887</v>
+      </c>
+      <c r="C115" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E115" s="7">
+        <f ca="1">A24</f>
+        <v>12.863490198194921</v>
+      </c>
+      <c r="F115" s="7">
+        <f ca="1">B24</f>
+        <v>17.448440558505887</v>
+      </c>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
+      <c r="N115" s="7"/>
+      <c r="O115" s="7"/>
+      <c r="P115" s="7"/>
+      <c r="Q115" s="7"/>
+      <c r="R115" s="7"/>
+      <c r="S115" s="7"/>
+      <c r="T115" s="7"/>
+      <c r="U115" s="7"/>
+      <c r="V115" s="7"/>
+      <c r="W115" s="7"/>
+      <c r="X115" s="7"/>
+      <c r="Y115" s="7"/>
+      <c r="Z115" s="7"/>
+      <c r="AA115" s="7"/>
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A116" s="6">
-        <f ca="1">$A$25</f>
-        <v>39.831244067699942</v>
-      </c>
-      <c r="B116" s="6">
-        <f ca="1">$B$25</f>
-        <v>71.349281071733856</v>
-      </c>
-      <c r="C116" s="6">
-        <f t="shared" ca="1" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="E116" s="6">
-        <f ca="1">$A$25</f>
-        <v>39.831244067699942</v>
-      </c>
-      <c r="F116" s="6">
-        <f ca="1">$B$25</f>
-        <v>71.349281071733856</v>
-      </c>
-      <c r="H116" s="6"/>
-      <c r="I116" s="6"/>
-      <c r="J116" s="6"/>
-      <c r="K116" s="6"/>
-      <c r="L116" s="6"/>
-      <c r="M116" s="6"/>
-      <c r="N116" s="6"/>
-      <c r="O116" s="6"/>
-      <c r="P116" s="6"/>
-      <c r="Q116" s="6"/>
-      <c r="R116" s="6"/>
-      <c r="S116" s="6"/>
-      <c r="T116" s="6"/>
-      <c r="U116" s="6"/>
-      <c r="V116" s="6"/>
-      <c r="W116" s="6"/>
-      <c r="X116" s="6"/>
-      <c r="Y116" s="6"/>
-      <c r="Z116" s="6"/>
-      <c r="AA116" s="6"/>
+      <c r="A116" s="7">
+        <f ca="1">A25</f>
+        <v>47.542644044916102</v>
+      </c>
+      <c r="B116" s="7">
+        <f ca="1">B25</f>
+        <v>52.759973356505739</v>
+      </c>
+      <c r="C116" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="E116" s="7">
+        <f ca="1">A25</f>
+        <v>47.542644044916102</v>
+      </c>
+      <c r="F116" s="7">
+        <f ca="1">B25</f>
+        <v>52.759973356505739</v>
+      </c>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="7"/>
+      <c r="O116" s="7"/>
+      <c r="P116" s="7"/>
+      <c r="Q116" s="7"/>
+      <c r="R116" s="7"/>
+      <c r="S116" s="7"/>
+      <c r="T116" s="7"/>
+      <c r="U116" s="7"/>
+      <c r="V116" s="7"/>
+      <c r="W116" s="7"/>
+      <c r="X116" s="7"/>
+      <c r="Y116" s="7"/>
+      <c r="Z116" s="7"/>
+      <c r="AA116" s="7"/>
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
@@ -16552,219 +16553,219 @@
       <c r="B120" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D120" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E120" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <f ca="1">RANDBETWEEN($C$128,$C$122)</f>
-        <v>45</v>
+        <f ca="1">RANDBETWEEN(C128,C122)</f>
+        <v>26</v>
       </c>
       <c r="B121" s="1">
         <f ca="1">RANDBETWEEN(C130,C122)</f>
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D121" s="6">
-        <f ca="1">$A$16</f>
-        <v>32.465394849846035</v>
-      </c>
-      <c r="E121" s="6">
-        <f ca="1">$B$16</f>
-        <v>60.760563622769837</v>
+      <c r="D121" s="7">
+        <f ca="1">A16</f>
+        <v>42.147464999010346</v>
+      </c>
+      <c r="E121" s="7">
+        <f ca="1">B16</f>
+        <v>73.320052861658041</v>
       </c>
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <f ca="1">D121</f>
-        <v>32.465394849846035</v>
-      </c>
-      <c r="B122" s="6">
+        <v>42.147464999010346</v>
+      </c>
+      <c r="B122" s="7">
         <f ca="1">E121</f>
-        <v>60.760563622769837</v>
+        <v>73.320052861658041</v>
       </c>
       <c r="C122" s="1">
         <f ca="1">MAX(D121:D130)</f>
-        <v>90.032916946988195</v>
-      </c>
-      <c r="D122" s="6">
-        <f ca="1">$A$17</f>
-        <v>29.820745199543033</v>
-      </c>
-      <c r="E122" s="6">
-        <f ca="1">$B$17</f>
-        <v>62.304368426893433</v>
+        <v>87.962366104766602</v>
+      </c>
+      <c r="D122" s="7">
+        <f ca="1">A17</f>
+        <v>43.94578124933151</v>
+      </c>
+      <c r="E122" s="7">
+        <f ca="1">B17</f>
+        <v>86.312640874198763</v>
       </c>
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A123" s="6">
-        <f t="shared" ref="A123:B130" ca="1" si="22">D122</f>
-        <v>29.820745199543033</v>
-      </c>
-      <c r="B123" s="6">
-        <f t="shared" ca="1" si="22"/>
-        <v>62.304368426893433</v>
-      </c>
-      <c r="D123" s="6">
-        <f ca="1">$A$18</f>
-        <v>85.869551871631558</v>
-      </c>
-      <c r="E123" s="6">
-        <f ca="1">$B$18</f>
-        <v>21.708754064754743</v>
+      <c r="A123" s="7">
+        <f t="shared" ref="A123:B130" ca="1" si="5">D122</f>
+        <v>43.94578124933151</v>
+      </c>
+      <c r="B123" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>86.312640874198763</v>
+      </c>
+      <c r="D123" s="7">
+        <f ca="1">A18</f>
+        <v>81.686762313509703</v>
+      </c>
+      <c r="E123" s="7">
+        <f ca="1">B18</f>
+        <v>31.842765617872281</v>
       </c>
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A124" s="6">
-        <f t="shared" ca="1" si="22"/>
-        <v>85.869551871631558</v>
-      </c>
-      <c r="B124" s="6">
-        <f t="shared" ca="1" si="22"/>
-        <v>21.708754064754743</v>
+      <c r="A124" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>81.686762313509703</v>
+      </c>
+      <c r="B124" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>31.842765617872281</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D124" s="6">
-        <f ca="1">$A$19</f>
-        <v>21.115853852037574</v>
-      </c>
-      <c r="E124" s="6">
-        <f ca="1">$B$19</f>
-        <v>41.394408404230759</v>
+      <c r="D124" s="7">
+        <f ca="1">A19</f>
+        <v>87.962366104766602</v>
+      </c>
+      <c r="E124" s="7">
+        <f ca="1">B19</f>
+        <v>41.320409808164115</v>
       </c>
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A125" s="6">
-        <f t="shared" ca="1" si="22"/>
-        <v>21.115853852037574</v>
-      </c>
-      <c r="B125" s="6">
-        <f t="shared" ca="1" si="22"/>
-        <v>41.394408404230759</v>
+      <c r="A125" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>87.962366104766602</v>
+      </c>
+      <c r="B125" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>41.320409808164115</v>
       </c>
       <c r="C125" s="1">
         <f ca="1">MAX(E121:E130)</f>
-        <v>71.349281071733856</v>
-      </c>
-      <c r="D125" s="6">
-        <f ca="1">$A$20</f>
-        <v>60.023841619769144</v>
-      </c>
-      <c r="E125" s="6">
-        <f ca="1">$B$20</f>
-        <v>52.754966426484962</v>
+        <v>88.435372412676173</v>
+      </c>
+      <c r="D125" s="7">
+        <f ca="1">A20</f>
+        <v>43.978325808100429</v>
+      </c>
+      <c r="E125" s="7">
+        <f ca="1">B20</f>
+        <v>65.249452573987099</v>
       </c>
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A126" s="6">
-        <f t="shared" ca="1" si="22"/>
-        <v>60.023841619769144</v>
-      </c>
-      <c r="B126" s="6">
-        <f t="shared" ca="1" si="22"/>
-        <v>52.754966426484962</v>
-      </c>
-      <c r="D126" s="6">
-        <f ca="1">$A$21</f>
-        <v>60.906713654979818</v>
-      </c>
-      <c r="E126" s="6">
-        <f ca="1">$B$21</f>
-        <v>44.253448848267382</v>
+      <c r="A126" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>43.978325808100429</v>
+      </c>
+      <c r="B126" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>65.249452573987099</v>
+      </c>
+      <c r="D126" s="7">
+        <f ca="1">A21</f>
+        <v>16.055277363117128</v>
+      </c>
+      <c r="E126" s="7">
+        <f ca="1">B21</f>
+        <v>88.435372412676173</v>
       </c>
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A127" s="6">
-        <f t="shared" ca="1" si="22"/>
-        <v>60.906713654979818</v>
-      </c>
-      <c r="B127" s="6">
-        <f t="shared" ca="1" si="22"/>
-        <v>44.253448848267382</v>
+      <c r="A127" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>16.055277363117128</v>
+      </c>
+      <c r="B127" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>88.435372412676173</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D127" s="6">
-        <f ca="1">$A$22</f>
-        <v>13.4874984834312</v>
-      </c>
-      <c r="E127" s="6">
-        <f ca="1">$B$22</f>
-        <v>39.461281415269497</v>
+      <c r="D127" s="7">
+        <f ca="1">A22</f>
+        <v>74.547507517987711</v>
+      </c>
+      <c r="E127" s="7">
+        <f ca="1">B22</f>
+        <v>33.69061697722158</v>
       </c>
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A128" s="6">
-        <f t="shared" ca="1" si="22"/>
-        <v>13.4874984834312</v>
-      </c>
-      <c r="B128" s="6">
-        <f t="shared" ca="1" si="22"/>
-        <v>39.461281415269497</v>
+      <c r="A128" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>74.547507517987711</v>
+      </c>
+      <c r="B128" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>33.69061697722158</v>
       </c>
       <c r="C128" s="1">
         <f ca="1">MIN(D121:D130)</f>
-        <v>13.4874984834312</v>
-      </c>
-      <c r="D128" s="6">
-        <f ca="1">$A$23</f>
-        <v>66.446239454073492</v>
-      </c>
-      <c r="E128" s="6">
-        <f ca="1">$B$23</f>
-        <v>60.14964875298768</v>
+        <v>12.863490198194921</v>
+      </c>
+      <c r="D128" s="7">
+        <f ca="1">A23</f>
+        <v>49.270380401065552</v>
+      </c>
+      <c r="E128" s="7">
+        <f ca="1">B23</f>
+        <v>9.6202749592102919</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="6">
-        <f t="shared" ca="1" si="22"/>
-        <v>66.446239454073492</v>
-      </c>
-      <c r="B129" s="6">
-        <f t="shared" ca="1" si="22"/>
-        <v>60.14964875298768</v>
+      <c r="A129" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>49.270380401065552</v>
+      </c>
+      <c r="B129" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.6202749592102919</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D129" s="6">
-        <f ca="1">$A$24</f>
-        <v>90.032916946988195</v>
-      </c>
-      <c r="E129" s="6">
-        <f ca="1">$B$24</f>
-        <v>45.863278966607893</v>
+      <c r="D129" s="7">
+        <f ca="1">A24</f>
+        <v>12.863490198194921</v>
+      </c>
+      <c r="E129" s="7">
+        <f ca="1">B24</f>
+        <v>17.448440558505887</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="6">
-        <f t="shared" ca="1" si="22"/>
-        <v>90.032916946988195</v>
-      </c>
-      <c r="B130" s="6">
-        <f t="shared" ca="1" si="22"/>
-        <v>45.863278966607893</v>
+      <c r="A130" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>12.863490198194921</v>
+      </c>
+      <c r="B130" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>17.448440558505887</v>
       </c>
       <c r="C130" s="1">
         <f ca="1">MIN(E121:E130)</f>
-        <v>21.708754064754743</v>
-      </c>
-      <c r="D130" s="6">
-        <f ca="1">$A$25</f>
-        <v>39.831244067699942</v>
-      </c>
-      <c r="E130" s="6">
-        <f ca="1">$B$25</f>
-        <v>71.349281071733856</v>
+        <v>9.6202749592102919</v>
+      </c>
+      <c r="D130" s="7">
+        <f ca="1">A25</f>
+        <v>47.542644044916102</v>
+      </c>
+      <c r="E130" s="7">
+        <f ca="1">B25</f>
+        <v>52.759973356505739</v>
       </c>
     </row>
   </sheetData>

--- a/dots.xlsx
+++ b/dots.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="39">
   <si>
     <t>x</t>
   </si>
@@ -135,6 +135,9 @@
   <si>
     <t>F</t>
   </si>
+  <si>
+    <t>continue sequence</t>
+  </si>
 </sst>
 </file>
 
@@ -182,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -194,6 +197,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -287,34 +291,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35.691257646143505</c:v>
+                  <c:v>68.000959229361371</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.48957389646467</c:v>
+                  <c:v>29.638874441477373</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.230554960642863</c:v>
+                  <c:v>67.442060426206652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.506158751899761</c:v>
+                  <c:v>68.936363190229443</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.522118455233588</c:v>
+                  <c:v>49.604489756636212</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5990700102502871</c:v>
+                  <c:v>39.278024903404251</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68.09130016512087</c:v>
+                  <c:v>34.174216768308128</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42.814173048198711</c:v>
+                  <c:v>23.113380740049905</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.4072828453280808</c:v>
+                  <c:v>61.85503910763876</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41.086436692049261</c:v>
+                  <c:v>33.658221496853173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -326,34 +330,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>69.667630517339276</c:v>
+                  <c:v>65.530749942134051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.660218529879998</c:v>
+                  <c:v>9.4216860918708552</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.190343273553523</c:v>
+                  <c:v>12.314899581768884</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.667987463845357</c:v>
+                  <c:v>27.271496850139066</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.597030229668334</c:v>
+                  <c:v>3.0010684175107381</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84.782950068357408</c:v>
+                  <c:v>14.315037065330667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.038194632902826</c:v>
+                  <c:v>48.16882113832191</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.967852614891533</c:v>
+                  <c:v>47.209940277980479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.796018214187129</c:v>
+                  <c:v>79.50102188640021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49.107551012186981</c:v>
+                  <c:v>32.115638809014889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -400,34 +404,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.4870656128521564</c:v>
+                  <c:v>3.5026399866844686</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.077190216002492</c:v>
+                  <c:v>67.134754285596742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.449061665546807</c:v>
+                  <c:v>46.208596072521928</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.801698436538544</c:v>
+                  <c:v>7.2855708714915837</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.978945257420946</c:v>
+                  <c:v>49.356115938803967</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.0409442262985</c:v>
+                  <c:v>32.707535267138624</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.834469051875033</c:v>
+                  <c:v>81.228575291269209</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.500860179199613</c:v>
+                  <c:v>43.644758147795372</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.87687004625792</c:v>
+                  <c:v>63.7200671275465</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.635101937473861</c:v>
+                  <c:v>21.501856776863697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -439,34 +443,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>63.318542552317645</c:v>
+                  <c:v>55.986375276296357</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.783462252575521</c:v>
+                  <c:v>67.339005295886309</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.329460478256678</c:v>
+                  <c:v>34.013274683388609</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.749453930791624</c:v>
+                  <c:v>73.768756594766558</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.390074506970681</c:v>
+                  <c:v>37.717392109442279</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.088108816164752</c:v>
+                  <c:v>59.283952498252368</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.102067106033807</c:v>
+                  <c:v>52.299300670586803</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.993841988595456</c:v>
+                  <c:v>38.823794242966756</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.589240454838169</c:v>
+                  <c:v>1.9856161664013912</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.252600010988282</c:v>
+                  <c:v>42.465041247497112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -732,34 +736,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.147464999010346</c:v>
+                  <c:v>70.430796223344856</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.94578124933151</c:v>
+                  <c:v>32.068711435460855</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.686762313509703</c:v>
+                  <c:v>69.871897420190123</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.962366104766602</c:v>
+                  <c:v>71.366200184212914</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.978325808100429</c:v>
+                  <c:v>52.034326750619691</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.055277363117128</c:v>
+                  <c:v>41.70786189738773</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.547507517987711</c:v>
+                  <c:v>36.604053762291606</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.270380401065552</c:v>
+                  <c:v>25.543217734033384</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.863490198194921</c:v>
+                  <c:v>64.284876101622245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -771,34 +775,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73.320052861658041</c:v>
+                  <c:v>81.645713936086878</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.312640874198763</c:v>
+                  <c:v>25.53665008582368</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.842765617872281</c:v>
+                  <c:v>28.429863575721711</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.320409808164115</c:v>
+                  <c:v>43.386460844091893</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65.249452573987099</c:v>
+                  <c:v>19.116032411463564</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88.435372412676173</c:v>
+                  <c:v>30.430001059283494</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.69061697722158</c:v>
+                  <c:v>64.283785132274744</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6202749592102919</c:v>
+                  <c:v>63.324904271933306</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.448440558505887</c:v>
+                  <c:v>95.615985880353037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -845,34 +849,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>42.147464999010346</c:v>
+                  <c:v>70.430796223344856</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.94578124933151</c:v>
+                  <c:v>32.068711435460855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.686762313509703</c:v>
+                  <c:v>69.871897420190123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.962366104766602</c:v>
+                  <c:v>71.366200184212914</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.978325808100429</c:v>
+                  <c:v>52.034326750619691</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.055277363117128</c:v>
+                  <c:v>41.70786189738773</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.547507517987711</c:v>
+                  <c:v>36.604053762291606</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.270380401065552</c:v>
+                  <c:v>25.543217734033384</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.863490198194921</c:v>
+                  <c:v>64.284876101622245</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47.542644044916102</c:v>
+                  <c:v>36.088058490836652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -884,34 +888,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>73.320052861658041</c:v>
+                  <c:v>81.645713936086878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.312640874198763</c:v>
+                  <c:v>25.53665008582368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.842765617872281</c:v>
+                  <c:v>28.429863575721711</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.320409808164115</c:v>
+                  <c:v>43.386460844091893</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.249452573987099</c:v>
+                  <c:v>19.116032411463564</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.435372412676173</c:v>
+                  <c:v>30.430001059283494</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.69061697722158</c:v>
+                  <c:v>64.283785132274744</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6202749592102919</c:v>
+                  <c:v>63.324904271933306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.448440558505887</c:v>
+                  <c:v>95.615985880353037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.759973356505739</c:v>
+                  <c:v>48.230602802967717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -920,6 +924,481 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9CF8-40C0-8162-138BC4F34F5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1402429440"/>
+        <c:axId val="1402430688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1402429440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1402430688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1402430688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1402429440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11122472754822721"/>
+          <c:y val="8.1481481481481488E-2"/>
+          <c:w val="0.81922359418077828"/>
+          <c:h val="0.74667949839603387"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$132</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>continue sequence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$134:$A$148</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>68.000959229361371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.638874441477373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.442060426206652</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.936363190229443</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.604489756636212</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.278024903404251</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.174216768308128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.113380740049905</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.85503910763876</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.658221496853173</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.507600581192335</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6052115047504012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.03450793878552</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.13457910984873</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.1317009527140911</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$134:$B$148</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>65.530749942134051</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4216860918708552</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.314899581768884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.271496850139066</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0010684175107381</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.315037065330667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.16882113832191</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.209940277980479</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.50102188640021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.115638809014889</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74.040433209412939</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65.792331249418865</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88.549409153726756</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89.152717539196644</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46.609002559663494</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9535-4AAD-9E90-FCAB7758C330}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>base</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$134:$D$143</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>68.000959229361371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.638874441477373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.442060426206652</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.936363190229443</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.604489756636212</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.278024903404251</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.174216768308128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.113380740049905</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.85503910763876</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.658221496853173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$E$134:$E$143</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65.530749942134051</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4216860918708552</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.314899581768884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.271496850139066</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0010684175107381</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.315037065330667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.16882113832191</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.209940277980479</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.50102188640021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.115638809014889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9535-4AAD-9E90-FCAB7758C330}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1177,34 +1656,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>36.147464999010346</c:v>
+                  <c:v>66.930796223344842</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.94578124933151</c:v>
+                  <c:v>28.568711435460845</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.686762313509703</c:v>
+                  <c:v>66.371897420190123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.962366104766602</c:v>
+                  <c:v>67.866200184212914</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.978325808100429</c:v>
+                  <c:v>48.534326750619684</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.055277363117128</c:v>
+                  <c:v>38.207861897387723</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68.547507517987711</c:v>
+                  <c:v>33.104053762291599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43.270380401065552</c:v>
+                  <c:v>22.043217734033377</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.8634901981949215</c:v>
+                  <c:v>60.784876101622231</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41.542644044916102</c:v>
+                  <c:v>32.588058490836644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1216,34 +1695,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>66.820052861658041</c:v>
+                  <c:v>71.645713936086878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.812640874198763</c:v>
+                  <c:v>15.536650085823682</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.342765617872288</c:v>
+                  <c:v>18.429863575721711</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.820409808164122</c:v>
+                  <c:v>33.386460844091893</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.749452573987099</c:v>
+                  <c:v>9.1160324114635642</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81.935372412676173</c:v>
+                  <c:v>20.430001059283494</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.190616977221591</c:v>
+                  <c:v>54.283785132274737</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1202749592102981</c:v>
+                  <c:v>53.324904271933306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.948440558505894</c:v>
+                  <c:v>85.615985880353037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46.259973356505746</c:v>
+                  <c:v>38.230602802967717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1290,34 +1769,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>48.147464999010346</c:v>
+                  <c:v>73.930796223344842</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.94578124933151</c:v>
+                  <c:v>35.568711435460841</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.686762313509703</c:v>
+                  <c:v>73.371897420190123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.962366104766602</c:v>
+                  <c:v>74.866200184212914</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.978325808100429</c:v>
+                  <c:v>55.534326750619684</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.055277363117128</c:v>
+                  <c:v>45.207861897387723</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80.547507517987711</c:v>
+                  <c:v>40.104053762291599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55.270380401065552</c:v>
+                  <c:v>29.043217734033377</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.863490198194921</c:v>
+                  <c:v>67.784876101622231</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53.542644044916102</c:v>
+                  <c:v>39.588058490836644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1329,34 +1808,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>79.820052861658041</c:v>
+                  <c:v>91.645713936086878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92.812640874198763</c:v>
+                  <c:v>35.53665008582368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.342765617872288</c:v>
+                  <c:v>38.429863575721711</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.820409808164122</c:v>
+                  <c:v>53.386460844091893</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71.749452573987099</c:v>
+                  <c:v>29.116032411463564</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94.935372412676173</c:v>
+                  <c:v>40.430001059283498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.190616977221595</c:v>
+                  <c:v>74.28378513227473</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.120274959210299</c:v>
+                  <c:v>73.324904271933306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.948440558505894</c:v>
+                  <c:v>105.61598588035304</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>59.259973356505746</c:v>
+                  <c:v>58.230602802967717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1422,34 +1901,34 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>47.691257646143505</c:v>
+                        <c:v>75.000959229361371</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>49.48957389646467</c:v>
+                        <c:v>36.63887444147737</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>87.230554960642863</c:v>
+                        <c:v>74.442060426206652</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>93.506158751899761</c:v>
+                        <c:v>75.936363190229443</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>49.522118455233588</c:v>
+                        <c:v>56.604489756636212</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>21.599070010250287</c:v>
+                        <c:v>46.278024903404251</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>80.09130016512087</c:v>
+                        <c:v>41.174216768308128</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>54.814173048198711</c:v>
+                        <c:v>30.113380740049905</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>18.40728284532808</c:v>
+                        <c:v>68.85503910763876</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>53.086436692049261</c:v>
+                        <c:v>40.658221496853173</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1467,34 +1946,34 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>82.667630517339276</c:v>
+                        <c:v>85.530749942134051</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>95.660218529879998</c:v>
+                        <c:v>29.421686091870853</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>41.190343273553523</c:v>
+                        <c:v>32.314899581768884</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>50.667987463845357</c:v>
+                        <c:v>47.271496850139066</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>74.597030229668334</c:v>
+                        <c:v>23.001068417510737</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>97.782950068357408</c:v>
+                        <c:v>34.315037065330671</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>43.03819463290283</c:v>
+                        <c:v>68.168821138321903</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>18.967852614891534</c:v>
+                        <c:v>67.209940277980479</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>26.796018214187129</c:v>
+                        <c:v>99.50102188640021</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>62.107551012186981</c:v>
+                        <c:v>52.115638809014889</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1549,34 +2028,34 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>35.691257646143505</c:v>
+                        <c:v>68.000959229361371</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>37.48957389646467</c:v>
+                        <c:v>29.638874441477373</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>75.230554960642863</c:v>
+                        <c:v>67.442060426206652</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>81.506158751899761</c:v>
+                        <c:v>68.936363190229443</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>37.522118455233588</c:v>
+                        <c:v>49.604489756636212</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>9.5990700102502871</c:v>
+                        <c:v>39.278024903404251</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>68.09130016512087</c:v>
+                        <c:v>34.174216768308128</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>42.814173048198711</c:v>
+                        <c:v>23.113380740049905</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>6.4072828453280808</c:v>
+                        <c:v>61.85503910763876</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>41.086436692049261</c:v>
+                        <c:v>33.658221496853173</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1594,34 +2073,34 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>69.667630517339276</c:v>
+                        <c:v>65.530749942134051</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>82.660218529879998</c:v>
+                        <c:v>9.4216860918708552</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>28.190343273553523</c:v>
+                        <c:v>12.314899581768884</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>37.667987463845357</c:v>
+                        <c:v>27.271496850139066</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>61.597030229668334</c:v>
+                        <c:v>3.0010684175107381</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>84.782950068357408</c:v>
+                        <c:v>14.315037065330667</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>30.038194632902826</c:v>
+                        <c:v>48.16882113832191</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>5.967852614891533</c:v>
+                        <c:v>47.209940277980479</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>13.796018214187129</c:v>
+                        <c:v>79.50102188640021</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>49.107551012186981</c:v>
+                        <c:v>32.115638809014889</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1880,34 +2359,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>42.147464999010346</c:v>
+                  <c:v>70.430796223344856</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.94578124933151</c:v>
+                  <c:v>32.068711435460855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.686762313509703</c:v>
+                  <c:v>69.871897420190123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.962366104766602</c:v>
+                  <c:v>71.366200184212914</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.978325808100429</c:v>
+                  <c:v>52.034326750619691</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.055277363117128</c:v>
+                  <c:v>41.70786189738773</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.547507517987711</c:v>
+                  <c:v>36.604053762291606</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.270380401065552</c:v>
+                  <c:v>25.543217734033384</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.863490198194921</c:v>
+                  <c:v>64.284876101622245</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47.542644044916102</c:v>
+                  <c:v>36.088058490836652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1919,34 +2398,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>73.320052861658041</c:v>
+                  <c:v>81.645713936086878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.312640874198763</c:v>
+                  <c:v>25.53665008582368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.842765617872281</c:v>
+                  <c:v>28.429863575721711</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.320409808164115</c:v>
+                  <c:v>43.386460844091893</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.249452573987099</c:v>
+                  <c:v>19.116032411463564</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.435372412676173</c:v>
+                  <c:v>30.430001059283494</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.69061697722158</c:v>
+                  <c:v>64.283785132274744</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6202749592102919</c:v>
+                  <c:v>63.324904271933306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.448440558505887</c:v>
+                  <c:v>95.615985880353037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.759973356505739</c:v>
+                  <c:v>48.230602802967717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1993,34 +2472,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12.518844949905571</c:v>
+                  <c:v>11.873593010113265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.108969553055907</c:v>
+                  <c:v>75.505707309025539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.480841002600215</c:v>
+                  <c:v>54.579549095950725</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88.833477773591966</c:v>
+                  <c:v>15.65652389492038</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.010724594474361</c:v>
+                  <c:v>57.727068962232764</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.072723563351914</c:v>
+                  <c:v>41.078488290567421</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.866248388928447</c:v>
+                  <c:v>89.599528314698006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55.532639516253028</c:v>
+                  <c:v>52.015711171224169</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>79.908649383311342</c:v>
+                  <c:v>72.091020150975297</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.666881274527277</c:v>
+                  <c:v>29.872809800292494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2032,34 +2511,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>78.758857342564397</c:v>
+                  <c:v>59.618124397747906</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.223777042822263</c:v>
+                  <c:v>70.970754417337858</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.769775268503423</c:v>
+                  <c:v>37.645023804840157</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.189768721038369</c:v>
+                  <c:v>77.400505716218106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.830389297217422</c:v>
+                  <c:v>41.349141230893828</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.528423606411494</c:v>
+                  <c:v>62.915701619703917</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.542381896280553</c:v>
+                  <c:v>55.931049792038351</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77.434156778842208</c:v>
+                  <c:v>42.455543364418304</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48.029555245084914</c:v>
+                  <c:v>5.6173652878529392</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.692914801235027</c:v>
+                  <c:v>46.09679036894866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2325,34 +2804,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>42.147464999010346</c:v>
+                  <c:v>70.430796223344856</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.94578124933151</c:v>
+                  <c:v>32.068711435460855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.686762313509703</c:v>
+                  <c:v>69.871897420190123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.962366104766602</c:v>
+                  <c:v>71.366200184212914</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.978325808100429</c:v>
+                  <c:v>52.034326750619691</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.055277363117128</c:v>
+                  <c:v>41.70786189738773</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.547507517987711</c:v>
+                  <c:v>36.604053762291606</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.270380401065552</c:v>
+                  <c:v>25.543217734033384</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.863490198194921</c:v>
+                  <c:v>64.284876101622245</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47.542644044916102</c:v>
+                  <c:v>36.088058490836652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2364,34 +2843,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>73.320052861658041</c:v>
+                  <c:v>81.645713936086878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.312640874198763</c:v>
+                  <c:v>25.53665008582368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.842765617872281</c:v>
+                  <c:v>28.429863575721711</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.320409808164115</c:v>
+                  <c:v>43.386460844091893</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.249452573987099</c:v>
+                  <c:v>19.116032411463564</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.435372412676173</c:v>
+                  <c:v>30.430001059283494</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.69061697722158</c:v>
+                  <c:v>64.283785132274744</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6202749592102919</c:v>
+                  <c:v>63.324904271933306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.448440558505887</c:v>
+                  <c:v>95.615985880353037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.759973356505739</c:v>
+                  <c:v>48.230602802967717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2438,34 +2917,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>74.605254998657216</c:v>
+                  <c:v>62.977830787990399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.406230208912518</c:v>
+                  <c:v>41.254018906440585</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.939695871384906</c:v>
+                  <c:v>20.81411668899997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.01420291622663</c:v>
+                  <c:v>31.859692524470191</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66.363890900310338</c:v>
+                  <c:v>24.110678392122125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.043707553447433</c:v>
+                  <c:v>39.36103719855948</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.903258006828047</c:v>
+                  <c:v>69.46941971971026</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.822064229250142</c:v>
+                  <c:v>75.360200705164118</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.517439918127572</c:v>
+                  <c:v>77.833693108043917</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53.384255396855202</c:v>
+                  <c:v>56.959311968498952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2477,34 +2956,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>50.261911938152522</c:v>
+                  <c:v>14.638374572387448</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.536681053137798</c:v>
+                  <c:v>79.04297528352258</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.474992216367454</c:v>
+                  <c:v>47.110829219788855</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.577785215566848</c:v>
+                  <c:v>36.916321038338367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.014612478935646</c:v>
+                  <c:v>66.961750087238144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.406166396992106</c:v>
+                  <c:v>68.399915308555194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.693809538022293</c:v>
+                  <c:v>52.102281876039541</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63.171930739774893</c:v>
+                  <c:v>61.512927206183448</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95.377904700293513</c:v>
+                  <c:v>11.139205089930357</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51.484205722756897</c:v>
+                  <c:v>62.175420318015917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2570,34 +3049,34 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>56.707231094667534</c:v>
+                        <c:v>22.818855132752617</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>68.508206304922822</c:v>
+                        <c:v>1.095043251202803</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>5.0416719673952173</c:v>
+                        <c:v>-19.344858966237812</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>12.116179012236941</c:v>
+                        <c:v>-8.2992831307675914</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>48.465866996320642</c:v>
+                        <c:v>-16.048297263115657</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>79.145683649457752</c:v>
+                        <c:v>-0.79793845667830254</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>9.005234102838358</c:v>
+                        <c:v>29.31044406447247</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>-6.075959674739547</c:v>
+                        <c:v>35.201225049926329</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>12.619416014137885</c:v>
+                        <c:v>37.674717452806135</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>35.486231492865514</c:v>
+                        <c:v>16.80033631326117</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2615,34 +3094,34 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>-62.741763595352523</c:v>
+                        <c:v>-105.38415208757959</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>-68.466994480367248</c:v>
+                        <c:v>-40.979551376444462</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>-87.528683317137592</c:v>
+                        <c:v>-72.911697440178187</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>-96.425890317938197</c:v>
+                        <c:v>-83.106205621628675</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>-61.989063054569399</c:v>
+                        <c:v>-53.060776572728898</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>-42.59750913651294</c:v>
+                        <c:v>-51.622611351411848</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>-81.309865995482753</c:v>
+                        <c:v>-67.920244783927501</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>-49.831744793730152</c:v>
+                        <c:v>-58.509599453783594</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>-17.625770833211533</c:v>
+                        <c:v>-108.88332157003668</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>-61.519469810748149</c:v>
+                        <c:v>-57.847106341951125</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2901,34 +3380,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>42.147464999010346</c:v>
+                  <c:v>70.430796223344856</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.94578124933151</c:v>
+                  <c:v>32.068711435460855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.686762313509703</c:v>
+                  <c:v>69.871897420190123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.962366104766602</c:v>
+                  <c:v>71.366200184212914</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.978325808100429</c:v>
+                  <c:v>52.034326750619691</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.055277363117128</c:v>
+                  <c:v>41.70786189738773</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.547507517987711</c:v>
+                  <c:v>36.604053762291606</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.270380401065552</c:v>
+                  <c:v>25.543217734033384</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.863490198194921</c:v>
+                  <c:v>64.284876101622245</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47.542644044916102</c:v>
+                  <c:v>36.088058490836652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2940,34 +3419,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>73.320052861658041</c:v>
+                  <c:v>81.645713936086878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.312640874198763</c:v>
+                  <c:v>25.53665008582368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.842765617872281</c:v>
+                  <c:v>28.429863575721711</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.320409808164115</c:v>
+                  <c:v>43.386460844091893</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.249452573987099</c:v>
+                  <c:v>19.116032411463564</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.435372412676173</c:v>
+                  <c:v>30.430001059283494</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.69061697722158</c:v>
+                  <c:v>64.283785132274744</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6202749592102919</c:v>
+                  <c:v>63.324904271933306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.448440558505887</c:v>
+                  <c:v>95.615985880353037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.759973356505739</c:v>
+                  <c:v>48.230602802967717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3014,34 +3493,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>42.147464999010346</c:v>
+                  <c:v>70.430796223344856</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.94578124933151</c:v>
+                  <c:v>32.068711435460855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.686762313509703</c:v>
+                  <c:v>69.871897420190123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.962366104766602</c:v>
+                  <c:v>71.366200184212914</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.978325808100429</c:v>
+                  <c:v>49.356115938803967</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.0409442262985</c:v>
+                  <c:v>32.707535267138624</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.834469051875033</c:v>
+                  <c:v>81.228575291269209</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.500860179199613</c:v>
+                  <c:v>43.644758147795372</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.87687004625792</c:v>
+                  <c:v>63.7200671275465</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.635101937473861</c:v>
+                  <c:v>21.501856776863697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3053,34 +3532,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>73.320052861658041</c:v>
+                  <c:v>81.645713936086878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.312640874198763</c:v>
+                  <c:v>25.53665008582368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.842765617872281</c:v>
+                  <c:v>28.429863575721711</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.320409808164115</c:v>
+                  <c:v>43.386460844091893</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.249452573987099</c:v>
+                  <c:v>37.717392109442279</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.088108816164752</c:v>
+                  <c:v>59.283952498252368</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.102067106033807</c:v>
+                  <c:v>52.299300670586803</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.993841988595456</c:v>
+                  <c:v>38.823794242966756</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.589240454838169</c:v>
+                  <c:v>1.9856161664013912</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.252600010988282</c:v>
+                  <c:v>42.465041247497112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3338,34 +3817,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>42.147464999010346</c:v>
+                  <c:v>70.430796223344856</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.94578124933151</c:v>
+                  <c:v>32.068711435460855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.686762313509703</c:v>
+                  <c:v>69.871897420190123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.962366104766602</c:v>
+                  <c:v>71.366200184212914</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.978325808100429</c:v>
+                  <c:v>52.034326750619691</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.055277363117128</c:v>
+                  <c:v>41.70786189738773</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.547507517987711</c:v>
+                  <c:v>36.604053762291606</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.270380401065552</c:v>
+                  <c:v>25.543217734033384</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.863490198194921</c:v>
+                  <c:v>64.284876101622245</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47.542644044916102</c:v>
+                  <c:v>36.088058490836652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3377,34 +3856,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>73.320052861658041</c:v>
+                  <c:v>81.645713936086878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.312640874198763</c:v>
+                  <c:v>25.53665008582368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.842765617872281</c:v>
+                  <c:v>28.429863575721711</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.320409808164115</c:v>
+                  <c:v>43.386460844091893</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.249452573987099</c:v>
+                  <c:v>19.116032411463564</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.435372412676173</c:v>
+                  <c:v>30.430001059283494</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.69061697722158</c:v>
+                  <c:v>64.283785132274744</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6202749592102919</c:v>
+                  <c:v>63.324904271933306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.448440558505887</c:v>
+                  <c:v>95.615985880353037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.759973356505739</c:v>
+                  <c:v>48.230602802967717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3451,34 +3930,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>47.542644044916102</c:v>
+                  <c:v>36.088058490836652</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.863490198194921</c:v>
+                  <c:v>64.284876101622245</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.270380401065552</c:v>
+                  <c:v>25.543217734033384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.547507517987711</c:v>
+                  <c:v>36.604053762291606</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.055277363117128</c:v>
+                  <c:v>41.70786189738773</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.978325808100429</c:v>
+                  <c:v>52.034326750619691</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>87.962366104766602</c:v>
+                  <c:v>71.366200184212914</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81.686762313509703</c:v>
+                  <c:v>69.871897420190123</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43.94578124933151</c:v>
+                  <c:v>32.068711435460855</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.147464999010346</c:v>
+                  <c:v>70.430796223344856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3490,34 +3969,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>52.759973356505739</c:v>
+                  <c:v>48.230602802967717</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.448440558505887</c:v>
+                  <c:v>95.615985880353037</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6202749592102919</c:v>
+                  <c:v>63.324904271933306</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.69061697722158</c:v>
+                  <c:v>64.283785132274744</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88.435372412676173</c:v>
+                  <c:v>30.430001059283494</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65.249452573987099</c:v>
+                  <c:v>19.116032411463564</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.320409808164115</c:v>
+                  <c:v>43.386460844091893</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.842765617872281</c:v>
+                  <c:v>28.429863575721711</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>86.312640874198763</c:v>
+                  <c:v>25.53665008582368</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>73.320052861658041</c:v>
+                  <c:v>81.645713936086878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3775,34 +4254,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>45.375568675443766</c:v>
+                  <c:v>71.645714720336585</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.173884925764931</c:v>
+                  <c:v>33.283629932452584</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84.914865989943124</c:v>
+                  <c:v>71.086815917181852</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.190469781200022</c:v>
+                  <c:v>72.581118681204643</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.206429484533849</c:v>
+                  <c:v>53.24924524761142</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.283381039550548</c:v>
+                  <c:v>42.922780394379458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77.775611194421131</c:v>
+                  <c:v>37.818972259283335</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.498484077498972</c:v>
+                  <c:v>26.758136231025112</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.091593874628341</c:v>
+                  <c:v>65.499794598613974</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.770747721349522</c:v>
+                  <c:v>37.30297698782838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3814,34 +4293,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>75.674217232094719</c:v>
+                  <c:v>90.19329101092292</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.666805244635441</c:v>
+                  <c:v>34.084227160659722</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.196929988308959</c:v>
+                  <c:v>36.977440650557753</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.674574178600793</c:v>
+                  <c:v>51.934037918927935</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67.603616944423777</c:v>
+                  <c:v>27.663609486299606</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90.789536783112851</c:v>
+                  <c:v>38.97757813411954</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.044781347658258</c:v>
+                  <c:v>72.831362207110786</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.97443932964697</c:v>
+                  <c:v>71.872481346769348</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.802604928942564</c:v>
+                  <c:v>104.16356295518908</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55.114137726942417</c:v>
+                  <c:v>56.778179877803758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3896,34 +4375,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>38.919361322576925</c:v>
+                  <c:v>69.215877726353099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.71767757289809</c:v>
+                  <c:v>30.853792938469102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.458658637076283</c:v>
+                  <c:v>68.65697892319838</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.734262428333182</c:v>
+                  <c:v>70.151281687221172</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.750222131667009</c:v>
+                  <c:v>50.819408253627941</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.827173686683707</c:v>
+                  <c:v>40.49294340039598</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71.319403841554291</c:v>
+                  <c:v>35.389135265299856</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.042276724632131</c:v>
+                  <c:v>24.328299237041634</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6353865217615002</c:v>
+                  <c:v>63.069957604630488</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.314540368482682</c:v>
+                  <c:v>34.873139993844902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3935,34 +4414,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>70.021794887775954</c:v>
+                  <c:v>72.276425459777528</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84.455318934770773</c:v>
+                  <c:v>17.969263166706895</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.544507643990201</c:v>
+                  <c:v>20.862476656604926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.022151834282035</c:v>
+                  <c:v>35.819073924975108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.951194600105012</c:v>
+                  <c:v>11.548645492346779</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83.137114438794086</c:v>
+                  <c:v>22.862614140166709</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.392359003339507</c:v>
+                  <c:v>54.716398213157952</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.3220169853282115</c:v>
+                  <c:v>53.757517352816521</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.150182584623806</c:v>
+                  <c:v>84.048598961236252</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49.461715382623659</c:v>
+                  <c:v>40.663215883850931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4028,34 +4507,34 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>35.691257646143505</c:v>
+                        <c:v>68.000959229361371</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>37.48957389646467</c:v>
+                        <c:v>29.638874441477373</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>75.230554960642863</c:v>
+                        <c:v>67.442060426206652</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>81.506158751899761</c:v>
+                        <c:v>68.936363190229443</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>37.522118455233588</c:v>
+                        <c:v>49.604489756636212</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>9.5990700102502871</c:v>
+                        <c:v>39.278024903404251</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>68.09130016512087</c:v>
+                        <c:v>34.174216768308128</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>42.814173048198711</c:v>
+                        <c:v>23.113380740049905</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>6.4072828453280808</c:v>
+                        <c:v>61.85503910763876</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>41.086436692049261</c:v>
+                        <c:v>33.658221496853173</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4073,34 +4552,34 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>67.667630517339276</c:v>
+                        <c:v>63.728848384941486</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>82.101154564334095</c:v>
+                        <c:v>9.4216860918708552</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>28.190343273553523</c:v>
+                        <c:v>12.314899581768884</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>37.667987463845357</c:v>
+                        <c:v>27.271496850139066</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>59.597030229668334</c:v>
+                        <c:v>3.0010684175107381</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>80.782950068357408</c:v>
+                        <c:v>14.315037065330667</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>30.038194632902826</c:v>
+                        <c:v>46.16882113832191</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>5.967852614891533</c:v>
+                        <c:v>45.209940277980479</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>13.796018214187129</c:v>
+                        <c:v>75.50102188640021</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>47.107551012186981</c:v>
+                        <c:v>32.115638809014889</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4155,34 +4634,34 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>42.147464999010346</c:v>
+                        <c:v>70.430796223344856</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>43.94578124933151</c:v>
+                        <c:v>32.068711435460855</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>81.686762313509703</c:v>
+                        <c:v>69.871897420190123</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>87.962366104766602</c:v>
+                        <c:v>71.366200184212914</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>43.978325808100429</c:v>
+                        <c:v>52.034326750619691</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>16.055277363117128</c:v>
+                        <c:v>41.70786189738773</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>74.547507517987711</c:v>
+                        <c:v>36.604053762291606</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>49.270380401065552</c:v>
+                        <c:v>25.543217734033384</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>12.863490198194921</c:v>
+                        <c:v>64.284876101622245</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>47.542644044916102</c:v>
+                        <c:v>36.088058490836652</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4200,34 +4679,34 @@
                       <c:formatCode>0</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>73.320052861658041</c:v>
+                        <c:v>81.645713936086878</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>86.312640874198763</c:v>
+                        <c:v>25.53665008582368</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>31.842765617872281</c:v>
+                        <c:v>28.429863575721711</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>41.320409808164115</c:v>
+                        <c:v>43.386460844091893</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>65.249452573987099</c:v>
+                        <c:v>19.116032411463564</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>88.435372412676173</c:v>
+                        <c:v>30.430001059283494</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>33.69061697722158</c:v>
+                        <c:v>64.283785132274744</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>9.6202749592102919</c:v>
+                        <c:v>63.324904271933306</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>17.448440558505887</c:v>
+                        <c:v>95.615985880353037</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>52.759973356505739</c:v>
+                        <c:v>48.230602802967717</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4478,34 +4957,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>42.147464999010346</c:v>
+                  <c:v>70.430796223344856</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.94578124933151</c:v>
+                  <c:v>32.068711435460855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.686762313509703</c:v>
+                  <c:v>69.871897420190123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.962366104766602</c:v>
+                  <c:v>71.366200184212914</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.978325808100429</c:v>
+                  <c:v>52.034326750619691</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.055277363117128</c:v>
+                  <c:v>41.70786189738773</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.547507517987711</c:v>
+                  <c:v>36.604053762291606</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.270380401065552</c:v>
+                  <c:v>25.543217734033384</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.863490198194921</c:v>
+                  <c:v>64.284876101622245</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47.542644044916102</c:v>
+                  <c:v>36.088058490836652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4517,34 +4996,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>73.320052861658041</c:v>
+                  <c:v>81.645713936086878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.312640874198763</c:v>
+                  <c:v>25.53665008582368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.842765617872281</c:v>
+                  <c:v>28.429863575721711</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.320409808164115</c:v>
+                  <c:v>43.386460844091893</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.249452573987099</c:v>
+                  <c:v>19.116032411463564</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.435372412676173</c:v>
+                  <c:v>30.430001059283494</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.69061697722158</c:v>
+                  <c:v>64.283785132274744</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6202749592102919</c:v>
+                  <c:v>63.324904271933306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.448440558505887</c:v>
+                  <c:v>95.615985880353037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.759973356505739</c:v>
+                  <c:v>48.230602802967717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4599,34 +5078,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>45.983043525339681</c:v>
+                  <c:v>57.121678913907942</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.90297041573929</c:v>
+                  <c:v>43.749588695747349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.209331766140934</c:v>
+                  <c:v>56.926860377326022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.419610647867046</c:v>
+                  <c:v>57.447737996054151</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.919618552429583</c:v>
+                  <c:v>50.70911685308343</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.635610874756949</c:v>
+                  <c:v>47.109562229928684</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62.557253071616501</c:v>
+                  <c:v>45.330498781837811</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.626763819376876</c:v>
+                  <c:v>41.474960218801641</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.002855323045807</c:v>
+                  <c:v>54.979360559842895</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48.742942003687304</c:v>
+                  <c:v>45.150635373470095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4638,34 +5117,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>61.929349862210366</c:v>
+                  <c:v>61.030926606603671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.575695345928921</c:v>
+                  <c:v>41.472670896287845</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.711684799364718</c:v>
+                  <c:v>42.481174788118423</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.559964264521049</c:v>
+                  <c:v>47.694681017907769</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.800842306896143</c:v>
+                  <c:v>39.234599652960199</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69.661576554529432</c:v>
+                  <c:v>43.178374093807882</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.656951325551816</c:v>
+                  <c:v>54.978980274448588</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.343791791165415</c:v>
+                  <c:v>54.644737715842844</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.348282122611316</c:v>
+                  <c:v>65.9006238048635</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51.411861627220816</c:v>
+                  <c:v>49.383231149159315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4923,34 +5402,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>42.147464999010346</c:v>
+                  <c:v>70.430796223344856</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.94578124933151</c:v>
+                  <c:v>32.068711435460855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.686762313509703</c:v>
+                  <c:v>69.871897420190123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.962366104766602</c:v>
+                  <c:v>71.366200184212914</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.978325808100429</c:v>
+                  <c:v>52.034326750619691</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.055277363117128</c:v>
+                  <c:v>41.70786189738773</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.547507517987711</c:v>
+                  <c:v>36.604053762291606</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.270380401065552</c:v>
+                  <c:v>25.543217734033384</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.863490198194921</c:v>
+                  <c:v>64.284876101622245</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47.542644044916102</c:v>
+                  <c:v>36.088058490836652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4962,34 +5441,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>73.320052861658041</c:v>
+                  <c:v>81.645713936086878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.312640874198763</c:v>
+                  <c:v>25.53665008582368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.842765617872281</c:v>
+                  <c:v>28.429863575721711</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.320409808164115</c:v>
+                  <c:v>43.386460844091893</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.249452573987099</c:v>
+                  <c:v>19.116032411463564</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.435372412676173</c:v>
+                  <c:v>30.430001059283494</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.69061697722158</c:v>
+                  <c:v>64.283785132274744</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6202749592102919</c:v>
+                  <c:v>63.324904271933306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.448440558505887</c:v>
+                  <c:v>95.615985880353037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.759973356505739</c:v>
+                  <c:v>48.230602802967717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5044,34 +5523,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>42.147464999010346</c:v>
+                  <c:v>70.430796223344856</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.94578124933151</c:v>
+                  <c:v>32.068711435460855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.686762313509703</c:v>
+                  <c:v>69.871897420190123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.962366104766602</c:v>
+                  <c:v>71.366200184212914</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.978325808100429</c:v>
+                  <c:v>52.034326750619691</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.055277363117128</c:v>
+                  <c:v>41.70786189738773</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.547507517987711</c:v>
+                  <c:v>36.604053762291606</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.270380401065552</c:v>
+                  <c:v>25.543217734033384</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.863490198194921</c:v>
+                  <c:v>64.284876101622245</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47.542644044916102</c:v>
+                  <c:v>36.088058490836652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5083,34 +5562,34 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>73.320052861658041</c:v>
+                  <c:v>81.645713936086878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.312640874198763</c:v>
+                  <c:v>25.53665008582368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.842765617872281</c:v>
+                  <c:v>28.429863575721711</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.320409808164115</c:v>
+                  <c:v>43.386460844091893</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.249452573987099</c:v>
+                  <c:v>19.116032411463564</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.435372412676173</c:v>
+                  <c:v>30.430001059283494</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.69061697722158</c:v>
+                  <c:v>64.283785132274744</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6202749592102919</c:v>
+                  <c:v>63.324904271933306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.448440558505887</c:v>
+                  <c:v>95.615985880353037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.759973356505739</c:v>
+                  <c:v>48.230602802967717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5343,6 +5822,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6734,6 +7253,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -11184,6 +12219,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="29" name="Gráfico 28"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11449,6 +12516,258 @@
 </file>
 
 <file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride10.xml><?xml version="1.0" encoding="utf-8"?>
 <a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:clrScheme name="Office">
     <a:dk1>
@@ -13718,10 +15037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA130"/>
+  <dimension ref="A1:AA148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z128" sqref="Z128"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O129" sqref="O129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13755,181 +15074,181 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f ca="1">RAND()*85</f>
-        <v>35.691257646143505</v>
+        <v>68.000959229361371</v>
       </c>
       <c r="B3" s="1">
         <f ca="1">RAND()*85</f>
-        <v>69.667630517339276</v>
+        <v>65.530749942134051</v>
       </c>
       <c r="D3" s="1">
         <f ca="1">RAND()*85</f>
-        <v>3.4870656128521564</v>
+        <v>3.5026399866844686</v>
       </c>
       <c r="E3" s="1">
         <f ca="1">RAND()*85</f>
-        <v>63.318542552317645</v>
+        <v>55.986375276296357</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:E12" ca="1" si="0">RAND()*85</f>
-        <v>37.48957389646467</v>
+        <v>29.638874441477373</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>82.660218529879998</v>
+        <v>9.4216860918708552</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45.077190216002492</v>
+        <v>67.134754285596742</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>17.783462252575521</v>
+        <v>67.339005295886309</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>75.230554960642863</v>
+        <v>67.442060426206652</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>28.190343273553523</v>
+        <v>12.314899581768884</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>58.449061665546807</v>
+        <v>46.208596072521928</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>25.329460478256678</v>
+        <v>34.013274683388609</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>81.506158751899761</v>
+        <v>68.936363190229443</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>37.667987463845357</v>
+        <v>27.271496850139066</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>79.801698436538544</v>
+        <v>7.2855708714915837</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>31.749453930791624</v>
+        <v>73.768756594766558</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>37.522118455233588</v>
+        <v>49.604489756636212</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>61.597030229668334</v>
+        <v>3.0010684175107381</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>41.978945257420946</v>
+        <v>49.356115938803967</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>17.390074506970681</v>
+        <v>37.717392109442279</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5990700102502871</v>
+        <v>39.278024903404251</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>84.782950068357408</v>
+        <v>14.315037065330667</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18.0409442262985</v>
+        <v>32.707535267138624</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>28.088108816164752</v>
+        <v>59.283952498252368</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68.09130016512087</v>
+        <v>34.174216768308128</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>30.038194632902826</v>
+        <v>48.16882113832191</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>34.834469051875033</v>
+        <v>81.228575291269209</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>30.102067106033807</v>
+        <v>52.299300670586803</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>42.814173048198711</v>
+        <v>23.113380740049905</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.967852614891533</v>
+        <v>47.209940277980479</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>46.500860179199613</v>
+        <v>43.644758147795372</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>61.993841988595456</v>
+        <v>38.823794242966756</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4072828453280808</v>
+        <v>61.85503910763876</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>13.796018214187129</v>
+        <v>79.50102188640021</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>70.87687004625792</v>
+        <v>63.7200671275465</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>32.589240454838169</v>
+        <v>1.9856161664013912</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>41.086436692049261</v>
+        <v>33.658221496853173</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>49.107551012186981</v>
+        <v>32.115638809014889</v>
       </c>
       <c r="D12" s="1">
         <f ca="1">RAND()*85</f>
-        <v>10.635101937473861</v>
+        <v>21.501856776863697</v>
       </c>
       <c r="E12" s="1">
         <f ca="1">RAND()*85</f>
-        <v>37.252600010988282</v>
+        <v>42.465041247497112</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -13957,19 +15276,19 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f ca="1">A3+F17</f>
-        <v>42.147464999010346</v>
+        <v>70.430796223344856</v>
       </c>
       <c r="B16" s="1">
         <f ca="1">B3+G17</f>
-        <v>73.320052861658041</v>
+        <v>81.645713936086878</v>
       </c>
       <c r="D16" s="1">
         <f ca="1">D3+F19</f>
-        <v>12.518844949905571</v>
+        <v>11.873593010113265</v>
       </c>
       <c r="E16" s="1">
         <f ca="1">E3+G19</f>
-        <v>78.758857342564397</v>
+        <v>59.618124397747906</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -13981,45 +15300,45 @@
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f ca="1">A4+F17</f>
-        <v>43.94578124933151</v>
+        <v>32.068711435460855</v>
       </c>
       <c r="B17" s="1">
         <f ca="1">B4+G17</f>
-        <v>86.312640874198763</v>
+        <v>25.53665008582368</v>
       </c>
       <c r="D17" s="1">
         <f ca="1">D4+F19</f>
-        <v>54.108969553055907</v>
+        <v>75.505707309025539</v>
       </c>
       <c r="E17" s="1">
         <f ca="1">E4+G19</f>
-        <v>33.223777042822263</v>
+        <v>70.970754417337858</v>
       </c>
       <c r="F17" s="1">
         <f ca="1">50-AVERAGE(A3:A12)</f>
-        <v>6.4562073528668407</v>
+        <v>2.4298369939834785</v>
       </c>
       <c r="G17" s="1">
         <f ca="1">50-AVERAGE(B3:B12)</f>
-        <v>3.652422344318758</v>
+        <v>16.114963993952827</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f ca="1">A5+F17</f>
-        <v>81.686762313509703</v>
+        <v>69.871897420190123</v>
       </c>
       <c r="B18" s="1">
         <f ca="1">B5+G17</f>
-        <v>31.842765617872281</v>
+        <v>28.429863575721711</v>
       </c>
       <c r="D18" s="1">
         <f ca="1">D5+F19</f>
-        <v>67.480841002600215</v>
+        <v>54.579549095950725</v>
       </c>
       <c r="E18" s="1">
         <f ca="1">E5+G19</f>
-        <v>40.769775268503423</v>
+        <v>37.645023804840157</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -14031,135 +15350,135 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f ca="1">A6+F17</f>
-        <v>87.962366104766602</v>
+        <v>71.366200184212914</v>
       </c>
       <c r="B19" s="1">
         <f ca="1">B6+G17</f>
-        <v>41.320409808164115</v>
+        <v>43.386460844091893</v>
       </c>
       <c r="D19" s="1">
         <f ca="1">D6+F19</f>
-        <v>88.833477773591966</v>
+        <v>15.65652389492038</v>
       </c>
       <c r="E19" s="1">
         <f ca="1">E6+G19</f>
-        <v>47.189768721038369</v>
+        <v>77.400505716218106</v>
       </c>
       <c r="F19" s="1">
         <f ca="1">50-AVERAGE(D3:D12)</f>
-        <v>9.0317793370534147</v>
+        <v>8.3709530234287968</v>
       </c>
       <c r="G19" s="1">
         <f ca="1">50-AVERAGE(E3:E12)</f>
-        <v>15.440314790246745</v>
+        <v>3.6317491214515485</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f ca="1">A7+F17</f>
-        <v>43.978325808100429</v>
+        <v>52.034326750619691</v>
       </c>
       <c r="B20" s="1">
         <f ca="1">B7+G17</f>
-        <v>65.249452573987099</v>
+        <v>19.116032411463564</v>
       </c>
       <c r="D20" s="1">
         <f ca="1">D7+F19</f>
-        <v>51.010724594474361</v>
+        <v>57.727068962232764</v>
       </c>
       <c r="E20" s="1">
         <f ca="1">E7+G19</f>
-        <v>32.830389297217422</v>
+        <v>41.349141230893828</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f ca="1">A8+F17</f>
-        <v>16.055277363117128</v>
+        <v>41.70786189738773</v>
       </c>
       <c r="B21" s="1">
         <f ca="1">B8+G17</f>
-        <v>88.435372412676173</v>
+        <v>30.430001059283494</v>
       </c>
       <c r="D21" s="1">
         <f ca="1">D8+F19</f>
-        <v>27.072723563351914</v>
+        <v>41.078488290567421</v>
       </c>
       <c r="E21" s="1">
         <f ca="1">E8+G19</f>
-        <v>43.528423606411494</v>
+        <v>62.915701619703917</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f ca="1">A9+F17</f>
-        <v>74.547507517987711</v>
+        <v>36.604053762291606</v>
       </c>
       <c r="B22" s="1">
         <f ca="1">B9+G17</f>
-        <v>33.69061697722158</v>
+        <v>64.283785132274744</v>
       </c>
       <c r="D22" s="1">
         <f ca="1">D9+F19</f>
-        <v>43.866248388928447</v>
+        <v>89.599528314698006</v>
       </c>
       <c r="E22" s="1">
         <f ca="1">E9+G19</f>
-        <v>45.542381896280553</v>
+        <v>55.931049792038351</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f ca="1">A10+F17</f>
-        <v>49.270380401065552</v>
+        <v>25.543217734033384</v>
       </c>
       <c r="B23" s="1">
         <f ca="1">B10+G17</f>
-        <v>9.6202749592102919</v>
+        <v>63.324904271933306</v>
       </c>
       <c r="D23" s="1">
         <f ca="1">D10+F19</f>
-        <v>55.532639516253028</v>
+        <v>52.015711171224169</v>
       </c>
       <c r="E23" s="1">
         <f ca="1">E10+G19</f>
-        <v>77.434156778842208</v>
+        <v>42.455543364418304</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f ca="1">A11+F17</f>
-        <v>12.863490198194921</v>
+        <v>64.284876101622245</v>
       </c>
       <c r="B24" s="6">
         <f ca="1">B11+G17</f>
-        <v>17.448440558505887</v>
+        <v>95.615985880353037</v>
       </c>
       <c r="D24" s="1">
         <f ca="1">D11+F19</f>
-        <v>79.908649383311342</v>
+        <v>72.091020150975297</v>
       </c>
       <c r="E24" s="1">
         <f ca="1">E11+G19</f>
-        <v>48.029555245084914</v>
+        <v>5.6173652878529392</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f ca="1">A12+F17</f>
-        <v>47.542644044916102</v>
+        <v>36.088058490836652</v>
       </c>
       <c r="B25" s="1">
         <f ca="1">B12+G17</f>
-        <v>52.759973356505739</v>
+        <v>48.230602802967717</v>
       </c>
       <c r="D25" s="1">
         <f ca="1">D12+F19</f>
-        <v>19.666881274527277</v>
+        <v>29.872809800292494</v>
       </c>
       <c r="E25" s="1">
         <f ca="1">E12+G19</f>
-        <v>52.692914801235027</v>
+        <v>46.09679036894866</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -14202,19 +15521,19 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f ca="1">A3</f>
-        <v>35.691257646143505</v>
+        <v>68.000959229361371</v>
       </c>
       <c r="B29" s="1">
         <f ca="1">B3</f>
-        <v>69.667630517339276</v>
+        <v>65.530749942134051</v>
       </c>
       <c r="D29" s="1">
         <f ca="1">A29+F30</f>
-        <v>47.691257646143505</v>
+        <v>75.000959229361371</v>
       </c>
       <c r="E29" s="1">
         <f ca="1">B29+G30</f>
-        <v>82.667630517339276</v>
+        <v>85.530749942134051</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>0</v>
@@ -14224,258 +15543,258 @@
       </c>
       <c r="I29" s="1">
         <f ca="1">A29+F37</f>
-        <v>36.147464999010346</v>
+        <v>66.930796223344842</v>
       </c>
       <c r="J29" s="7">
         <f ca="1">B29+G37</f>
-        <v>66.820052861658041</v>
+        <v>71.645713936086878</v>
       </c>
       <c r="K29" s="1">
         <f ca="1">D29+F37</f>
-        <v>48.147464999010346</v>
+        <v>73.930796223344842</v>
       </c>
       <c r="L29" s="7">
         <f ca="1">E29+G37</f>
-        <v>79.820052861658041</v>
+        <v>91.645713936086878</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f ca="1">A4</f>
-        <v>37.48957389646467</v>
+        <v>29.638874441477373</v>
       </c>
       <c r="B30" s="1">
         <f ca="1">B4</f>
-        <v>82.660218529879998</v>
+        <v>9.4216860918708552</v>
       </c>
       <c r="D30" s="1">
         <f ca="1">A30+F30</f>
-        <v>49.48957389646467</v>
+        <v>36.63887444147737</v>
       </c>
       <c r="E30" s="1">
         <f ca="1">B30+G30</f>
-        <v>95.660218529879998</v>
+        <v>29.421686091870853</v>
       </c>
       <c r="F30" s="1">
         <f ca="1">(RANDBETWEEN(2,20))</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G30" s="1">
         <f ca="1">(RANDBETWEEN(2,20))</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I30" s="7">
         <f ca="1">A30+F37</f>
-        <v>37.94578124933151</v>
+        <v>28.568711435460845</v>
       </c>
       <c r="J30" s="7">
         <f ca="1">B30+G37</f>
-        <v>79.812640874198763</v>
+        <v>15.536650085823682</v>
       </c>
       <c r="K30" s="7">
         <f ca="1">D30+F37</f>
-        <v>49.94578124933151</v>
+        <v>35.568711435460841</v>
       </c>
       <c r="L30" s="7">
         <f ca="1">E30+G37</f>
-        <v>92.812640874198763</v>
+        <v>35.53665008582368</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f ca="1">A5</f>
-        <v>75.230554960642863</v>
+        <v>67.442060426206652</v>
       </c>
       <c r="B31" s="1">
         <f ca="1">B5</f>
-        <v>28.190343273553523</v>
+        <v>12.314899581768884</v>
       </c>
       <c r="D31" s="1">
         <f ca="1">A31+F30</f>
-        <v>87.230554960642863</v>
+        <v>74.442060426206652</v>
       </c>
       <c r="E31" s="1">
         <f ca="1">B31+G30</f>
-        <v>41.190343273553523</v>
+        <v>32.314899581768884</v>
       </c>
       <c r="I31" s="7">
         <f ca="1">A31+F37</f>
-        <v>75.686762313509703</v>
+        <v>66.371897420190123</v>
       </c>
       <c r="J31" s="7">
         <f ca="1">B31+G37</f>
-        <v>25.342765617872288</v>
+        <v>18.429863575721711</v>
       </c>
       <c r="K31" s="7">
         <f ca="1">D31+F37</f>
-        <v>87.686762313509703</v>
+        <v>73.371897420190123</v>
       </c>
       <c r="L31" s="7">
         <f ca="1">E31+G37</f>
-        <v>38.342765617872288</v>
+        <v>38.429863575721711</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f ca="1">A6</f>
-        <v>81.506158751899761</v>
+        <v>68.936363190229443</v>
       </c>
       <c r="B32" s="1">
         <f ca="1">B6</f>
-        <v>37.667987463845357</v>
+        <v>27.271496850139066</v>
       </c>
       <c r="D32" s="1">
         <f ca="1">A32+F30</f>
-        <v>93.506158751899761</v>
+        <v>75.936363190229443</v>
       </c>
       <c r="E32" s="1">
         <f ca="1">B32+G30</f>
-        <v>50.667987463845357</v>
+        <v>47.271496850139066</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I32" s="7">
         <f ca="1">A32+F37</f>
-        <v>81.962366104766602</v>
+        <v>67.866200184212914</v>
       </c>
       <c r="J32" s="7">
         <f ca="1">B32+G37</f>
-        <v>34.820409808164122</v>
+        <v>33.386460844091893</v>
       </c>
       <c r="K32" s="7">
         <f ca="1">D32+F37</f>
-        <v>93.962366104766602</v>
+        <v>74.866200184212914</v>
       </c>
       <c r="L32" s="7">
         <f ca="1">E32+G37</f>
-        <v>47.820409808164122</v>
+        <v>53.386460844091893</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f ca="1">A7</f>
-        <v>37.522118455233588</v>
+        <v>49.604489756636212</v>
       </c>
       <c r="B33" s="1">
         <f ca="1">B7</f>
-        <v>61.597030229668334</v>
+        <v>3.0010684175107381</v>
       </c>
       <c r="D33" s="1">
         <f ca="1">A33+F30</f>
-        <v>49.522118455233588</v>
+        <v>56.604489756636212</v>
       </c>
       <c r="E33" s="1">
         <f ca="1">B33+G30</f>
-        <v>74.597030229668334</v>
+        <v>23.001068417510737</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I33" s="7">
         <f ca="1">A33+F37</f>
-        <v>37.978325808100429</v>
+        <v>48.534326750619684</v>
       </c>
       <c r="J33" s="7">
         <f ca="1">B33+G37</f>
-        <v>58.749452573987099</v>
+        <v>9.1160324114635642</v>
       </c>
       <c r="K33" s="7">
         <f ca="1">D33+F37</f>
-        <v>49.978325808100429</v>
+        <v>55.534326750619684</v>
       </c>
       <c r="L33" s="7">
         <f ca="1">E33+G37</f>
-        <v>71.749452573987099</v>
+        <v>29.116032411463564</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f ca="1">A8</f>
-        <v>9.5990700102502871</v>
+        <v>39.278024903404251</v>
       </c>
       <c r="B34" s="1">
         <f ca="1">B8</f>
-        <v>84.782950068357408</v>
+        <v>14.315037065330667</v>
       </c>
       <c r="D34" s="1">
         <f ca="1">A34+F30</f>
-        <v>21.599070010250287</v>
+        <v>46.278024903404251</v>
       </c>
       <c r="E34" s="1">
         <f ca="1">B34+G30</f>
-        <v>97.782950068357408</v>
+        <v>34.315037065330671</v>
       </c>
       <c r="I34" s="7">
         <f ca="1">A34+F37</f>
-        <v>10.055277363117128</v>
+        <v>38.207861897387723</v>
       </c>
       <c r="J34" s="7">
         <f ca="1">B34+G37</f>
-        <v>81.935372412676173</v>
+        <v>20.430001059283494</v>
       </c>
       <c r="K34" s="7">
         <f ca="1">D34+F37</f>
-        <v>22.055277363117128</v>
+        <v>45.207861897387723</v>
       </c>
       <c r="L34" s="7">
         <f ca="1">E34+G37</f>
-        <v>94.935372412676173</v>
+        <v>40.430001059283498</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f ca="1">A9</f>
-        <v>68.09130016512087</v>
+        <v>34.174216768308128</v>
       </c>
       <c r="B35" s="1">
         <f ca="1">B9</f>
-        <v>30.038194632902826</v>
+        <v>48.16882113832191</v>
       </c>
       <c r="D35" s="1">
         <f ca="1">A35+F30</f>
-        <v>80.09130016512087</v>
+        <v>41.174216768308128</v>
       </c>
       <c r="E35" s="1">
         <f ca="1">B35+G30</f>
-        <v>43.03819463290283</v>
+        <v>68.168821138321903</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I35" s="7">
         <f ca="1">A35+F37</f>
-        <v>68.547507517987711</v>
+        <v>33.104053762291599</v>
       </c>
       <c r="J35" s="7">
         <f ca="1">B35+G37</f>
-        <v>27.190616977221591</v>
+        <v>54.283785132274737</v>
       </c>
       <c r="K35" s="7">
         <f ca="1">D35+F37</f>
-        <v>80.547507517987711</v>
+        <v>40.104053762291599</v>
       </c>
       <c r="L35" s="7">
         <f ca="1">E35+G37</f>
-        <v>40.190616977221595</v>
+        <v>74.28378513227473</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f ca="1">A10</f>
-        <v>42.814173048198711</v>
+        <v>23.113380740049905</v>
       </c>
       <c r="B36" s="1">
         <f ca="1">B10</f>
-        <v>5.967852614891533</v>
+        <v>47.209940277980479</v>
       </c>
       <c r="D36" s="1">
         <f ca="1">A36+F30</f>
-        <v>54.814173048198711</v>
+        <v>30.113380740049905</v>
       </c>
       <c r="E36" s="1">
         <f ca="1">B36+G30</f>
-        <v>18.967852614891534</v>
+        <v>67.209940277980479</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>0</v>
@@ -14485,96 +15804,96 @@
       </c>
       <c r="I36" s="7">
         <f ca="1">A36+F37</f>
-        <v>43.270380401065552</v>
+        <v>22.043217734033377</v>
       </c>
       <c r="J36" s="7">
         <f ca="1">B36+G37</f>
-        <v>3.1202749592102981</v>
+        <v>53.324904271933306</v>
       </c>
       <c r="K36" s="7">
         <f ca="1">D36+F37</f>
-        <v>55.270380401065552</v>
+        <v>29.043217734033377</v>
       </c>
       <c r="L36" s="7">
         <f ca="1">E36+G37</f>
-        <v>16.120274959210299</v>
+        <v>73.324904271933306</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f ca="1">A11</f>
-        <v>6.4072828453280808</v>
+        <v>61.85503910763876</v>
       </c>
       <c r="B37" s="1">
         <f ca="1">B11</f>
-        <v>13.796018214187129</v>
+        <v>79.50102188640021</v>
       </c>
       <c r="D37" s="1">
         <f ca="1">A37+F30</f>
-        <v>18.40728284532808</v>
+        <v>68.85503910763876</v>
       </c>
       <c r="E37" s="1">
         <f ca="1">B37+G30</f>
-        <v>26.796018214187129</v>
+        <v>99.50102188640021</v>
       </c>
       <c r="F37" s="1">
         <f ca="1">50-AVERAGE(A29:A38,D29:D38)</f>
-        <v>0.45620735286684067</v>
+        <v>-1.0701630060165286</v>
       </c>
       <c r="G37" s="1">
         <f ca="1">50-AVERAGE(E29:E38,B29:B38)</f>
-        <v>-2.8475776556812349</v>
+        <v>6.1149639939528271</v>
       </c>
       <c r="I37" s="7">
         <f ca="1">A37+F37</f>
-        <v>6.8634901981949215</v>
+        <v>60.784876101622231</v>
       </c>
       <c r="J37" s="7">
         <f ca="1">B37+G37</f>
-        <v>10.948440558505894</v>
+        <v>85.615985880353037</v>
       </c>
       <c r="K37" s="7">
         <f ca="1">D37+F37</f>
-        <v>18.863490198194921</v>
+        <v>67.784876101622231</v>
       </c>
       <c r="L37" s="7">
         <f ca="1">E37+G37</f>
-        <v>23.948440558505894</v>
+        <v>105.61598588035304</v>
       </c>
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f ca="1">A12</f>
-        <v>41.086436692049261</v>
+        <v>33.658221496853173</v>
       </c>
       <c r="B38" s="1">
         <f ca="1">B12</f>
-        <v>49.107551012186981</v>
+        <v>32.115638809014889</v>
       </c>
       <c r="D38" s="1">
         <f ca="1">A38+F30</f>
-        <v>53.086436692049261</v>
+        <v>40.658221496853173</v>
       </c>
       <c r="E38" s="1">
         <f ca="1">B38+G30</f>
-        <v>62.107551012186981</v>
+        <v>52.115638809014889</v>
       </c>
       <c r="I38" s="7">
         <f ca="1">A38+F37</f>
-        <v>41.542644044916102</v>
+        <v>32.588058490836644</v>
       </c>
       <c r="J38" s="7">
         <f ca="1">B38+G37</f>
-        <v>46.259973356505746</v>
+        <v>38.230602802967717</v>
       </c>
       <c r="K38" s="7">
         <f ca="1">D38+F37</f>
-        <v>53.542644044916102</v>
+        <v>39.588058490836644</v>
       </c>
       <c r="L38" s="7">
         <f ca="1">E38+G37</f>
-        <v>59.259973356505746</v>
+        <v>58.230602802967717</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -14611,137 +15930,137 @@
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f ca="1">A16</f>
-        <v>42.147464999010346</v>
+        <v>70.430796223344856</v>
       </c>
       <c r="B42" s="1">
         <f ca="1">B16</f>
-        <v>73.320052861658041</v>
+        <v>81.645713936086878</v>
       </c>
       <c r="D42" s="1">
         <f ca="1">H42+F47</f>
-        <v>74.605254998657216</v>
+        <v>62.977830787990399</v>
       </c>
       <c r="E42" s="1">
         <f ca="1">I42+G47</f>
-        <v>50.261911938152522</v>
+        <v>14.638374572387448</v>
       </c>
       <c r="F42" s="1">
         <f ca="1">(F44*PI())/180</f>
-        <v>1.8849555921538759</v>
+        <v>2.2165681500327987</v>
       </c>
       <c r="H42" s="1">
         <f ca="1">((A42)*COS(F42))+((B42)*SIN(F42))</f>
-        <v>56.707231094667534</v>
+        <v>22.818855132752617</v>
       </c>
       <c r="I42" s="1">
         <f ca="1">((B42)*COS(F42))-((A42)*SIN(F42))</f>
-        <v>-62.741763595352523</v>
+        <v>-105.38415208757959</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" ref="A43:A51" ca="1" si="1">A17</f>
-        <v>43.94578124933151</v>
+        <v>32.068711435460855</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" ref="B43:B51" ca="1" si="2">B17</f>
-        <v>86.312640874198763</v>
+        <v>25.53665008582368</v>
       </c>
       <c r="D43" s="1">
         <f ca="1">H43+F47</f>
-        <v>86.406230208912518</v>
+        <v>41.254018906440585</v>
       </c>
       <c r="E43" s="1">
         <f ca="1">I43+G47</f>
-        <v>44.536681053137798</v>
+        <v>79.04297528352258</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H43" s="1">
         <f ca="1">((A43)*COS(F42))+((B43)*SIN(F42))</f>
-        <v>68.508206304922822</v>
+        <v>1.095043251202803</v>
       </c>
       <c r="I43" s="1">
         <f ca="1">((B43)*COS(F42))-((A43)*SIN(F42))</f>
-        <v>-68.466994480367248</v>
+        <v>-40.979551376444462</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>81.686762313509703</v>
+        <v>69.871897420190123</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>31.842765617872281</v>
+        <v>28.429863575721711</v>
       </c>
       <c r="D44" s="1">
         <f ca="1">H44+F47</f>
-        <v>22.939695871384906</v>
+        <v>20.81411668899997</v>
       </c>
       <c r="E44" s="1">
         <f ca="1">I44+G47</f>
-        <v>25.474992216367454</v>
+        <v>47.110829219788855</v>
       </c>
       <c r="F44" s="1">
         <f ca="1">RANDBETWEEN(5,355)</f>
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="H44" s="1">
         <f ca="1">((A44)*COS(F42))+((B44)*SIN(F42))</f>
-        <v>5.0416719673952173</v>
+        <v>-19.344858966237812</v>
       </c>
       <c r="I44" s="1">
         <f ca="1">((B44)*COS(F42))-((A44)*SIN(F42))</f>
-        <v>-87.528683317137592</v>
+        <v>-72.911697440178187</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>87.962366104766602</v>
+        <v>71.366200184212914</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>41.320409808164115</v>
+        <v>43.386460844091893</v>
       </c>
       <c r="D45" s="1">
         <f ca="1">H45+F47</f>
-        <v>30.01420291622663</v>
+        <v>31.859692524470191</v>
       </c>
       <c r="E45" s="1">
         <f ca="1">I45+G47</f>
-        <v>16.577785215566848</v>
+        <v>36.916321038338367</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H45" s="1">
         <f ca="1">((A45)*COS(F42))+((B45)*SIN(F42))</f>
-        <v>12.116179012236941</v>
+        <v>-8.2992831307675914</v>
       </c>
       <c r="I45" s="1">
         <f ca="1">((B45)*COS(F42))-((A45)*SIN(F42))</f>
-        <v>-96.425890317938197</v>
+        <v>-83.106205621628675</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43.978325808100429</v>
+        <v>52.034326750619691</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>65.249452573987099</v>
+        <v>19.116032411463564</v>
       </c>
       <c r="D46" s="1">
         <f ca="1">H46+F47</f>
-        <v>66.363890900310338</v>
+        <v>24.110678392122125</v>
       </c>
       <c r="E46" s="1">
         <f ca="1">I46+G47</f>
-        <v>51.014612478935646</v>
+        <v>66.961750087238144</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>0</v>
@@ -14751,149 +16070,149 @@
       </c>
       <c r="H46" s="1">
         <f ca="1">((A46)*COS(F42))+((B46)*SIN(F42))</f>
-        <v>48.465866996320642</v>
+        <v>-16.048297263115657</v>
       </c>
       <c r="I46" s="1">
         <f ca="1">((B46)*COS(F42))-((A46)*SIN(F42))</f>
-        <v>-61.989063054569399</v>
+        <v>-53.060776572728898</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>16.055277363117128</v>
+        <v>41.70786189738773</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>88.435372412676173</v>
+        <v>30.430001059283494</v>
       </c>
       <c r="D47" s="1">
         <f ca="1">H47+F47</f>
-        <v>97.043707553447433</v>
+        <v>39.36103719855948</v>
       </c>
       <c r="E47" s="1">
         <f ca="1">I47+G47</f>
-        <v>70.406166396992106</v>
+        <v>68.399915308555194</v>
       </c>
       <c r="F47" s="1">
         <f ca="1">50-AVERAGE(H42:H51)</f>
-        <v>17.898023903989689</v>
+        <v>40.158975655237782</v>
       </c>
       <c r="G47" s="1">
         <f ca="1">50-AVERAGE(I42:I51)</f>
-        <v>113.00367553350505</v>
+        <v>120.02252665996704</v>
       </c>
       <c r="H47" s="1">
         <f ca="1">((A47)*COS(F42))+((B47)*SIN(F42))</f>
-        <v>79.145683649457752</v>
+        <v>-0.79793845667830254</v>
       </c>
       <c r="I47" s="1">
         <f ca="1">((B47)*COS(F42))-((A47)*SIN(F42))</f>
-        <v>-42.59750913651294</v>
+        <v>-51.622611351411848</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>74.547507517987711</v>
+        <v>36.604053762291606</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>33.69061697722158</v>
+        <v>64.283785132274744</v>
       </c>
       <c r="D48" s="1">
         <f ca="1">H48+F47</f>
-        <v>26.903258006828047</v>
+        <v>69.46941971971026</v>
       </c>
       <c r="E48" s="1">
         <f ca="1">I48+G47</f>
-        <v>31.693809538022293</v>
+        <v>52.102281876039541</v>
       </c>
       <c r="H48" s="1">
         <f ca="1">((A48)*COS(F42))+((B48)*SIN(F42))</f>
-        <v>9.005234102838358</v>
+        <v>29.31044406447247</v>
       </c>
       <c r="I48" s="1">
         <f ca="1">((B48)*COS(F42))-((A48)*SIN(F42))</f>
-        <v>-81.309865995482753</v>
+        <v>-67.920244783927501</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49.270380401065552</v>
+        <v>25.543217734033384</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9.6202749592102919</v>
+        <v>63.324904271933306</v>
       </c>
       <c r="D49" s="1">
         <f ca="1">H49+F47</f>
-        <v>11.822064229250142</v>
+        <v>75.360200705164118</v>
       </c>
       <c r="E49" s="1">
         <f ca="1">I49+G47</f>
-        <v>63.171930739774893</v>
+        <v>61.512927206183448</v>
       </c>
       <c r="H49" s="1">
         <f ca="1">((A49)*COS(F42))+((B49)*SIN(F42))</f>
-        <v>-6.075959674739547</v>
+        <v>35.201225049926329</v>
       </c>
       <c r="I49" s="1">
         <f ca="1">((B49)*COS(F42))-((A49)*SIN(F42))</f>
-        <v>-49.831744793730152</v>
+        <v>-58.509599453783594</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>12.863490198194921</v>
+        <v>64.284876101622245</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>17.448440558505887</v>
+        <v>95.615985880353037</v>
       </c>
       <c r="D50" s="1">
         <f ca="1">H50+F47</f>
-        <v>30.517439918127572</v>
+        <v>77.833693108043917</v>
       </c>
       <c r="E50" s="1">
         <f ca="1">I50+G47</f>
-        <v>95.377904700293513</v>
+        <v>11.139205089930357</v>
       </c>
       <c r="H50" s="1">
         <f ca="1">((A50)*COS(F42))+((B50)*SIN(F42))</f>
-        <v>12.619416014137885</v>
+        <v>37.674717452806135</v>
       </c>
       <c r="I50" s="1">
         <f ca="1">((B50)*COS(F42))-((A50)*SIN(F42))</f>
-        <v>-17.625770833211533</v>
+        <v>-108.88332157003668</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.542644044916102</v>
+        <v>36.088058490836652</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>52.759973356505739</v>
+        <v>48.230602802967717</v>
       </c>
       <c r="D51" s="1">
         <f ca="1">H51+F47</f>
-        <v>53.384255396855202</v>
+        <v>56.959311968498952</v>
       </c>
       <c r="E51" s="1">
         <f ca="1">I51+G47</f>
-        <v>51.484205722756897</v>
+        <v>62.175420318015917</v>
       </c>
       <c r="H51" s="1">
         <f ca="1">((A51)*COS(F42))+((B51)*SIN(F42))</f>
-        <v>35.486231492865514</v>
+        <v>16.80033631326117</v>
       </c>
       <c r="I51" s="1">
         <f ca="1">((B51)*COS(F42))-((A51)*SIN(F42))</f>
-        <v>-61.519469810748149</v>
+        <v>-57.847106341951125</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -14919,7 +16238,7 @@
       </c>
       <c r="F54" s="1">
         <f ca="1">RANDBETWEEN(2,8)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>16</v>
@@ -14928,19 +16247,19 @@
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <f ca="1">A16</f>
-        <v>42.147464999010346</v>
+        <v>70.430796223344856</v>
       </c>
       <c r="B55" s="1">
         <f ca="1">B16</f>
-        <v>73.320052861658041</v>
+        <v>81.645713936086878</v>
       </c>
       <c r="D55" s="1">
         <f ca="1">IF(F54&lt;G55,D3,A55)</f>
-        <v>42.147464999010346</v>
+        <v>70.430796223344856</v>
       </c>
       <c r="E55" s="1">
         <f ca="1">IF(F54&lt;G55,E3,B55)</f>
-        <v>73.320052861658041</v>
+        <v>81.645713936086878</v>
       </c>
       <c r="G55" s="1">
         <v>1</v>
@@ -14949,19 +16268,19 @@
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <f t="shared" ref="A56:B64" ca="1" si="3">A17</f>
-        <v>43.94578124933151</v>
+        <v>32.068711435460855</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>86.312640874198763</v>
+        <v>25.53665008582368</v>
       </c>
       <c r="D56" s="1">
         <f ca="1">IF(F54&lt;G56,D4,A56)</f>
-        <v>43.94578124933151</v>
+        <v>32.068711435460855</v>
       </c>
       <c r="E56" s="1">
         <f ca="1">IF(F54&lt;G56,E4,B56)</f>
-        <v>86.312640874198763</v>
+        <v>25.53665008582368</v>
       </c>
       <c r="G56" s="1">
         <v>2</v>
@@ -14970,19 +16289,19 @@
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>81.686762313509703</v>
+        <v>69.871897420190123</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31.842765617872281</v>
+        <v>28.429863575721711</v>
       </c>
       <c r="D57" s="1">
         <f ca="1">IF(F54&lt;G57,D5,A57)</f>
-        <v>81.686762313509703</v>
+        <v>69.871897420190123</v>
       </c>
       <c r="E57" s="1">
         <f ca="1">IF(F54&lt;G57,E5,B57)</f>
-        <v>31.842765617872281</v>
+        <v>28.429863575721711</v>
       </c>
       <c r="G57" s="1">
         <v>3</v>
@@ -14991,19 +16310,19 @@
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>87.962366104766602</v>
+        <v>71.366200184212914</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>41.320409808164115</v>
+        <v>43.386460844091893</v>
       </c>
       <c r="D58" s="1">
         <f ca="1">IF(F54&lt;G58,D6,A58)</f>
-        <v>87.962366104766602</v>
+        <v>71.366200184212914</v>
       </c>
       <c r="E58" s="1">
         <f ca="1">IF(F54&lt;G58,E6,B58)</f>
-        <v>41.320409808164115</v>
+        <v>43.386460844091893</v>
       </c>
       <c r="G58" s="1">
         <v>4</v>
@@ -15012,19 +16331,19 @@
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43.978325808100429</v>
+        <v>52.034326750619691</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>65.249452573987099</v>
+        <v>19.116032411463564</v>
       </c>
       <c r="D59" s="1">
         <f ca="1">IF(F54&lt;G59,D7,A59)</f>
-        <v>43.978325808100429</v>
+        <v>49.356115938803967</v>
       </c>
       <c r="E59" s="1">
         <f ca="1">IF(F54&lt;G59,E7,B59)</f>
-        <v>65.249452573987099</v>
+        <v>37.717392109442279</v>
       </c>
       <c r="G59" s="1">
         <v>5</v>
@@ -15033,19 +16352,19 @@
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>16.055277363117128</v>
+        <v>41.70786189738773</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>88.435372412676173</v>
+        <v>30.430001059283494</v>
       </c>
       <c r="D60" s="1">
         <f ca="1">IF(F54&lt;G60,D8,A60)</f>
-        <v>18.0409442262985</v>
+        <v>32.707535267138624</v>
       </c>
       <c r="E60" s="1">
         <f ca="1">IF(F54&lt;G60,E8,B60)</f>
-        <v>28.088108816164752</v>
+        <v>59.283952498252368</v>
       </c>
       <c r="G60" s="1">
         <v>6</v>
@@ -15054,19 +16373,19 @@
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>74.547507517987711</v>
+        <v>36.604053762291606</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>33.69061697722158</v>
+        <v>64.283785132274744</v>
       </c>
       <c r="D61" s="1">
         <f ca="1">IF(F54&lt;G61,D9,A61)</f>
-        <v>34.834469051875033</v>
+        <v>81.228575291269209</v>
       </c>
       <c r="E61" s="1">
         <f ca="1">IF(F54&lt;G61,E9,B61)</f>
-        <v>30.102067106033807</v>
+        <v>52.299300670586803</v>
       </c>
       <c r="G61" s="1">
         <v>7</v>
@@ -15075,19 +16394,19 @@
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>49.270380401065552</v>
+        <v>25.543217734033384</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9.6202749592102919</v>
+        <v>63.324904271933306</v>
       </c>
       <c r="D62" s="1">
         <f ca="1">IF(F54&lt;G62,D10,A62)</f>
-        <v>46.500860179199613</v>
+        <v>43.644758147795372</v>
       </c>
       <c r="E62" s="1">
         <f ca="1">IF(F54&lt;G62,E10,B62)</f>
-        <v>61.993841988595456</v>
+        <v>38.823794242966756</v>
       </c>
       <c r="G62" s="1">
         <v>8</v>
@@ -15096,19 +16415,19 @@
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>12.863490198194921</v>
+        <v>64.284876101622245</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>17.448440558505887</v>
+        <v>95.615985880353037</v>
       </c>
       <c r="D63" s="1">
         <f ca="1">IF(F54&lt;G63,D11,A63)</f>
-        <v>70.87687004625792</v>
+        <v>63.7200671275465</v>
       </c>
       <c r="E63" s="1">
         <f ca="1">IF(F54&lt;G63,E11,B63)</f>
-        <v>32.589240454838169</v>
+        <v>1.9856161664013912</v>
       </c>
       <c r="G63" s="1">
         <v>9</v>
@@ -15117,19 +16436,19 @@
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>47.542644044916102</v>
+        <v>36.088058490836652</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>52.759973356505739</v>
+        <v>48.230602802967717</v>
       </c>
       <c r="D64" s="1">
         <f ca="1">IF(F54&lt;G64,D12,A64)</f>
-        <v>10.635101937473861</v>
+        <v>21.501856776863697</v>
       </c>
       <c r="E64" s="1">
         <f ca="1">IF(F54&lt;G64,E12,B64)</f>
-        <v>37.252600010988282</v>
+        <v>42.465041247497112</v>
       </c>
       <c r="G64" s="1">
         <v>10</v>
@@ -15157,127 +16476,127 @@
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <f ca="1">A16</f>
-        <v>42.147464999010346</v>
+        <v>70.430796223344856</v>
       </c>
       <c r="B68" s="1">
         <f ca="1">B16</f>
-        <v>73.320052861658041</v>
+        <v>81.645713936086878</v>
       </c>
       <c r="D68" s="1">
         <f ca="1">A77</f>
-        <v>47.542644044916102</v>
+        <v>36.088058490836652</v>
       </c>
       <c r="E68" s="1">
         <f ca="1">B77</f>
-        <v>52.759973356505739</v>
+        <v>48.230602802967717</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <f ca="1">A17</f>
-        <v>43.94578124933151</v>
+        <v>32.068711435460855</v>
       </c>
       <c r="B69" s="1">
         <f ca="1">B17</f>
-        <v>86.312640874198763</v>
+        <v>25.53665008582368</v>
       </c>
       <c r="D69" s="1">
         <f ca="1">A76</f>
-        <v>12.863490198194921</v>
+        <v>64.284876101622245</v>
       </c>
       <c r="E69" s="1">
         <f ca="1">B76</f>
-        <v>17.448440558505887</v>
+        <v>95.615985880353037</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <f ca="1">A18</f>
-        <v>81.686762313509703</v>
+        <v>69.871897420190123</v>
       </c>
       <c r="B70" s="1">
         <f ca="1">B18</f>
-        <v>31.842765617872281</v>
+        <v>28.429863575721711</v>
       </c>
       <c r="D70" s="1">
         <f ca="1">A75</f>
-        <v>49.270380401065552</v>
+        <v>25.543217734033384</v>
       </c>
       <c r="E70" s="1">
         <f ca="1">B75</f>
-        <v>9.6202749592102919</v>
+        <v>63.324904271933306</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <f ca="1">A19</f>
-        <v>87.962366104766602</v>
+        <v>71.366200184212914</v>
       </c>
       <c r="B71" s="1">
         <f ca="1">B19</f>
-        <v>41.320409808164115</v>
+        <v>43.386460844091893</v>
       </c>
       <c r="D71" s="1">
         <f ca="1">A74</f>
-        <v>74.547507517987711</v>
+        <v>36.604053762291606</v>
       </c>
       <c r="E71" s="1">
         <f ca="1">B74</f>
-        <v>33.69061697722158</v>
+        <v>64.283785132274744</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f ca="1">A20</f>
-        <v>43.978325808100429</v>
+        <v>52.034326750619691</v>
       </c>
       <c r="B72" s="1">
         <f ca="1">B20</f>
-        <v>65.249452573987099</v>
+        <v>19.116032411463564</v>
       </c>
       <c r="D72" s="1">
         <f ca="1">A73</f>
-        <v>16.055277363117128</v>
+        <v>41.70786189738773</v>
       </c>
       <c r="E72" s="1">
         <f ca="1">B73</f>
-        <v>88.435372412676173</v>
+        <v>30.430001059283494</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <f ca="1">A21</f>
-        <v>16.055277363117128</v>
+        <v>41.70786189738773</v>
       </c>
       <c r="B73" s="1">
         <f ca="1">B21</f>
-        <v>88.435372412676173</v>
+        <v>30.430001059283494</v>
       </c>
       <c r="D73" s="1">
         <f ca="1">A72</f>
-        <v>43.978325808100429</v>
+        <v>52.034326750619691</v>
       </c>
       <c r="E73" s="1">
         <f ca="1">B72</f>
-        <v>65.249452573987099</v>
+        <v>19.116032411463564</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <f ca="1">A22</f>
-        <v>74.547507517987711</v>
+        <v>36.604053762291606</v>
       </c>
       <c r="B74" s="1">
         <f ca="1">B22</f>
-        <v>33.69061697722158</v>
+        <v>64.283785132274744</v>
       </c>
       <c r="D74" s="1">
         <f ca="1">A71</f>
-        <v>87.962366104766602</v>
+        <v>71.366200184212914</v>
       </c>
       <c r="E74" s="1">
         <f ca="1">B71</f>
-        <v>41.320409808164115</v>
+        <v>43.386460844091893</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -15285,55 +16604,55 @@
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <f ca="1">A23</f>
-        <v>49.270380401065552</v>
+        <v>25.543217734033384</v>
       </c>
       <c r="B75" s="1">
         <f ca="1">B23</f>
-        <v>9.6202749592102919</v>
+        <v>63.324904271933306</v>
       </c>
       <c r="D75" s="1">
         <f ca="1">A70</f>
-        <v>81.686762313509703</v>
+        <v>69.871897420190123</v>
       </c>
       <c r="E75" s="1">
         <f ca="1">B70</f>
-        <v>31.842765617872281</v>
+        <v>28.429863575721711</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <f ca="1">A24</f>
-        <v>12.863490198194921</v>
+        <v>64.284876101622245</v>
       </c>
       <c r="B76" s="1">
         <f ca="1">B24</f>
-        <v>17.448440558505887</v>
+        <v>95.615985880353037</v>
       </c>
       <c r="D76" s="1">
         <f ca="1">A69</f>
-        <v>43.94578124933151</v>
+        <v>32.068711435460855</v>
       </c>
       <c r="E76" s="1">
         <f ca="1">B69</f>
-        <v>86.312640874198763</v>
+        <v>25.53665008582368</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <f ca="1">A25</f>
-        <v>47.542644044916102</v>
+        <v>36.088058490836652</v>
       </c>
       <c r="B77" s="1">
         <f ca="1">B25</f>
-        <v>52.759973356505739</v>
+        <v>48.230602802967717</v>
       </c>
       <c r="D77" s="1">
         <f ca="1">A68</f>
-        <v>42.147464999010346</v>
+        <v>70.430796223344856</v>
       </c>
       <c r="E77" s="1">
         <f ca="1">B68</f>
-        <v>73.320052861658041</v>
+        <v>81.645713936086878</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -15383,11 +16702,11 @@
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <f ca="1">IF(MIN(MOD(A3,D31),QUOTIENT(A3,D31))&lt;MIN(MOD(B3,E31),QUOTIENT(B3,E31)),A3-(2*MIN(MOD(A3,D31),QUOTIENT(A3,D31))),A3)</f>
-        <v>35.691257646143505</v>
+        <v>68.000959229361371</v>
       </c>
       <c r="B81" s="7">
         <f ca="1">IF(A81&lt;&gt;A3,B3,B3-(2*MIN(MOD(B3,E31),QUOTIENT(B3,E31))))</f>
-        <v>67.667630517339276</v>
+        <v>63.728848384941486</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7" t="s">
@@ -15399,37 +16718,37 @@
       <c r="F81" s="5"/>
       <c r="G81" s="7">
         <f ca="1">A16</f>
-        <v>42.147464999010346</v>
+        <v>70.430796223344856</v>
       </c>
       <c r="H81" s="7">
         <f ca="1">B16</f>
-        <v>73.320052861658041</v>
+        <v>81.645713936086878</v>
       </c>
       <c r="J81" s="1">
         <f ca="1">D85+A81</f>
-        <v>38.919361322576925</v>
+        <v>69.215877726353099</v>
       </c>
       <c r="K81" s="7">
         <f ca="1">E85+B81</f>
-        <v>70.021794887775954</v>
+        <v>72.276425459777528</v>
       </c>
       <c r="L81" s="1">
         <f ca="1">G81+D85</f>
-        <v>45.375568675443766</v>
+        <v>71.645714720336585</v>
       </c>
       <c r="M81" s="7">
         <f ca="1">H81+E85</f>
-        <v>75.674217232094719</v>
+        <v>90.19329101092292</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <f ca="1">IF(MIN(MOD(A4,D31),QUOTIENT(A4,D31))&lt;MIN(MOD(B4,E31),QUOTIENT(B4,E31)),A4-(2*MIN(MOD(A4,D31),QUOTIENT(A4,D31))),A4)</f>
-        <v>37.48957389646467</v>
+        <v>29.638874441477373</v>
       </c>
       <c r="B82" s="7">
         <f ca="1">IF(A82&lt;&gt;A4,B4,B4-(2*MIN(MOD(B4,E31),QUOTIENT(B4,E31))))</f>
-        <v>82.101154564334095</v>
+        <v>9.4216860918708552</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7">
@@ -15438,78 +16757,78 @@
       </c>
       <c r="E82" s="7">
         <f ca="1">RANDBETWEEN(2,10)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G82" s="7">
         <f ca="1">A17</f>
-        <v>43.94578124933151</v>
+        <v>32.068711435460855</v>
       </c>
       <c r="H82" s="7">
         <f ca="1">B17</f>
-        <v>86.312640874198763</v>
+        <v>25.53665008582368</v>
       </c>
       <c r="J82" s="7">
         <f ca="1">D85+A82</f>
-        <v>40.71767757289809</v>
+        <v>30.853792938469102</v>
       </c>
       <c r="K82" s="7">
         <f ca="1">E85+B82</f>
-        <v>84.455318934770773</v>
+        <v>17.969263166706895</v>
       </c>
       <c r="L82" s="7">
         <f ca="1">G82+D85</f>
-        <v>47.173884925764931</v>
+        <v>33.283629932452584</v>
       </c>
       <c r="M82" s="7">
         <f ca="1">H82+E85</f>
-        <v>88.666805244635441</v>
+        <v>34.084227160659722</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <f ca="1">IF(MIN(MOD(A5,D31),QUOTIENT(A5,D31))&lt;MIN(MOD(B5,E31),QUOTIENT(B5,E31)),A5-(2*MIN(MOD(A5,D31),QUOTIENT(A5,D31))),A5)</f>
-        <v>75.230554960642863</v>
+        <v>67.442060426206652</v>
       </c>
       <c r="B83" s="7">
         <f ca="1">IF(A83&lt;&gt;A5,B5,B5-(2*MIN(MOD(B5,E31),QUOTIENT(B5,E31))))</f>
-        <v>28.190343273553523</v>
+        <v>12.314899581768884</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="G83" s="7">
         <f ca="1">A18</f>
-        <v>81.686762313509703</v>
+        <v>69.871897420190123</v>
       </c>
       <c r="H83" s="7">
         <f ca="1">B18</f>
-        <v>31.842765617872281</v>
+        <v>28.429863575721711</v>
       </c>
       <c r="J83" s="7">
         <f ca="1">D85+A83</f>
-        <v>78.458658637076283</v>
+        <v>68.65697892319838</v>
       </c>
       <c r="K83" s="7">
         <f ca="1">E85+B83</f>
-        <v>30.544507643990201</v>
+        <v>20.862476656604926</v>
       </c>
       <c r="L83" s="7">
         <f ca="1">G83+D85</f>
-        <v>84.914865989943124</v>
+        <v>71.086815917181852</v>
       </c>
       <c r="M83" s="7">
         <f ca="1">H83+E85</f>
-        <v>34.196929988308959</v>
+        <v>36.977440650557753</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <f ca="1">IF(MIN(MOD(A6,D31),QUOTIENT(A6,D31))&lt;MIN(MOD(B6,E31),QUOTIENT(B6,E31)),A6-(2*MIN(MOD(A6,D31),QUOTIENT(A6,D31))),A6)</f>
-        <v>81.506158751899761</v>
+        <v>68.936363190229443</v>
       </c>
       <c r="B84" s="7">
         <f ca="1">IF(A84&lt;&gt;A6,B6,B6-(2*MIN(MOD(B6,E31),QUOTIENT(B6,E31))))</f>
-        <v>37.667987463845357</v>
+        <v>27.271496850139066</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7" t="s">
@@ -15518,117 +16837,117 @@
       <c r="E84" s="7"/>
       <c r="G84" s="7">
         <f ca="1">A19</f>
-        <v>87.962366104766602</v>
+        <v>71.366200184212914</v>
       </c>
       <c r="H84" s="7">
         <f ca="1">B19</f>
-        <v>41.320409808164115</v>
+        <v>43.386460844091893</v>
       </c>
       <c r="J84" s="7">
         <f ca="1">D85+A84</f>
-        <v>84.734262428333182</v>
+        <v>70.151281687221172</v>
       </c>
       <c r="K84" s="7">
         <f ca="1">E85+B84</f>
-        <v>40.022151834282035</v>
+        <v>35.819073924975108</v>
       </c>
       <c r="L84" s="7">
         <f ca="1">G84+D85</f>
-        <v>91.190469781200022</v>
+        <v>72.581118681204643</v>
       </c>
       <c r="M84" s="7">
         <f ca="1">H84+E85</f>
-        <v>43.674574178600793</v>
+        <v>51.934037918927935</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <f ca="1">IF(MIN(MOD(A7,D31),QUOTIENT(A7,D31))&lt;MIN(MOD(B7,E31),QUOTIENT(B7,E31)),A7-(2*MIN(MOD(A7,D31),QUOTIENT(A7,D31))),A7)</f>
-        <v>37.522118455233588</v>
+        <v>49.604489756636212</v>
       </c>
       <c r="B85" s="7">
         <f ca="1">IF(A85&lt;&gt;A7,B7,B7-(2*MIN(MOD(B7,E31),QUOTIENT(B7,E31))))</f>
-        <v>59.597030229668334</v>
+        <v>3.0010684175107381</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7">
         <f ca="1">50-AVERAGE(G81:G90,A81:A90)</f>
-        <v>3.2281036764334203</v>
+        <v>1.2149184969917286</v>
       </c>
       <c r="E85" s="7">
         <f ca="1">50-AVERAGE(H81:H90,B81:B90)</f>
-        <v>2.3541643704366777</v>
+        <v>8.5475770748360418</v>
       </c>
       <c r="G85" s="7">
         <f ca="1">A20</f>
-        <v>43.978325808100429</v>
+        <v>52.034326750619691</v>
       </c>
       <c r="H85" s="7">
         <f ca="1">B20</f>
-        <v>65.249452573987099</v>
+        <v>19.116032411463564</v>
       </c>
       <c r="J85" s="7">
         <f ca="1">D85+A85</f>
-        <v>40.750222131667009</v>
+        <v>50.819408253627941</v>
       </c>
       <c r="K85" s="7">
         <f ca="1">E85+B85</f>
-        <v>61.951194600105012</v>
+        <v>11.548645492346779</v>
       </c>
       <c r="L85" s="7">
         <f ca="1">G85+D85</f>
-        <v>47.206429484533849</v>
+        <v>53.24924524761142</v>
       </c>
       <c r="M85" s="7">
         <f ca="1">H85+E85</f>
-        <v>67.603616944423777</v>
+        <v>27.663609486299606</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <f ca="1">IF(MIN(MOD(A8,D31),QUOTIENT(A8,D31))&lt;MIN(MOD(B8,E31),QUOTIENT(B8,E31)),A8-(2*MIN(MOD(A8,D31),QUOTIENT(A8,D31))),A8)</f>
-        <v>9.5990700102502871</v>
+        <v>39.278024903404251</v>
       </c>
       <c r="B86" s="7">
         <f ca="1">IF(A86&lt;&gt;A8,B8,B8-(2*MIN(MOD(B8,E31),QUOTIENT(B8,E31))))</f>
-        <v>80.782950068357408</v>
+        <v>14.315037065330667</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="G86" s="7">
         <f ca="1">A21</f>
-        <v>16.055277363117128</v>
+        <v>41.70786189738773</v>
       </c>
       <c r="H86" s="7">
         <f ca="1">B21</f>
-        <v>88.435372412676173</v>
+        <v>30.430001059283494</v>
       </c>
       <c r="J86" s="7">
         <f ca="1">D85+A86</f>
-        <v>12.827173686683707</v>
+        <v>40.49294340039598</v>
       </c>
       <c r="K86" s="7">
         <f ca="1">E85+B86</f>
-        <v>83.137114438794086</v>
+        <v>22.862614140166709</v>
       </c>
       <c r="L86" s="7">
         <f ca="1">G86+D85</f>
-        <v>19.283381039550548</v>
+        <v>42.922780394379458</v>
       </c>
       <c r="M86" s="7">
         <f ca="1">H86+E85</f>
-        <v>90.789536783112851</v>
+        <v>38.97757813411954</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <f ca="1">IF(MIN(MOD(A9,D31),QUOTIENT(A9,D31))&lt;MIN(MOD(B9,E31),QUOTIENT(B9,E31)),A9-(2*MIN(MOD(A9,D31),QUOTIENT(A9,D31))),A9)</f>
-        <v>68.09130016512087</v>
+        <v>34.174216768308128</v>
       </c>
       <c r="B87" s="7">
         <f ca="1">IF(A87&lt;&gt;A9,B9,B9-(2*MIN(MOD(B9,E31),QUOTIENT(B9,E31))))</f>
-        <v>30.038194632902826</v>
+        <v>46.16882113832191</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7" t="s">
@@ -15637,37 +16956,37 @@
       <c r="E87" s="7"/>
       <c r="G87" s="7">
         <f ca="1">A22</f>
-        <v>74.547507517987711</v>
+        <v>36.604053762291606</v>
       </c>
       <c r="H87" s="7">
         <f ca="1">B22</f>
-        <v>33.69061697722158</v>
+        <v>64.283785132274744</v>
       </c>
       <c r="J87" s="7">
         <f ca="1">D85+A87</f>
-        <v>71.319403841554291</v>
+        <v>35.389135265299856</v>
       </c>
       <c r="K87" s="7">
         <f ca="1">E85+B87</f>
-        <v>32.392359003339507</v>
+        <v>54.716398213157952</v>
       </c>
       <c r="L87" s="7">
         <f ca="1">G87+D85</f>
-        <v>77.775611194421131</v>
+        <v>37.818972259283335</v>
       </c>
       <c r="M87" s="7">
         <f ca="1">H87+E85</f>
-        <v>36.044781347658258</v>
+        <v>72.831362207110786</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <f ca="1">IF(MIN(MOD(A10,D31),QUOTIENT(A10,D31))&lt;MIN(MOD(B10,E31),QUOTIENT(B10,E31)),A10-(2*MIN(MOD(A10,D31),QUOTIENT(A10,D31))),A10)</f>
-        <v>42.814173048198711</v>
+        <v>23.113380740049905</v>
       </c>
       <c r="B88" s="7">
         <f ca="1">IF(A88&lt;&gt;A10,B10,B10-(2*MIN(MOD(B10,E31),QUOTIENT(B10,E31))))</f>
-        <v>5.967852614891533</v>
+        <v>45.209940277980479</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7" t="s">
@@ -15676,101 +16995,101 @@
       <c r="E88" s="7"/>
       <c r="G88" s="7">
         <f ca="1">A23</f>
-        <v>49.270380401065552</v>
+        <v>25.543217734033384</v>
       </c>
       <c r="H88" s="7">
         <f ca="1">B23</f>
-        <v>9.6202749592102919</v>
+        <v>63.324904271933306</v>
       </c>
       <c r="J88" s="7">
         <f ca="1">D85+A88</f>
-        <v>46.042276724632131</v>
+        <v>24.328299237041634</v>
       </c>
       <c r="K88" s="7">
         <f ca="1">E85+B88</f>
-        <v>8.3220169853282115</v>
+        <v>53.757517352816521</v>
       </c>
       <c r="L88" s="7">
         <f ca="1">G88+D85</f>
-        <v>52.498484077498972</v>
+        <v>26.758136231025112</v>
       </c>
       <c r="M88" s="7">
         <f ca="1">H88+E85</f>
-        <v>11.97443932964697</v>
+        <v>71.872481346769348</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <f ca="1">IF(MIN(MOD(A11,D31),QUOTIENT(A11,D31))&lt;MIN(MOD(B11,E31),QUOTIENT(B11,E31)),A11-(2*MIN(MOD(A11,D31),QUOTIENT(A11,D31))),A11)</f>
-        <v>6.4072828453280808</v>
+        <v>61.85503910763876</v>
       </c>
       <c r="B89" s="7">
         <f ca="1">IF(A89&lt;&gt;A11,B11,B11-(2*MIN(MOD(B11,E31),QUOTIENT(B11,E31))))</f>
-        <v>13.796018214187129</v>
+        <v>75.50102188640021</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="G89" s="7">
         <f ca="1">A24</f>
-        <v>12.863490198194921</v>
+        <v>64.284876101622245</v>
       </c>
       <c r="H89" s="7">
         <f ca="1">B24</f>
-        <v>17.448440558505887</v>
+        <v>95.615985880353037</v>
       </c>
       <c r="J89" s="7">
         <f ca="1">D85+A89</f>
-        <v>9.6353865217615002</v>
+        <v>63.069957604630488</v>
       </c>
       <c r="K89" s="7">
         <f ca="1">E85+B89</f>
-        <v>16.150182584623806</v>
+        <v>84.048598961236252</v>
       </c>
       <c r="L89" s="7">
         <f ca="1">G89+D85</f>
-        <v>16.091593874628341</v>
+        <v>65.499794598613974</v>
       </c>
       <c r="M89" s="7">
         <f ca="1">H89+E85</f>
-        <v>19.802604928942564</v>
+        <v>104.16356295518908</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <f ca="1">IF(MIN(MOD(A12,D31),QUOTIENT(A12,D31))&lt;MIN(MOD(B12,E31),QUOTIENT(B12,E31)),A12-(2*MIN(MOD(A12,D31),QUOTIENT(A12,D31))),A12)</f>
-        <v>41.086436692049261</v>
+        <v>33.658221496853173</v>
       </c>
       <c r="B90" s="7">
         <f ca="1">IF(A90&lt;&gt;A12,B12,B12-(2*MIN(MOD(B12,E31),QUOTIENT(B12,E31))))</f>
-        <v>47.107551012186981</v>
+        <v>32.115638809014889</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="G90" s="7">
         <f ca="1">A25</f>
-        <v>47.542644044916102</v>
+        <v>36.088058490836652</v>
       </c>
       <c r="H90" s="7">
         <f ca="1">B25</f>
-        <v>52.759973356505739</v>
+        <v>48.230602802967717</v>
       </c>
       <c r="J90" s="7">
         <f ca="1">D85+A90</f>
-        <v>44.314540368482682</v>
+        <v>34.873139993844902</v>
       </c>
       <c r="K90" s="7">
         <f ca="1">E85+B90</f>
-        <v>49.461715382623659</v>
+        <v>40.663215883850931</v>
       </c>
       <c r="L90" s="7">
         <f ca="1">G90+D85</f>
-        <v>50.770747721349522</v>
+        <v>37.30297698782838</v>
       </c>
       <c r="M90" s="7">
         <f ca="1">H90+E85</f>
-        <v>55.114137726942417</v>
+        <v>56.778179877803758</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -15808,70 +17127,70 @@
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <f ca="1">E94+C98</f>
-        <v>45.983043525339681</v>
+        <v>57.121678913907942</v>
       </c>
       <c r="B94" s="7">
         <f ca="1">F94+D98</f>
-        <v>61.929349862210366</v>
+        <v>61.030926606603671</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="8">
         <f ca="1">RAND()</f>
-        <v>0.51154900604124098</v>
+        <v>0.34857569113094533</v>
       </c>
       <c r="E94" s="7">
         <f ca="1">A3*D94</f>
-        <v>18.257827373246553</v>
+        <v>23.703481360941876</v>
       </c>
       <c r="F94" s="7">
         <f ca="1">B3*D94</f>
-        <v>35.638407144393334</v>
+        <v>22.842426451408532</v>
       </c>
       <c r="H94" s="7">
         <f ca="1">A16</f>
-        <v>42.147464999010346</v>
+        <v>70.430796223344856</v>
       </c>
       <c r="I94" s="7">
         <f ca="1">B16</f>
-        <v>73.320052861658041</v>
+        <v>81.645713936086878</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <f ca="1">E95+C98</f>
-        <v>46.90297041573929</v>
+        <v>43.749588695747349</v>
       </c>
       <c r="B95" s="7">
         <f ca="1">F95+D98</f>
-        <v>68.575695345928921</v>
+        <v>41.472670896287845</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7">
         <f ca="1">A4*D94</f>
-        <v>19.177754263646154</v>
+        <v>10.331391142781287</v>
       </c>
       <c r="F95" s="7">
         <f ca="1">B4*D94</f>
-        <v>42.284752628111882</v>
+        <v>3.2841707410926988</v>
       </c>
       <c r="H95" s="7">
         <f ca="1">A17</f>
-        <v>43.94578124933151</v>
+        <v>32.068711435460855</v>
       </c>
       <c r="I95" s="7">
         <f ca="1">B17</f>
-        <v>86.312640874198763</v>
+        <v>25.53665008582368</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <f ca="1">E96+C98</f>
-        <v>66.209331766140934</v>
+        <v>56.926860377326022</v>
       </c>
       <c r="B96" s="7">
         <f ca="1">F96+D98</f>
-        <v>40.711684799364718</v>
+        <v>42.481174788118423</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>13</v>
@@ -15879,29 +17198,29 @@
       <c r="D96" s="7"/>
       <c r="E96" s="7">
         <f ca="1">A5*D94</f>
-        <v>38.484115614047809</v>
+        <v>23.508662824359963</v>
       </c>
       <c r="F96" s="7">
         <f ca="1">B5*D94</f>
-        <v>14.420742081547688</v>
+        <v>4.2926746329232781</v>
       </c>
       <c r="H96" s="7">
         <f ca="1">A18</f>
-        <v>81.686762313509703</v>
+        <v>69.871897420190123</v>
       </c>
       <c r="I96" s="7">
         <f ca="1">B18</f>
-        <v>31.842765617872281</v>
+        <v>28.429863575721711</v>
       </c>
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <f ca="1">E97+C98</f>
-        <v>69.419610647867046</v>
+        <v>57.447737996054151</v>
       </c>
       <c r="B97" s="7">
         <f ca="1">F97+D98</f>
-        <v>45.559964264521049</v>
+        <v>47.694681017907769</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>0</v>
@@ -15911,193 +17230,193 @@
       </c>
       <c r="E97" s="7">
         <f ca="1">A6*D94</f>
-        <v>41.694394495773921</v>
+        <v>24.029540443088088</v>
       </c>
       <c r="F97" s="7">
         <f ca="1">B6*D94</f>
-        <v>19.269021546704018</v>
+        <v>9.5061808627126236</v>
       </c>
       <c r="H97" s="7">
         <f ca="1">A19</f>
-        <v>87.962366104766602</v>
+        <v>71.366200184212914</v>
       </c>
       <c r="I97" s="7">
         <f ca="1">B19</f>
-        <v>41.320409808164115</v>
+        <v>43.386460844091893</v>
       </c>
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <f ca="1">E98+C98</f>
-        <v>46.919618552429583</v>
+        <v>50.70911685308343</v>
       </c>
       <c r="B98" s="7">
         <f ca="1">F98+D98</f>
-        <v>57.800842306896143</v>
+        <v>39.234599652960199</v>
       </c>
       <c r="C98" s="7">
         <f ca="1">50-AVERAGE(E94:E103)</f>
-        <v>27.725216152093132</v>
+        <v>33.418197552966063</v>
       </c>
       <c r="D98" s="7">
         <f ca="1">50-AVERAGE(F94:F103)</f>
-        <v>26.290942717817032</v>
+        <v>38.188500155195143</v>
       </c>
       <c r="E98" s="7">
         <f ca="1">A7*D94</f>
-        <v>19.194402400336447</v>
+        <v>17.290919300117366</v>
       </c>
       <c r="F98" s="7">
         <f ca="1">B7*D94</f>
-        <v>31.509899589079112</v>
+        <v>1.046099497765058</v>
       </c>
       <c r="H98" s="7">
         <f ca="1">A20</f>
-        <v>43.978325808100429</v>
+        <v>52.034326750619691</v>
       </c>
       <c r="I98" s="7">
         <f ca="1">B20</f>
-        <v>65.249452573987099</v>
+        <v>19.116032411463564</v>
       </c>
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <f ca="1">E99+C98</f>
-        <v>32.635610874756949</v>
+        <v>47.109562229928684</v>
       </c>
       <c r="B99" s="7">
         <f ca="1">F99+D98</f>
-        <v>69.661576554529432</v>
+        <v>43.178374093807882</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7">
         <f ca="1">A8*D94</f>
-        <v>4.9103947226638196</v>
+        <v>13.691364676962619</v>
       </c>
       <c r="F99" s="7">
         <f ca="1">B8*D94</f>
-        <v>43.370633836712393</v>
+        <v>4.9898739386127371</v>
       </c>
       <c r="H99" s="7">
         <f ca="1">A21</f>
-        <v>16.055277363117128</v>
+        <v>41.70786189738773</v>
       </c>
       <c r="I99" s="7">
         <f ca="1">B21</f>
-        <v>88.435372412676173</v>
+        <v>30.430001059283494</v>
       </c>
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <f ca="1">E100+C98</f>
-        <v>62.557253071616501</v>
+        <v>45.330498781837811</v>
       </c>
       <c r="B100" s="7">
         <f ca="1">F100+D98</f>
-        <v>41.656951325551816</v>
+        <v>54.978980274448588</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7">
         <f ca="1">A9*D94</f>
-        <v>34.832036919523368</v>
+        <v>11.912301228871746</v>
       </c>
       <c r="F100" s="7">
         <f ca="1">B9*D94</f>
-        <v>15.366008607734781</v>
+        <v>16.790480119253449</v>
       </c>
       <c r="H100" s="7">
         <f ca="1">A22</f>
-        <v>74.547507517987711</v>
+        <v>36.604053762291606</v>
       </c>
       <c r="I100" s="7">
         <f ca="1">B22</f>
-        <v>33.69061697722158</v>
+        <v>64.283785132274744</v>
       </c>
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <f ca="1">E101+C98</f>
-        <v>49.626763819376876</v>
+        <v>41.474960218801641</v>
       </c>
       <c r="B101" s="7">
         <f ca="1">F101+D98</f>
-        <v>29.343791791165415</v>
+        <v>54.644737715842844</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7">
         <f ca="1">A10*D94</f>
-        <v>21.90154766728374</v>
+        <v>8.056762665835576</v>
       </c>
       <c r="F101" s="7">
         <f ca="1">B10*D94</f>
-        <v>3.0528490733483844</v>
+        <v>16.4562375606477</v>
       </c>
       <c r="H101" s="7">
         <f ca="1">A23</f>
-        <v>49.270380401065552</v>
+        <v>25.543217734033384</v>
       </c>
       <c r="I101" s="7">
         <f ca="1">B23</f>
-        <v>9.6202749592102919</v>
+        <v>63.324904271933306</v>
       </c>
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <f ca="1">E102+C98</f>
-        <v>31.002855323045807</v>
+        <v>54.979360559842895</v>
       </c>
       <c r="B102" s="7">
         <f ca="1">F102+D98</f>
-        <v>33.348282122611316</v>
+        <v>65.9006238048635</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7">
         <f ca="1">A11*D94</f>
-        <v>3.277639170952674</v>
+        <v>21.561163006876832</v>
       </c>
       <c r="F102" s="7">
         <f ca="1">B11*D94</f>
-        <v>7.0573394047942823</v>
+        <v>27.712123649668364</v>
       </c>
       <c r="H102" s="7">
         <f ca="1">A24</f>
-        <v>12.863490198194921</v>
+        <v>64.284876101622245</v>
       </c>
       <c r="I102" s="7">
         <f ca="1">B24</f>
-        <v>17.448440558505887</v>
+        <v>95.615985880353037</v>
       </c>
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <f ca="1">E103+C98</f>
-        <v>48.742942003687304</v>
+        <v>45.150635373470095</v>
       </c>
       <c r="B103" s="7">
         <f ca="1">F103+D98</f>
-        <v>51.411861627220816</v>
+        <v>49.383231149159315</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7">
         <f ca="1">A12*D94</f>
-        <v>21.017725851594172</v>
+        <v>11.732437820504035</v>
       </c>
       <c r="F103" s="7">
         <f ca="1">B12*D94</f>
-        <v>25.120918909403787</v>
+        <v>11.194730993964175</v>
       </c>
       <c r="H103" s="7">
         <f ca="1">A25</f>
-        <v>47.542644044916102</v>
+        <v>36.088058490836652</v>
       </c>
       <c r="I103" s="7">
         <f ca="1">B25</f>
-        <v>52.759973356505739</v>
+        <v>48.230602802967717</v>
       </c>
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.25">
@@ -16125,23 +17444,23 @@
     <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <f ca="1">A16</f>
-        <v>42.147464999010346</v>
+        <v>70.430796223344856</v>
       </c>
       <c r="B107" s="7">
         <f ca="1">B16</f>
-        <v>73.320052861658041</v>
+        <v>81.645713936086878</v>
       </c>
       <c r="C107" s="1">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E107" s="7">
         <f ca="1">A16</f>
-        <v>42.147464999010346</v>
+        <v>70.430796223344856</v>
       </c>
       <c r="F107" s="7">
         <f ca="1">B16</f>
-        <v>73.320052861658041</v>
+        <v>81.645713936086878</v>
       </c>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
@@ -16166,23 +17485,23 @@
     <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <f ca="1">A17</f>
-        <v>43.94578124933151</v>
+        <v>32.068711435460855</v>
       </c>
       <c r="B108" s="7">
         <f ca="1">B17</f>
-        <v>86.312640874198763</v>
+        <v>25.53665008582368</v>
       </c>
       <c r="C108" s="7">
         <f t="shared" ref="C108:C116" ca="1" si="4">RANDBETWEEN(1,10)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E108" s="7">
         <f ca="1">A17</f>
-        <v>43.94578124933151</v>
+        <v>32.068711435460855</v>
       </c>
       <c r="F108" s="7">
         <f ca="1">B17</f>
-        <v>86.312640874198763</v>
+        <v>25.53665008582368</v>
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
@@ -16208,23 +17527,23 @@
     <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <f ca="1">A18</f>
-        <v>81.686762313509703</v>
+        <v>69.871897420190123</v>
       </c>
       <c r="B109" s="7">
         <f ca="1">B18</f>
-        <v>31.842765617872281</v>
+        <v>28.429863575721711</v>
       </c>
       <c r="C109" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E109" s="7">
         <f ca="1">A18</f>
-        <v>81.686762313509703</v>
+        <v>69.871897420190123</v>
       </c>
       <c r="F109" s="7">
         <f ca="1">B18</f>
-        <v>31.842765617872281</v>
+        <v>28.429863575721711</v>
       </c>
       <c r="H109" s="7"/>
       <c r="I109" s="7"/>
@@ -16250,23 +17569,23 @@
     <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <f ca="1">A19</f>
-        <v>87.962366104766602</v>
+        <v>71.366200184212914</v>
       </c>
       <c r="B110" s="7">
         <f ca="1">B19</f>
-        <v>41.320409808164115</v>
+        <v>43.386460844091893</v>
       </c>
       <c r="C110" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E110" s="7">
         <f ca="1">A19</f>
-        <v>87.962366104766602</v>
+        <v>71.366200184212914</v>
       </c>
       <c r="F110" s="7">
         <f ca="1">B19</f>
-        <v>41.320409808164115</v>
+        <v>43.386460844091893</v>
       </c>
       <c r="H110" s="7"/>
       <c r="I110" s="7"/>
@@ -16292,23 +17611,23 @@
     <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <f ca="1">A20</f>
-        <v>43.978325808100429</v>
+        <v>52.034326750619691</v>
       </c>
       <c r="B111" s="7">
         <f ca="1">B20</f>
-        <v>65.249452573987099</v>
+        <v>19.116032411463564</v>
       </c>
       <c r="C111" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E111" s="7">
         <f ca="1">A20</f>
-        <v>43.978325808100429</v>
+        <v>52.034326750619691</v>
       </c>
       <c r="F111" s="7">
         <f ca="1">B20</f>
-        <v>65.249452573987099</v>
+        <v>19.116032411463564</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
@@ -16334,23 +17653,23 @@
     <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <f ca="1">A21</f>
-        <v>16.055277363117128</v>
+        <v>41.70786189738773</v>
       </c>
       <c r="B112" s="7">
         <f ca="1">B21</f>
-        <v>88.435372412676173</v>
+        <v>30.430001059283494</v>
       </c>
       <c r="C112" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E112" s="7">
         <f ca="1">A21</f>
-        <v>16.055277363117128</v>
+        <v>41.70786189738773</v>
       </c>
       <c r="F112" s="7">
         <f ca="1">B21</f>
-        <v>88.435372412676173</v>
+        <v>30.430001059283494</v>
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
@@ -16376,23 +17695,23 @@
     <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <f ca="1">A22</f>
-        <v>74.547507517987711</v>
+        <v>36.604053762291606</v>
       </c>
       <c r="B113" s="7">
         <f ca="1">B22</f>
-        <v>33.69061697722158</v>
+        <v>64.283785132274744</v>
       </c>
       <c r="C113" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E113" s="7">
         <f ca="1">A22</f>
-        <v>74.547507517987711</v>
+        <v>36.604053762291606</v>
       </c>
       <c r="F113" s="7">
         <f ca="1">B22</f>
-        <v>33.69061697722158</v>
+        <v>64.283785132274744</v>
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
@@ -16418,23 +17737,23 @@
     <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <f ca="1">A23</f>
-        <v>49.270380401065552</v>
+        <v>25.543217734033384</v>
       </c>
       <c r="B114" s="7">
         <f ca="1">B23</f>
-        <v>9.6202749592102919</v>
+        <v>63.324904271933306</v>
       </c>
       <c r="C114" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E114" s="7">
         <f ca="1">A23</f>
-        <v>49.270380401065552</v>
+        <v>25.543217734033384</v>
       </c>
       <c r="F114" s="7">
         <f ca="1">B23</f>
-        <v>9.6202749592102919</v>
+        <v>63.324904271933306</v>
       </c>
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
@@ -16460,23 +17779,23 @@
     <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <f ca="1">A24</f>
-        <v>12.863490198194921</v>
+        <v>64.284876101622245</v>
       </c>
       <c r="B115" s="7">
         <f ca="1">B24</f>
-        <v>17.448440558505887</v>
+        <v>95.615985880353037</v>
       </c>
       <c r="C115" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E115" s="7">
         <f ca="1">A24</f>
-        <v>12.863490198194921</v>
+        <v>64.284876101622245</v>
       </c>
       <c r="F115" s="7">
         <f ca="1">B24</f>
-        <v>17.448440558505887</v>
+        <v>95.615985880353037</v>
       </c>
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
@@ -16502,23 +17821,23 @@
     <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <f ca="1">A25</f>
-        <v>47.542644044916102</v>
+        <v>36.088058490836652</v>
       </c>
       <c r="B116" s="7">
         <f ca="1">B25</f>
-        <v>52.759973356505739</v>
+        <v>48.230602802967717</v>
       </c>
       <c r="C116" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E116" s="7">
         <f ca="1">A25</f>
-        <v>47.542644044916102</v>
+        <v>36.088058490836652</v>
       </c>
       <c r="F116" s="7">
         <f ca="1">B25</f>
-        <v>52.759973356505739</v>
+        <v>48.230602802967717</v>
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
@@ -16563,209 +17882,459 @@
     <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <f ca="1">RANDBETWEEN(C128,C122)</f>
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B121" s="1">
         <f ca="1">RANDBETWEEN(C130,C122)</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D121" s="7">
         <f ca="1">A16</f>
-        <v>42.147464999010346</v>
+        <v>70.430796223344856</v>
       </c>
       <c r="E121" s="7">
         <f ca="1">B16</f>
-        <v>73.320052861658041</v>
+        <v>81.645713936086878</v>
       </c>
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <f ca="1">D121</f>
-        <v>42.147464999010346</v>
+        <v>70.430796223344856</v>
       </c>
       <c r="B122" s="7">
         <f ca="1">E121</f>
-        <v>73.320052861658041</v>
+        <v>81.645713936086878</v>
       </c>
       <c r="C122" s="1">
         <f ca="1">MAX(D121:D130)</f>
-        <v>87.962366104766602</v>
+        <v>71.366200184212914</v>
       </c>
       <c r="D122" s="7">
         <f ca="1">A17</f>
-        <v>43.94578124933151</v>
+        <v>32.068711435460855</v>
       </c>
       <c r="E122" s="7">
         <f ca="1">B17</f>
-        <v>86.312640874198763</v>
+        <v>25.53665008582368</v>
       </c>
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <f t="shared" ref="A123:B130" ca="1" si="5">D122</f>
-        <v>43.94578124933151</v>
+        <v>32.068711435460855</v>
       </c>
       <c r="B123" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>86.312640874198763</v>
+        <v>25.53665008582368</v>
       </c>
       <c r="D123" s="7">
         <f ca="1">A18</f>
-        <v>81.686762313509703</v>
+        <v>69.871897420190123</v>
       </c>
       <c r="E123" s="7">
         <f ca="1">B18</f>
-        <v>31.842765617872281</v>
+        <v>28.429863575721711</v>
       </c>
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>81.686762313509703</v>
+        <v>69.871897420190123</v>
       </c>
       <c r="B124" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>31.842765617872281</v>
+        <v>28.429863575721711</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D124" s="7">
         <f ca="1">A19</f>
-        <v>87.962366104766602</v>
+        <v>71.366200184212914</v>
       </c>
       <c r="E124" s="7">
         <f ca="1">B19</f>
-        <v>41.320409808164115</v>
+        <v>43.386460844091893</v>
       </c>
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>87.962366104766602</v>
+        <v>71.366200184212914</v>
       </c>
       <c r="B125" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>41.320409808164115</v>
+        <v>43.386460844091893</v>
       </c>
       <c r="C125" s="1">
         <f ca="1">MAX(E121:E130)</f>
-        <v>88.435372412676173</v>
+        <v>95.615985880353037</v>
       </c>
       <c r="D125" s="7">
         <f ca="1">A20</f>
-        <v>43.978325808100429</v>
+        <v>52.034326750619691</v>
       </c>
       <c r="E125" s="7">
         <f ca="1">B20</f>
-        <v>65.249452573987099</v>
+        <v>19.116032411463564</v>
       </c>
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>43.978325808100429</v>
+        <v>52.034326750619691</v>
       </c>
       <c r="B126" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>65.249452573987099</v>
+        <v>19.116032411463564</v>
       </c>
       <c r="D126" s="7">
         <f ca="1">A21</f>
-        <v>16.055277363117128</v>
+        <v>41.70786189738773</v>
       </c>
       <c r="E126" s="7">
         <f ca="1">B21</f>
-        <v>88.435372412676173</v>
+        <v>30.430001059283494</v>
       </c>
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>16.055277363117128</v>
+        <v>41.70786189738773</v>
       </c>
       <c r="B127" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>88.435372412676173</v>
+        <v>30.430001059283494</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D127" s="7">
         <f ca="1">A22</f>
-        <v>74.547507517987711</v>
+        <v>36.604053762291606</v>
       </c>
       <c r="E127" s="7">
         <f ca="1">B22</f>
-        <v>33.69061697722158</v>
+        <v>64.283785132274744</v>
       </c>
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>74.547507517987711</v>
+        <v>36.604053762291606</v>
       </c>
       <c r="B128" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>33.69061697722158</v>
+        <v>64.283785132274744</v>
       </c>
       <c r="C128" s="1">
         <f ca="1">MIN(D121:D130)</f>
-        <v>12.863490198194921</v>
+        <v>25.543217734033384</v>
       </c>
       <c r="D128" s="7">
         <f ca="1">A23</f>
-        <v>49.270380401065552</v>
+        <v>25.543217734033384</v>
       </c>
       <c r="E128" s="7">
         <f ca="1">B23</f>
-        <v>9.6202749592102919</v>
+        <v>63.324904271933306</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>49.270380401065552</v>
+        <v>25.543217734033384</v>
       </c>
       <c r="B129" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>9.6202749592102919</v>
+        <v>63.324904271933306</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D129" s="7">
         <f ca="1">A24</f>
-        <v>12.863490198194921</v>
+        <v>64.284876101622245</v>
       </c>
       <c r="E129" s="7">
         <f ca="1">B24</f>
-        <v>17.448440558505887</v>
-      </c>
+        <v>95.615985880353037</v>
+      </c>
+      <c r="O129" s="9"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>12.863490198194921</v>
+        <v>64.284876101622245</v>
       </c>
       <c r="B130" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>17.448440558505887</v>
+        <v>95.615985880353037</v>
       </c>
       <c r="C130" s="1">
         <f ca="1">MIN(E121:E130)</f>
-        <v>9.6202749592102919</v>
+        <v>19.116032411463564</v>
       </c>
       <c r="D130" s="7">
         <f ca="1">A25</f>
-        <v>47.542644044916102</v>
+        <v>36.088058490836652</v>
       </c>
       <c r="E130" s="7">
         <f ca="1">B25</f>
-        <v>52.759973356505739</v>
+        <v>48.230602802967717</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <f ca="1">A3</f>
+        <v>68.000959229361371</v>
+      </c>
+      <c r="B134" s="7">
+        <f ca="1">B3</f>
+        <v>65.530749942134051</v>
+      </c>
+      <c r="D134" s="7">
+        <f ca="1">A3</f>
+        <v>68.000959229361371</v>
+      </c>
+      <c r="E134" s="7">
+        <f ca="1">B3</f>
+        <v>65.530749942134051</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A135" s="7">
+        <f ca="1">A4</f>
+        <v>29.638874441477373</v>
+      </c>
+      <c r="B135" s="7">
+        <f ca="1">B4</f>
+        <v>9.4216860918708552</v>
+      </c>
+      <c r="D135" s="7">
+        <f t="shared" ref="D135:E143" ca="1" si="6">A4</f>
+        <v>29.638874441477373</v>
+      </c>
+      <c r="E135" s="7">
+        <f t="shared" ca="1" si="6"/>
+        <v>9.4216860918708552</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A136" s="7">
+        <f ca="1">A5</f>
+        <v>67.442060426206652</v>
+      </c>
+      <c r="B136" s="7">
+        <f ca="1">B5</f>
+        <v>12.314899581768884</v>
+      </c>
+      <c r="D136" s="7">
+        <f t="shared" ca="1" si="6"/>
+        <v>67.442060426206652</v>
+      </c>
+      <c r="E136" s="7">
+        <f t="shared" ca="1" si="6"/>
+        <v>12.314899581768884</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A137" s="7">
+        <f ca="1">A6</f>
+        <v>68.936363190229443</v>
+      </c>
+      <c r="B137" s="7">
+        <f ca="1">B6</f>
+        <v>27.271496850139066</v>
+      </c>
+      <c r="D137" s="7">
+        <f t="shared" ca="1" si="6"/>
+        <v>68.936363190229443</v>
+      </c>
+      <c r="E137" s="7">
+        <f t="shared" ca="1" si="6"/>
+        <v>27.271496850139066</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A138" s="7">
+        <f ca="1">A7</f>
+        <v>49.604489756636212</v>
+      </c>
+      <c r="B138" s="7">
+        <f ca="1">B7</f>
+        <v>3.0010684175107381</v>
+      </c>
+      <c r="D138" s="7">
+        <f t="shared" ca="1" si="6"/>
+        <v>49.604489756636212</v>
+      </c>
+      <c r="E138" s="7">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.0010684175107381</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A139" s="7">
+        <f ca="1">A8</f>
+        <v>39.278024903404251</v>
+      </c>
+      <c r="B139" s="7">
+        <f ca="1">B8</f>
+        <v>14.315037065330667</v>
+      </c>
+      <c r="D139" s="7">
+        <f t="shared" ca="1" si="6"/>
+        <v>39.278024903404251</v>
+      </c>
+      <c r="E139" s="7">
+        <f t="shared" ca="1" si="6"/>
+        <v>14.315037065330667</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A140" s="7">
+        <f ca="1">A9</f>
+        <v>34.174216768308128</v>
+      </c>
+      <c r="B140" s="7">
+        <f ca="1">B9</f>
+        <v>48.16882113832191</v>
+      </c>
+      <c r="D140" s="7">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.174216768308128</v>
+      </c>
+      <c r="E140" s="7">
+        <f t="shared" ca="1" si="6"/>
+        <v>48.16882113832191</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A141" s="7">
+        <f ca="1">A10</f>
+        <v>23.113380740049905</v>
+      </c>
+      <c r="B141" s="7">
+        <f ca="1">B10</f>
+        <v>47.209940277980479</v>
+      </c>
+      <c r="D141" s="7">
+        <f t="shared" ca="1" si="6"/>
+        <v>23.113380740049905</v>
+      </c>
+      <c r="E141" s="7">
+        <f t="shared" ca="1" si="6"/>
+        <v>47.209940277980479</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A142" s="7">
+        <f ca="1">A11</f>
+        <v>61.85503910763876</v>
+      </c>
+      <c r="B142" s="7">
+        <f ca="1">B11</f>
+        <v>79.50102188640021</v>
+      </c>
+      <c r="D142" s="7">
+        <f t="shared" ca="1" si="6"/>
+        <v>61.85503910763876</v>
+      </c>
+      <c r="E142" s="7">
+        <f t="shared" ca="1" si="6"/>
+        <v>79.50102188640021</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A143" s="7">
+        <f ca="1">A12</f>
+        <v>33.658221496853173</v>
+      </c>
+      <c r="B143" s="7">
+        <f ca="1">B12</f>
+        <v>32.115638809014889</v>
+      </c>
+      <c r="D143" s="7">
+        <f t="shared" ca="1" si="6"/>
+        <v>33.658221496853173</v>
+      </c>
+      <c r="E143" s="7">
+        <f t="shared" ca="1" si="6"/>
+        <v>32.115638809014889</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A144" s="7">
+        <f ca="1">RAND()*95</f>
+        <v>87.507600581192335</v>
+      </c>
+      <c r="B144" s="7">
+        <f ca="1">RAND()*95</f>
+        <v>74.040433209412939</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="7">
+        <f t="shared" ref="A145:B148" ca="1" si="7">RAND()*95</f>
+        <v>6.6052115047504012</v>
+      </c>
+      <c r="B145" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>65.792331249418865</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>18.03450793878552</v>
+      </c>
+      <c r="B146" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>88.549409153726756</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>54.13457910984873</v>
+      </c>
+      <c r="B147" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>89.152717539196644</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.1317009527140911</v>
+      </c>
+      <c r="B148" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>46.609002559663494</v>
       </c>
     </row>
   </sheetData>
